--- a/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC43C23-8287-48E8-9961-E57852E8F3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB33BF7-0693-471F-A92A-479908F7C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="테이블 정의" sheetId="1" r:id="rId1"/>
+    <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
     <sheet name="이행 데이터" sheetId="2" r:id="rId2"/>
     <sheet name="용어 사전" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="297">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USE_YN</t>
   </si>
   <si>
@@ -469,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코드 그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드 그룹 정보 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,18 +479,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코드 그룹명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_CODE_DETAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코드 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드 상세 정보 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,10 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 로그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 로그 정보 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,32 +719,9 @@
     <t>ATC_FILE_EXTS</t>
   </si>
   <si>
-    <t>첨부파일 순번</t>
-  </si>
-  <si>
     <t>파일명</t>
   </si>
   <si>
-    <t>파일 저장명</t>
-  </si>
-  <si>
-    <t>파일 경로</t>
-  </si>
-  <si>
-    <t>파일 용량</t>
-  </si>
-  <si>
-    <t>파일 확장자</t>
-  </si>
-  <si>
-    <t>NOTICE_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREE_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FREE_TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -818,10 +774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_SEQUENCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -899,18 +851,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LOGIN_SEQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자유게시판일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자유게시판제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1021,10 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LT_UPD_DTTI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"/user/signUp"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,6 +1002,144 @@
   </si>
   <si>
     <t>"로그아웃"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_MODIFY_YN</t>
+  </si>
+  <si>
+    <t>CODE_MODIFY_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드수정가능여부</t>
+  </si>
+  <si>
+    <t>코드수정가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"N"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BOARD_CODE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"공지사항"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"자유게시판"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"질문게시판"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"지역게시판"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"POLI_SEQ"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"LOGIN_SEQ"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BOARD_SEQ"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_LOG_REQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 발생한 요청 기록 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_DTTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_PARAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청파라미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ_TYPE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청타입코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"REQ_SEQ"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,7 +1147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1192,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1200,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,29 +1301,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,40 +1334,46 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1598,25 +1689,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B08B2B-38EE-4D22-BD81-EC2AE4E8F13E}">
-  <dimension ref="A2:K164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
+  <dimension ref="B2:K179"/>
   <sheetViews>
-    <sheetView topLeftCell="G40" workbookViewId="0">
-      <selection activeCell="K40" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.796875" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="96.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="107.69921875" customWidth="1"/>
+    <col min="11" max="11" width="120.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
@@ -1632,101 +1724,109 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <v>44942</v>
       </c>
       <c r="J3" t="str">
         <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C3,";")</f>
         <v>DROP TABLE IF EXISTS TB_USER;</v>
       </c>
+      <c r="K3" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C3,";")</f>
+        <v>DROP TABLE IF EXISTS TB_USER;</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
       </c>
       <c r="K4" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C3, " COMMENT = '",C4,"';")</f>
-        <v>ALTER TABLE TB_USER COMMENT = '사용자 정보 관리';</v>
+        <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
+        <v>CREATE TABLE TB_USER</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J5" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
+      <c r="K5" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1740,21 +1840,25 @@
         <f>_xlfn.CONCAT(IF(B6=1,"",", "),C6," ",E6," ",G6,IF(H6="",""," DEFAULT "),H6, " COMMENT '",I6,"'")</f>
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자 아이디'</v>
       </c>
+      <c r="K6" t="str">
+        <f>_xlfn.CONCAT(IF(B6=1,"",", "),C6," ",E6," ",G6,IF(H6="",""," DEFAULT "),H6, " COMMENT '",I6,"'")</f>
+        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자 아이디'</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1763,689 +1867,798 @@
         <v>47</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J30" si="0">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
+        <f t="shared" ref="J7:K30" si="0">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
         <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자 비밀번호'</v>
       </c>
+      <c r="K7" t="str">
+        <f t="shared" ref="K7:K30" si="1">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
+        <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자 비밀번호'</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>, USER_BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
       </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>, USER_PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
       </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>, USER_POST VARCHAR(20) NULL COMMENT '우편번호'</v>
       </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_POST VARCHAR(20) NULL COMMENT '우편번호'</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>, USER_ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
       </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>, USER_ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
       </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>, USER_BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
       </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>, USER_ACCOUNT VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_ACCOUNT VARCHAR(50) NULL COMMENT '계좌번호'</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>, USER_SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="5">
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>, USER_STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="5">
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="4">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>, USER_GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="5">
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>, USER_MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="5">
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="4">
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>, USER_PIC VARCHAR(200) NULL COMMENT '사진'</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="5">
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>, USER_PIC VARCHAR(200) NULL COMMENT '사진'</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="4">
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="5">
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="4">
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
         <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="5">
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="4">
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
         <v>, PW_CH_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '비밀번호 최종수정일시'</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>, PW_CH_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '비밀번호 최종수정일시'</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="4">
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
         <v>, PW_BF VARCHAR(50) NULL COMMENT '이전 비밀번호'</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="5">
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>, PW_BF VARCHAR(50) NULL COMMENT '이전 비밀번호'</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" s="4">
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
         <v>, PW_ERR_CNT VARCHAR(1) NULL DEFAULT '0' COMMENT '비밀번호 오입력 횟수'</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B26" s="5">
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>, PW_ERR_CNT VARCHAR(1) NULL DEFAULT '0' COMMENT '비밀번호 오입력 횟수'</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
         <v>, PW_INIT_YN CHAR(1) NULL DEFAULT 'N' COMMENT '비밀번호 초기화 여부'</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="5">
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>, PW_INIT_YN CHAR(1) NULL DEFAULT 'N' COMMENT '비밀번호 초기화 여부'</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="4">
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="5">
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="4">
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="5">
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="4">
         <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E29" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="5">
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="4">
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J31" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C4,"';")</f>
+        <v>) COMMENT '사용자 정보 관리';</v>
+      </c>
+      <c r="K31" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
       </c>
+      <c r="K32" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
+      </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B33" s="16">
+      <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="str">
+      <c r="C33" s="12" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="str">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
       </c>
+      <c r="K33" t="str">
+        <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
+        <v>USER_ID</v>
+      </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J34" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+      <c r="K34" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
@@ -2463,101 +2676,109 @@
       <c r="I35" s="15"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="7">
         <v>44942</v>
       </c>
       <c r="J36" t="str">
         <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C36,";")</f>
         <v>DROP TABLE IF EXISTS TB_CODE_GROUP;</v>
       </c>
+      <c r="K36" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C36,";")</f>
+        <v>DROP TABLE IF EXISTS TB_CODE_GROUP;</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
+      <c r="C37" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
       </c>
       <c r="K37" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C36, " COMMENT = '",C37,"';")</f>
-        <v>ALTER TABLE TB_CODE_GROUP COMMENT = '코드 그룹 정보 관리';</v>
+        <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
+        <v>CREATE TABLE TB_CODE_GROUP</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J38" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
+      <c r="K38" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2565,229 +2786,273 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="J39" t="str">
         <f>_xlfn.CONCAT(IF(B39=1,"",", "),C39," ",E39," ",G39,IF(H39="",""," DEFAULT "),H39, " COMMENT '",I39,"'")</f>
-        <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드 그룹'</v>
+        <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
+      </c>
+      <c r="K39" t="str">
+        <f>_xlfn.CONCAT(IF(B39=1,"",", "),C39," ",E39," ",G39,IF(H39="",""," DEFAULT "),H39, " COMMENT '",I39,"'")</f>
+        <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40:J45" si="1">_xlfn.CONCAT(IF(B40=1,"",", "),C40," ",E40," ",G40,IF(H40="",""," DEFAULT "),H40, " COMMENT '",I40,"'")</f>
-        <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드 그룹명'</v>
+        <f t="shared" ref="J40:K45" si="2">_xlfn.CONCAT(IF(B40=1,"",", "),C40," ",E40," ",G40,IF(H40="",""," DEFAULT "),H40, " COMMENT '",I40,"'")</f>
+        <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드그룹명'</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" ref="K40:K45" si="3">_xlfn.CONCAT(IF(B40=1,"",", "),C40," ",E40," ",G40,IF(H40="",""," DEFAULT "),H40, " COMMENT '",I40,"'")</f>
+        <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드그룹명'</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
       </c>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E42" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="5"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E44" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J46" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C37,"';")</f>
+        <v>) COMMENT '코드 그룹 정보 관리';</v>
+      </c>
+      <c r="K46" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
       </c>
+      <c r="K47" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
+      </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B48" s="16">
+      <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="4" t="str">
+      <c r="C48" s="12" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="str">
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
       </c>
+      <c r="K48" t="str">
+        <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
+        <v>CODE_GROUP</v>
+      </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J49" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+      <c r="K49" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
@@ -2805,101 +3070,109 @@
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="7">
         <v>44942</v>
       </c>
       <c r="J51" t="str">
         <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C51,";")</f>
         <v>DROP TABLE IF EXISTS TB_CODE_DETAIL;</v>
       </c>
+      <c r="K51" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C51,";")</f>
+        <v>DROP TABLE IF EXISTS TB_CODE_DETAIL;</v>
+      </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="C52" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
       </c>
       <c r="K52" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C51, " COMMENT = '",C52,"';")</f>
-        <v>ALTER TABLE TB_CODE_DETAIL COMMENT = '코드 상세 정보 관리';</v>
+        <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
+        <v>CREATE TABLE TB_CODE_DETAIL</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J53" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
+      <c r="K53" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2907,27 +3180,31 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J54" t="str">
         <f>_xlfn.CONCAT(IF(B54=1,"",", "),C54," ",E54," ",G54,IF(H54="",""," DEFAULT "),H54, " COMMENT '",I54,"'")</f>
         <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
       </c>
+      <c r="K54" t="str">
+        <f>_xlfn.CONCAT(IF(B54=1,"",", "),C54," ",E54," ",G54,IF(H54="",""," DEFAULT "),H54, " COMMENT '",I54,"'")</f>
+        <v>CODE_GROUP VARCHAR(30) NOT NULL COMMENT '코드그룹'</v>
+      </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E55" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -2935,1329 +3212,1507 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" ref="J55:J61" si="2">_xlfn.CONCAT(IF(B55=1,"",", "),C55," ",E55," ",G55,IF(H55="",""," DEFAULT "),H55, " COMMENT '",I55,"'")</f>
+        <f t="shared" ref="J55:K62" si="4">_xlfn.CONCAT(IF(B55=1,"",", "),C55," ",E55," ",G55,IF(H55="",""," DEFAULT "),H55, " COMMENT '",I55,"'")</f>
         <v>, CODE_DETAIL VARCHAR(10) NOT NULL COMMENT '코드상세'</v>
       </c>
+      <c r="K55" t="str">
+        <f t="shared" ref="K55:K62" si="5">_xlfn.CONCAT(IF(B55=1,"",", "),C55," ",E55," ",G55,IF(H55="",""," DEFAULT "),H55, " COMMENT '",I55,"'")</f>
+        <v>, CODE_DETAIL VARCHAR(10) NOT NULL COMMENT '코드상세'</v>
+      </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="5"/>
+        <v>232</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="4"/>
       <c r="G56" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>, CODE_DETAIL_NM VARCHAR(150) NULL COMMENT '코드상세명'</v>
       </c>
+      <c r="K56" t="str">
+        <f t="shared" si="5"/>
+        <v>, CODE_DETAIL_NM VARCHAR(150) NULL COMMENT '코드상세명'</v>
+      </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F57" s="5"/>
+        <v>265</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" ref="J57" si="3">_xlfn.CONCAT(IF(B57=1,"",", "),C57," ",E57," ",G57,IF(H57="",""," DEFAULT "),H57, " COMMENT '",I57,"'")</f>
+        <f t="shared" si="4"/>
+        <v>, CODE_MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="5"/>
+        <v>, CODE_MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B58" s="4">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J58" t="str">
+        <f>_xlfn.CONCAT(IF(B58=1,"",", "),C58," ",E58," ",G58,IF(H58="",""," DEFAULT "),H58, " COMMENT '",I58,"'")</f>
         <v>, CODE_DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B58" s="5">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="K58" t="str">
+        <f t="shared" si="5"/>
+        <v>, CODE_DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B59" s="4">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="2"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B59" s="5">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="2"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+        <f t="shared" si="4"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="5"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+        <f t="shared" si="4"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="5"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="5"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B62" s="4">
+        <v>9</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="4"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J62" t="str">
+      <c r="K62" t="str">
+        <f t="shared" si="5"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J63" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C52,"';")</f>
+        <v>) COMMENT '코드 상세 정보 관리';</v>
+      </c>
+      <c r="K63" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B63" s="8" t="s">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7" t="s">
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C64," PRIMARY KEY (")</f>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B64" s="16">
+      <c r="K64" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="4" t="str">
+      <c r="C65" s="12" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4" t="str">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" t="str">
-        <f>_xlfn.CONCAT(IF(B64=1,"",", "),F64)</f>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" t="str">
+        <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B65" s="16">
+      <c r="K65" t="str">
+        <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
+        <v>CODE_GROUP</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C65" s="4" t="str">
+      <c r="C66" s="12" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4" t="str">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" t="str">
-        <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" t="str">
+        <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J66" t="str">
+      <c r="K66" t="str">
+        <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
+        <v>, CODE_DETAIL</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J67" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B67" s="13" t="s">
+      <c r="K67" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B68" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="15"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="C69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="E69" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H69" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I69" s="7">
         <v>44942</v>
       </c>
-      <c r="J68" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C68,";")</f>
+      <c r="J69" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C69,";")</f>
         <v>DROP TABLE IF EXISTS TB_LOG_LOGIN;</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B69" s="8" t="s">
+      <c r="K69" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C69,";")</f>
+        <v>DROP TABLE IF EXISTS TB_LOG_LOGIN;</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C68)</f>
+      <c r="C70" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
       </c>
-      <c r="K69" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C68, " COMMENT = '",C69,"';")</f>
-        <v>ALTER TABLE TB_LOG_LOGIN COMMENT = '로그인 로그 정보 관리';</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B70" s="8" t="s">
+      <c r="K70" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
+        <v>CREATE TABLE TB_LOG_LOGIN</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B71" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E71" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F71" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="G71" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H71" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I71" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J70" t="str">
+      <c r="J71" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B71" s="5">
+      <c r="K71" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B72" s="4">
         <v>1</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F71" s="5">
+      <c r="C72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F72" s="4">
         <v>1</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J71" t="str">
-        <f>_xlfn.CONCAT(IF(B71=1,"",", "),C71," ",E71," ",G71,IF(H71="",""," DEFAULT "),H71, " COMMENT '",I71,"'")</f>
-        <v>LOGIN_SEQ VARCHAR(10) NOT NULL COMMENT '로그인일련번호'</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B72" s="5">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J72" t="str">
+        <f>_xlfn.CONCAT(IF(B72=1,"",", "),C72," ",E72," ",G72,IF(H72="",""," DEFAULT "),H72, " COMMENT '",I72,"'")</f>
+        <v>LOGIN_SEQ INT(10) NOT NULL COMMENT '로그인일련번호'</v>
+      </c>
+      <c r="K72" t="str">
+        <f>_xlfn.CONCAT(IF(B72=1,"",", "),C72," ",E72," ",G72,IF(H72="",""," DEFAULT "),H72, " COMMENT '",I72,"'")</f>
+        <v>LOGIN_SEQ INT(10) NOT NULL COMMENT '로그인일련번호'</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B73" s="4">
         <v>2</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="C73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="J72" t="str">
-        <f t="shared" ref="J72:J75" si="4">_xlfn.CONCAT(IF(B72=1,"",", "),C72," ",E72," ",G72,IF(H72="",""," DEFAULT "),H72, " COMMENT '",I72,"'")</f>
-        <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B73" s="5">
-        <v>3</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="5"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" si="4"/>
-        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <f t="shared" ref="J73:K76" si="6">_xlfn.CONCAT(IF(B73=1,"",", "),C73," ",E73," ",G73,IF(H73="",""," DEFAULT "),H73, " COMMENT '",I73,"'")</f>
+        <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" ref="K73:K76" si="7">_xlfn.CONCAT(IF(B73=1,"",", "),C73," ",E73," ",G73,IF(H73="",""," DEFAULT "),H73, " COMMENT '",I73,"'")</f>
+        <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B74" s="5">
-        <v>4</v>
+      <c r="B74" s="4">
+        <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E74" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F74" s="5"/>
+      <c r="E74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="4"/>
       <c r="G74" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="4"/>
-        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
+        <f t="shared" si="6"/>
+        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="7"/>
+        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B75" s="5">
-        <v>5</v>
+      <c r="B75" s="4">
+        <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" s="4"/>
       <c r="G75" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="7"/>
+        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B76" s="4">
+        <v>5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="6"/>
         <v>, LOGIN_CODE VARCHAR(10) NULL COMMENT '로그인코드'</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J76" t="str">
+      <c r="K76" t="str">
+        <f t="shared" si="7"/>
+        <v>, LOGIN_CODE VARCHAR(10) NULL COMMENT '로그인코드'</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J77" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C70,"';")</f>
+        <v>) COMMENT '로그인 로그 정보 관리';</v>
+      </c>
+      <c r="K77" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B77" s="8" t="s">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7" t="s">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C68," ADD CONSTRAINT ",C78," PRIMARY KEY (")</f>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B78" s="16">
+      <c r="K78" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C78" s="4" t="str">
-        <f>_xlfn.CONCAT("PK_",C68)</f>
+      <c r="C79" s="12" t="str">
+        <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4" t="str">
-        <f>C71</f>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12" t="str">
+        <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" t="str">
-        <f>_xlfn.CONCAT(IF(B78=1,"",", "),F78)</f>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" t="str">
+        <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J79" t="str">
+      <c r="K79" t="str">
+        <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
+        <v>LOGIN_SEQ</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J80" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B80" s="13" t="s">
+      <c r="K80" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B81" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="15"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="8" t="s">
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="C82" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F81" s="8" t="s">
+      <c r="E82" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H82" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I81" s="11">
-        <v>44942</v>
-      </c>
-      <c r="J81" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C81,";")</f>
-        <v>DROP TABLE IF EXISTS TB_BOARD_FREE;</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B82" s="8" t="s">
+      <c r="I82" s="7">
+        <v>44944</v>
+      </c>
+      <c r="J82" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C82,";")</f>
+        <v>DROP TABLE IF EXISTS TB_LOG_REQ;</v>
+      </c>
+      <c r="K82" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C82,";")</f>
+        <v>DROP TABLE IF EXISTS TB_LOG_REQ;</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C81)</f>
-        <v>CREATE TABLE TB_BOARD_FREE</v>
-      </c>
-      <c r="K82" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C81, " COMMENT = '",C82,"';")</f>
-        <v>ALTER TABLE TB_BOARD_FREE COMMENT = '자유게시판 정보 관리';</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
+        <v>CREATE TABLE TB_LOG_REQ</v>
+      </c>
+      <c r="K83" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
+        <v>CREATE TABLE TB_LOG_REQ</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B84" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D84" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E84" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F84" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G84" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I84" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J83" t="str">
+      <c r="J84" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B84" s="5">
+      <c r="K84" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B85" s="4">
         <v>1</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F84" s="5">
+      <c r="C85" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J84" t="str">
-        <f>_xlfn.CONCAT(IF(B84=1,"",", "),C84," ",E84," ",G84,IF(H84="",""," DEFAULT "),H84, " COMMENT '",I84,"'")</f>
-        <v>FREE_SEQ VARCHAR(10) NOT NULL COMMENT '자유게시판일련번호'</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B85" s="5">
-        <v>2</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="J85" t="str">
-        <f t="shared" ref="J85:J92" si="5">_xlfn.CONCAT(IF(B85=1,"",", "),C85," ",E85," ",G85,IF(H85="",""," DEFAULT "),H85, " COMMENT '",I85,"'")</f>
-        <v>, FREE_TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
+        <f>_xlfn.CONCAT(IF(B85=1,"",", "),C85," ",E85," ",G85,IF(H85="",""," DEFAULT "),H85, " COMMENT '",I85,"'")</f>
+        <v>REQ_SEQ VARCHAR(10) NOT NULL COMMENT '요청일련번호'</v>
+      </c>
+      <c r="K85" t="str">
+        <f>_xlfn.CONCAT(IF(B85=1,"",", "),C85," ",E85," ",G85,IF(H85="",""," DEFAULT "),H85, " COMMENT '",I85,"'")</f>
+        <v>REQ_SEQ VARCHAR(10) NOT NULL COMMENT '요청일련번호'</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B86" s="5">
-        <v>3</v>
+      <c r="B86" s="4">
+        <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F86" s="5"/>
+        <v>284</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F86" s="4"/>
       <c r="G86" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="I86" s="1" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" si="5"/>
-        <v>, FREE_CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
+        <f t="shared" ref="J86:J91" si="8">_xlfn.CONCAT(IF(B86=1,"",", "),C86," ",E86," ",G86,IF(H86="",""," DEFAULT "),H86, " COMMENT '",I86,"'")</f>
+        <v>, REQ_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '요청일시'</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" ref="K86:K91" si="9">_xlfn.CONCAT(IF(B86=1,"",", "),C86," ",E86," ",G86,IF(H86="",""," DEFAULT "),H86, " COMMENT '",I86,"'")</f>
+        <v>, REQ_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '요청일시'</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B87" s="5">
-        <v>4</v>
+      <c r="B87" s="4">
+        <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F87" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="4"/>
       <c r="G87" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I87" s="1" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="5"/>
-        <v>, FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
+        <f t="shared" si="8"/>
+        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="9"/>
+        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B88" s="5">
-        <v>5</v>
+      <c r="B88" s="4">
+        <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F88" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F88" s="4"/>
       <c r="G88" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H88" s="1">
-        <v>0</v>
+      <c r="H88" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="5"/>
-        <v>, FREE_HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
+        <f t="shared" si="8"/>
+        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="9"/>
+        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B89" s="5">
+      <c r="B89" s="4">
+        <v>5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" ref="J89:J90" si="10">_xlfn.CONCAT(IF(B89=1,"",", "),C89," ",E89," ",G89,IF(H89="",""," DEFAULT "),H89, " COMMENT '",I89,"'")</f>
+        <v>, REQ_URI VARCHAR(100) NULL COMMENT '요청경로'</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" ref="K89:K90" si="11">_xlfn.CONCAT(IF(B89=1,"",", "),C89," ",E89," ",G89,IF(H89="",""," DEFAULT "),H89, " COMMENT '",I89,"'")</f>
+        <v>, REQ_URI VARCHAR(100) NULL COMMENT '요청경로'</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B90" s="4">
         <v>6</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J89" t="str">
-        <f t="shared" si="5"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B90" s="5">
+      <c r="C90" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="10"/>
+        <v>, REQ_PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="11"/>
+        <v>, REQ_PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B91" s="4">
         <v>7</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J90" t="str">
-        <f t="shared" si="5"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B91" s="5">
-        <v>8</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F91" s="5"/>
+        <v>292</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="4"/>
       <c r="G91" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="5"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+        <f t="shared" si="8"/>
+        <v>, REQ_TYPE_CODE VARCHAR(10) NULL COMMENT '요청타입코드'</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="9"/>
+        <v>, REQ_TYPE_CODE VARCHAR(10) NULL COMMENT '요청타입코드'</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B92" s="5">
-        <v>9</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="J92" t="str">
-        <f t="shared" si="5"/>
-        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J93" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C83,"';")</f>
+        <v>) COMMENT '서버에 발생한 요청 기록 관리';</v>
+      </c>
+      <c r="K92" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
+      </c>
+      <c r="K93" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
+      </c>
+    </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B94" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
+      <c r="B94" s="4">
+        <v>1</v>
+      </c>
+      <c r="C94" s="12" t="str">
+        <f>_xlfn.CONCAT("PK_",C82)</f>
+        <v>PK_TB_LOG_REQ</v>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12" t="str">
+        <f>C85</f>
+        <v>REQ_SEQ</v>
+      </c>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
       <c r="J94" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C81," ADD CONSTRAINT ",C95," PRIMARY KEY (")</f>
-        <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
+        <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
+        <v>REQ_SEQ</v>
+      </c>
+      <c r="K94" t="str">
+        <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
+        <v>REQ_SEQ</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B95" s="16">
-        <v>1</v>
-      </c>
-      <c r="C95" s="4" t="str">
-        <f>_xlfn.CONCAT("PK_",C81)</f>
-        <v>PK_TB_BOARD_FREE</v>
-      </c>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4" t="str">
-        <f>C84</f>
-        <v>FREE_SEQ</v>
-      </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
       <c r="J95" t="str">
-        <f>_xlfn.CONCAT(IF(B95=1,"",", "),F95)</f>
-        <v>FREE_SEQ</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J96" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
+      <c r="K95" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B97" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="15"/>
+      <c r="B97" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" s="7">
+        <v>44942</v>
+      </c>
+      <c r="J97" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C97,";")</f>
+        <v>DROP TABLE IF EXISTS TB_BOARD_FREE;</v>
+      </c>
+      <c r="K97" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C97,";")</f>
+        <v>DROP TABLE IF EXISTS TB_BOARD_FREE;</v>
+      </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
+        <v>CREATE TABLE TB_BOARD_FREE</v>
+      </c>
+      <c r="K98" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
+        <v>CREATE TABLE TB_BOARD_FREE</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B99" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I98" s="11">
-        <v>44942</v>
-      </c>
-      <c r="J98" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C98,";")</f>
-        <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B99" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
+      <c r="E99" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="J99" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C98)</f>
-        <v>CREATE TABLE TB_BOARD_NOTICE</v>
-      </c>
-      <c r="K99" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C98, " COMMENT = '",C99,"';")</f>
-        <v>ALTER TABLE TB_BOARD_NOTICE COMMENT = '공지사항 정보 관리';</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B100" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J100" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
+      <c r="K99" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F100" s="4">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J100" t="str">
+        <f>_xlfn.CONCAT(IF(B100=1,"",", "),C100," ",E100," ",G100,IF(H100="",""," DEFAULT "),H100, " COMMENT '",I100,"'")</f>
+        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+      </c>
+      <c r="K100" t="str">
+        <f>_xlfn.CONCAT(IF(B100=1,"",", "),C100," ",E100," ",G100,IF(H100="",""," DEFAULT "),H100, " COMMENT '",I100,"'")</f>
+        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+      </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B101" s="5">
-        <v>1</v>
+      <c r="B101" s="4">
+        <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F101" s="5">
-        <v>1</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="4"/>
       <c r="G101" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J101" t="str">
-        <f>_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
-        <v>NOTICE_SEQ VARCHAR(10) NOT NULL COMMENT '공지사항일련번호'</v>
+        <f t="shared" ref="J101:K108" si="12">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
+        <v>, FREE_TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
+      </c>
+      <c r="K101" t="str">
+        <f t="shared" ref="K101:K108" si="13">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
+        <v>, FREE_TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B102" s="5">
-        <v>2</v>
+      <c r="B102" s="4">
+        <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F102" s="4"/>
       <c r="G102" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" ref="J102:J111" si="6">_xlfn.CONCAT(IF(B102=1,"",", "),C102," ",E102," ",G102,IF(H102="",""," DEFAULT "),H102, " COMMENT '",I102,"'")</f>
-        <v>, NOTICE_TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
+        <f t="shared" si="12"/>
+        <v>, FREE_CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
+      </c>
+      <c r="K102" t="str">
+        <f t="shared" si="13"/>
+        <v>, FREE_CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B103" s="5">
-        <v>3</v>
+      <c r="B103" s="4">
+        <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F103" s="5"/>
+        <v>226</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="4"/>
       <c r="G103" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" si="6"/>
-        <v>, NOTICE_CN LONGTEXT NULL COMMENT '공지사항내용'</v>
+        <f t="shared" si="12"/>
+        <v>, FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
+      </c>
+      <c r="K103" t="str">
+        <f t="shared" si="13"/>
+        <v>, FREE_CODE VARCHAR(10) NULL COMMENT '자유게시판(01:잡담,02:정보,03:질문)'</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B104" s="5">
-        <v>4</v>
+      <c r="B104" s="4">
+        <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104" s="4"/>
       <c r="G104" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H104" s="1"/>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
       <c r="I104" s="1" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" ref="J104:J105" si="7">_xlfn.CONCAT(IF(B104=1,"",", "),C104," ",E104," ",G104,IF(H104="",""," DEFAULT "),H104, " COMMENT '",I104,"'")</f>
-        <v>, NOTICE_STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
+        <f t="shared" si="12"/>
+        <v>, FREE_HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
+      </c>
+      <c r="K104" t="str">
+        <f t="shared" si="13"/>
+        <v>, FREE_HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B105" s="5">
-        <v>5</v>
+      <c r="B105" s="4">
+        <v>6</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="4"/>
       <c r="G105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H105" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I105" s="1" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="7"/>
-        <v>, NOTICE_END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
+        <f t="shared" si="12"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K105" t="str">
+        <f t="shared" si="13"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B106" s="5">
-        <v>6</v>
+      <c r="B106" s="4">
+        <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F106" s="4"/>
       <c r="G106" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H106" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="I106" s="1" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="6"/>
-        <v>, NOTICE_POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
+        <f t="shared" si="12"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="13"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B107" s="5">
-        <v>7</v>
+      <c r="B107" s="4">
+        <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F107" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" s="4"/>
       <c r="G107" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="6"/>
-        <v>, NOTICE_HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
+        <f t="shared" si="12"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="13"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B108" s="5">
-        <v>8</v>
+      <c r="B108" s="4">
+        <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F108" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" s="4"/>
       <c r="G108" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="6"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+        <f t="shared" si="12"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+      <c r="K108" t="str">
+        <f t="shared" si="13"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B109" s="5">
-        <v>9</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="J109" t="str">
-        <f t="shared" si="6"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+        <f>_xlfn.CONCAT(") COMMENT '",C98,"';")</f>
+        <v>) COMMENT '자유게시판 정보 관리';</v>
+      </c>
+      <c r="K109" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B110" s="5">
-        <v>10</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="B110" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
       <c r="J110" t="str">
-        <f t="shared" si="6"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+        <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
+      </c>
+      <c r="K110" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B111" s="5">
-        <v>11</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" s="12" t="str">
+        <f>_xlfn.CONCAT("PK_",C97)</f>
+        <v>PK_TB_BOARD_FREE</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12" t="str">
+        <f>C100</f>
+        <v>BOARD_SEQ</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
       <c r="J111" t="str">
-        <f t="shared" si="6"/>
-        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+        <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
+        <v>BOARD_SEQ</v>
+      </c>
+      <c r="K111" t="str">
+        <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
+        <v>BOARD_SEQ</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.4">
@@ -4265,1256 +4720,1876 @@
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C98," ADD CONSTRAINT ",C114," PRIMARY KEY (")</f>
-        <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B114" s="16">
-        <v>1</v>
-      </c>
-      <c r="C114" s="4" t="str">
-        <f>_xlfn.CONCAT("PK_",C98)</f>
-        <v>PK_TB_BOARD_NOTICE</v>
-      </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4" t="str">
-        <f>C101</f>
-        <v>NOTICE_SEQ</v>
-      </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" t="str">
-        <f>_xlfn.CONCAT(IF(B114=1,"",", "),F114)</f>
-        <v>NOTICE_SEQ</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J115" t="str">
+      <c r="K112" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B113" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B114" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I114" s="7">
+        <v>44942</v>
+      </c>
+      <c r="J114" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C114,";")</f>
+        <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
+      </c>
+      <c r="K114" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C114,";")</f>
+        <v>DROP TABLE IF EXISTS TB_BOARD_NOTICE;</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B115" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
+        <v>CREATE TABLE TB_BOARD_NOTICE</v>
+      </c>
+      <c r="K115" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
+        <v>CREATE TABLE TB_BOARD_NOTICE</v>
+      </c>
+    </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B116" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="15"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B117" s="8" t="s">
+      <c r="B116" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I117" s="11">
-        <v>44942</v>
-      </c>
-      <c r="J117" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C117,";")</f>
-        <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B118" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C117)</f>
-        <v>CREATE TABLE TB_ATCFILE</v>
-      </c>
-      <c r="K118" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C117, " COMMENT = '",C118,"';")</f>
-        <v>ALTER TABLE TB_ATCFILE COMMENT = '첨부파일 정보 관리';</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B119" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="8" t="s">
+      <c r="E116" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F116" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G116" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H119" s="8" t="s">
+      <c r="H116" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="I116" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J119" t="str">
+      <c r="J116" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
+      <c r="K116" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J117" t="str">
+        <f>_xlfn.CONCAT(IF(B117=1,"",", "),C117," ",E117," ",G117,IF(H117="",""," DEFAULT "),H117, " COMMENT '",I117,"'")</f>
+        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+      </c>
+      <c r="K117" t="str">
+        <f>_xlfn.CONCAT(IF(B117=1,"",", "),C117," ",E117," ",G117,IF(H117="",""," DEFAULT "),H117, " COMMENT '",I117,"'")</f>
+        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B118" s="4">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" ref="J118:K127" si="14">_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
+        <v>, NOTICE_TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" ref="K118:K127" si="15">_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
+        <v>, NOTICE_TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B119" s="4">
+        <v>3</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="14"/>
+        <v>, NOTICE_CN LONGTEXT NULL COMMENT '공지사항내용'</v>
+      </c>
+      <c r="K119" t="str">
+        <f t="shared" si="15"/>
+        <v>, NOTICE_CN LONGTEXT NULL COMMENT '공지사항내용'</v>
+      </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B120" s="5">
-        <v>1</v>
+      <c r="B120" s="4">
+        <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F120" s="5">
-        <v>1</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="4"/>
       <c r="G120" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="J120" t="str">
-        <f>_xlfn.CONCAT(IF(B120=1,"",", "),C120," ",E120," ",G120,IF(H120="",""," DEFAULT "),H120, " COMMENT '",I120,"'")</f>
-        <v>BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
+        <f t="shared" si="14"/>
+        <v>, NOTICE_STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
+      </c>
+      <c r="K120" t="str">
+        <f t="shared" si="15"/>
+        <v>, NOTICE_STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B121" s="5">
-        <v>2</v>
+      <c r="B121" s="4">
+        <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F121" s="5">
-        <v>2</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="4"/>
       <c r="G121" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J121" t="str">
-        <f>_xlfn.CONCAT(IF(B121=1,"",", "),C121," ",E121," ",G121,IF(H121="",""," DEFAULT "),H121, " COMMENT '",I121,"'")</f>
-        <v>, BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
+        <f t="shared" si="14"/>
+        <v>, NOTICE_END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="15"/>
+        <v>, NOTICE_END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B122" s="5">
-        <v>3</v>
+      <c r="B122" s="4">
+        <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F122" s="3">
-        <v>3</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="4"/>
       <c r="G122" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="J122" t="str">
-        <f>_xlfn.CONCAT(IF(B122=1,"",", "),C122," ",E122," ",G122,IF(H122="",""," DEFAULT "),H122, " COMMENT '",I122,"'")</f>
-        <v>, ATCFILE_NUM INT(2) NOT NULL COMMENT '첨부파일 순번'</v>
+        <f t="shared" si="14"/>
+        <v>, NOTICE_POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
+      </c>
+      <c r="K122" t="str">
+        <f t="shared" si="15"/>
+        <v>, NOTICE_POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B123" s="5">
-        <v>4</v>
+      <c r="B123" s="4">
+        <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F123" s="5"/>
+        <v>171</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" s="4"/>
       <c r="G123" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>114</v>
+        <v>49</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="J123" t="str">
-        <f t="shared" ref="J123:J131" si="8">_xlfn.CONCAT(IF(B123=1,"",", "),C123," ",E123," ",G123,IF(H123="",""," DEFAULT "),H123, " COMMENT '",I123,"'")</f>
-        <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
+        <f t="shared" si="14"/>
+        <v>, NOTICE_HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="15"/>
+        <v>, NOTICE_HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B124" s="5">
-        <v>5</v>
+      <c r="B124" s="4">
+        <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F124" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="4"/>
       <c r="G124" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" si="8"/>
-        <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일 저장명'</v>
+        <f t="shared" si="14"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="15"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B125" s="5">
-        <v>6</v>
+      <c r="B125" s="4">
+        <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F125" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F125" s="4"/>
       <c r="G125" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>196</v>
+        <v>93</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="8"/>
-        <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일 경로'</v>
+        <f t="shared" si="14"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="15"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B126" s="5">
-        <v>7</v>
+      <c r="B126" s="4">
+        <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F126" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="4"/>
       <c r="G126" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="8"/>
-        <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일 용량'</v>
+        <f t="shared" si="14"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="15"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B127" s="5">
-        <v>8</v>
+      <c r="B127" s="4">
+        <v>11</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F127" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F127" s="4"/>
       <c r="G127" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="8"/>
-        <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일 확장자'</v>
+        <f t="shared" si="14"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="15"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B128" s="5">
-        <v>9</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F128" s="5"/>
-      <c r="G128" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="J128" t="str">
-        <f t="shared" si="8"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B129" s="5">
-        <v>10</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J129" t="str">
-        <f t="shared" si="8"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B130" s="5">
-        <v>11</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F130" s="5"/>
-      <c r="G130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J130" t="str">
-        <f t="shared" ref="J130" si="9">_xlfn.CONCAT(IF(B130=1,"",", "),C130," ",E130," ",G130,IF(H130="",""," DEFAULT "),H130, " COMMENT '",I130,"'")</f>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B131" s="5">
-        <v>12</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J131" t="str">
-        <f t="shared" si="8"/>
-        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J132" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C115,"';")</f>
+        <v>) COMMENT '공지사항 정보 관리';</v>
+      </c>
+      <c r="K128" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B133" s="8" t="s">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C129" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7" t="s">
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C117," ADD CONSTRAINT ",C134," PRIMARY KEY (")</f>
-        <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B134" s="16">
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
+      </c>
+      <c r="K129" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C134" s="4" t="str">
-        <f>_xlfn.CONCAT("PK_",C117)</f>
-        <v>PK_TB_ATCFILE</v>
-      </c>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4" t="str">
-        <f>C120</f>
-        <v>BOARD_CODE</v>
-      </c>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" t="str">
-        <f>_xlfn.CONCAT(IF(B134=1,"",", "),F134)</f>
-        <v>BOARD_CODE</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B135" s="16">
-        <v>2</v>
-      </c>
-      <c r="C135" s="4" t="str">
-        <f>_xlfn.CONCAT("PK_",C117)</f>
-        <v>PK_TB_ATCFILE</v>
-      </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4" t="str">
-        <f>C121</f>
+      <c r="C130" s="12" t="str">
+        <f>_xlfn.CONCAT("PK_",C114)</f>
+        <v>PK_TB_BOARD_NOTICE</v>
+      </c>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12" t="str">
+        <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" t="str">
-        <f>_xlfn.CONCAT(IF(B135=1,"",", "),F135)</f>
-        <v>, BOARD_SEQ</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B136" s="16">
-        <v>3</v>
-      </c>
-      <c r="C136" s="4" t="str">
-        <f>_xlfn.CONCAT("PK_",C117)</f>
-        <v>PK_TB_ATCFILE</v>
-      </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4" t="str">
-        <f>C122</f>
-        <v>ATCFILE_NUM</v>
-      </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" t="str">
-        <f>_xlfn.CONCAT(IF(B136=1,"",", "),F136)</f>
-        <v>, ATCFILE_NUM</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J137" t="str">
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" t="str">
+        <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
+        <v>BOARD_SEQ</v>
+      </c>
+      <c r="K130" t="str">
+        <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
+        <v>BOARD_SEQ</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J131" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B138" s="13" t="s">
+      <c r="K131" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B132" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="15"/>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B139" s="8" t="s">
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="15"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B133" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D139" s="8" t="s">
+      <c r="C133" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F139" s="8" t="s">
+      <c r="E133" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="G133" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H139" s="8" t="s">
+      <c r="H133" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I139" s="11">
+      <c r="I133" s="7">
         <v>44942</v>
       </c>
-      <c r="J139" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C139,";")</f>
-        <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B140" s="8" t="s">
+      <c r="J133" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C133,";")</f>
+        <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
+      </c>
+      <c r="K133" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C133,";")</f>
+        <v>DROP TABLE IF EXISTS TB_ATCFILE;</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C139)</f>
-        <v>CREATE TABLE TB_SEQUENCE</v>
-      </c>
-      <c r="K140" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C139, " COMMENT = '",C140,"';")</f>
-        <v>ALTER TABLE TB_SEQUENCE COMMENT = '시퀀스 정보 관리';</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B141" s="8" t="s">
+      <c r="C134" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
+        <v>CREATE TABLE TB_ATCFILE</v>
+      </c>
+      <c r="K134" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
+        <v>CREATE TABLE TB_ATCFILE</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B135" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C135" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D135" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E135" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F135" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G141" s="8" t="s">
+      <c r="G135" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H141" s="8" t="s">
+      <c r="H135" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I141" s="8" t="s">
+      <c r="I135" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J141" t="str">
+      <c r="J135" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
+      <c r="K135" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B136" s="4">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F136" s="4">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J136" t="str">
+        <f>_xlfn.CONCAT(IF(B136=1,"",", "),C136," ",E136," ",G136,IF(H136="",""," DEFAULT "),H136, " COMMENT '",I136,"'")</f>
+        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+      </c>
+      <c r="K136" t="str">
+        <f>_xlfn.CONCAT(IF(B136=1,"",", "),C136," ",E136," ",G136,IF(H136="",""," DEFAULT "),H136, " COMMENT '",I136,"'")</f>
+        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B137" s="4">
+        <v>2</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F137" s="3">
+        <v>2</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J137" t="str">
+        <f>_xlfn.CONCAT(IF(B137=1,"",", "),C137," ",E137," ",G137,IF(H137="",""," DEFAULT "),H137, " COMMENT '",I137,"'")</f>
+        <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" ref="K137:K147" si="16">_xlfn.CONCAT(IF(B137=1,"",", "),C137," ",E137," ",G137,IF(H137="",""," DEFAULT "),H137, " COMMENT '",I137,"'")</f>
+        <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B138" s="4">
+        <v>3</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J138" t="str">
+        <f>_xlfn.CONCAT(IF(B138=1,"",", "),C138," ",E138," ",G138,IF(H138="",""," DEFAULT "),H138, " COMMENT '",I138,"'")</f>
+        <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
+      </c>
+      <c r="K138" t="str">
+        <f t="shared" si="16"/>
+        <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:질문게시판,04:지역게시판)'</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B139" s="4">
+        <v>4</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F139" s="4"/>
+      <c r="G139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J139" t="str">
+        <f t="shared" ref="J139:K147" si="17">_xlfn.CONCAT(IF(B139=1,"",", "),C139," ",E139," ",G139,IF(H139="",""," DEFAULT "),H139, " COMMENT '",I139,"'")</f>
+        <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" si="16"/>
+        <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B140" s="4">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F140" s="4"/>
+      <c r="G140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J140" t="str">
+        <f t="shared" si="17"/>
+        <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="16"/>
+        <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B141" s="4">
+        <v>6</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J141" t="str">
+        <f t="shared" si="17"/>
+        <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="16"/>
+        <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
+      </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B142" s="5">
-        <v>1</v>
+      <c r="B142" s="4">
+        <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F142" s="5">
-        <v>1</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F142" s="4"/>
       <c r="G142" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="J142" t="str">
-        <f>_xlfn.CONCAT(IF(B142=1,"",", "),C142," ",E142," ",G142,IF(H142="",""," DEFAULT "),H142, " COMMENT '",I142,"'")</f>
-        <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
+        <f t="shared" si="17"/>
+        <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
+      </c>
+      <c r="K142" t="str">
+        <f t="shared" si="16"/>
+        <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B143" s="5">
-        <v>2</v>
+      <c r="B143" s="4">
+        <v>8</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F143" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="4"/>
       <c r="G143" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="J143" t="str">
-        <f>_xlfn.CONCAT(IF(B143=1,"",", "),C143," ",E143," ",G143,IF(H143="",""," DEFAULT "),H143, " COMMENT '",I143,"'")</f>
-        <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
+        <f t="shared" si="17"/>
+        <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="16"/>
+        <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B144" s="4">
+        <v>9</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="J144" t="str">
+        <f t="shared" si="17"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="16"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B145" s="4">
+        <v>10</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" s="4"/>
+      <c r="G145" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J145" t="str">
+        <f t="shared" si="17"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" si="16"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B146" s="4">
+        <v>11</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F146" s="4"/>
+      <c r="G146" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J146" t="str">
+        <f t="shared" si="17"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="16"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B147" s="4">
+        <v>12</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J147" t="str">
+        <f t="shared" si="17"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" si="16"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J148" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C134,"';")</f>
+        <v>) COMMENT '첨부파일 정보 관리';</v>
+      </c>
+      <c r="K148" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B145" s="8" t="s">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C149" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7" t="s">
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C139," ADD CONSTRAINT ",C146," PRIMARY KEY (")</f>
-        <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B146" s="16">
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
+      </c>
+      <c r="K149" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C146" s="4" t="str">
-        <f>_xlfn.CONCAT("PK_",C139)</f>
-        <v>PK_TB_SEQUENCE</v>
-      </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4" t="str">
-        <f>C142</f>
-        <v>SEQ_NM</v>
-      </c>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" t="str">
-        <f>_xlfn.CONCAT(IF(B146=1,"",", "),F146)</f>
-        <v>SEQ_NM</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J147" t="str">
-        <f>_xlfn.CONCAT(");")</f>
-        <v>);</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B148" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="15"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B149" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I149" s="11">
-        <v>44942</v>
-      </c>
-      <c r="J149" t="str">
-        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C149,";")</f>
-        <v>DROP TABLE IF EXISTS TB_POLI;</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B150" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>225</v>
+      <c r="C150" s="12" t="str">
+        <f>_xlfn.CONCAT("PK_",C133)</f>
+        <v>PK_TB_ATCFILE</v>
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
+      <c r="F150" s="12" t="str">
+        <f>C136</f>
+        <v>BOARD_SEQ</v>
+      </c>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
       <c r="J150" t="str">
-        <f>_xlfn.CONCAT("CREATE TABLE ",C149)</f>
-        <v>CREATE TABLE TB_POLI</v>
+        <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
+        <v>BOARD_SEQ</v>
       </c>
       <c r="K150" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C149, " COMMENT = '",C150,"';")</f>
-        <v>ALTER TABLE TB_POLI COMMENT = '시스템 정책 관리';</v>
+        <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
+        <v>BOARD_SEQ</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="4">
+        <v>2</v>
+      </c>
+      <c r="C151" s="12" t="str">
+        <f>_xlfn.CONCAT("PK_",C133)</f>
+        <v>PK_TB_ATCFILE</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12" t="str">
+        <f>C137</f>
+        <v>ATCFILE_NUM</v>
+      </c>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" t="str">
+        <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
+        <v>, ATCFILE_NUM</v>
+      </c>
+      <c r="K151" t="str">
+        <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
+        <v>, ATCFILE_NUM</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J152" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+      <c r="K152" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B153" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="15"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B154" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I154" s="7">
+        <v>44942</v>
+      </c>
+      <c r="J154" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C154,";")</f>
+        <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
+      </c>
+      <c r="K154" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C154,";")</f>
+        <v>DROP TABLE IF EXISTS TB_SEQUENCE;</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B155" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
+        <v>CREATE TABLE TB_SEQUENCE</v>
+      </c>
+      <c r="K155" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
+        <v>CREATE TABLE TB_SEQUENCE</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B156" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C156" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D156" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E151" s="8" t="s">
+      <c r="E156" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F151" s="8" t="s">
+      <c r="F156" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G151" s="8" t="s">
+      <c r="G156" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H151" s="8" t="s">
+      <c r="H156" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I151" s="8" t="s">
+      <c r="I156" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J151" t="str">
+      <c r="J156" t="str">
         <f>_xlfn.CONCAT("(")</f>
         <v>(</v>
       </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B152" s="5">
+      <c r="K156" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B157" s="4">
         <v>1</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F152" s="5">
+      <c r="C157" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="4">
         <v>1</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J152" t="str">
-        <f>_xlfn.CONCAT(IF(B152=1,"",", "),C152," ",E152," ",G152,IF(H152="",""," DEFAULT "),H152, " COMMENT '",I152,"'")</f>
-        <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="5">
-        <v>2</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F153" s="5"/>
-      <c r="G153" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J153" t="str">
-        <f>_xlfn.CONCAT(IF(B153=1,"",", "),C153," ",E153," ",G153,IF(H153="",""," DEFAULT "),H153, " COMMENT '",I153,"'")</f>
-        <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B154" s="5">
-        <v>3</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J154" t="str">
-        <f>_xlfn.CONCAT(IF(B154=1,"",", "),C154," ",E154," ",G154,IF(H154="",""," DEFAULT "),H154, " COMMENT '",I154,"'")</f>
-        <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B155" s="5">
-        <v>4</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F155" s="5"/>
-      <c r="G155" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J155" t="str">
-        <f t="shared" ref="J155:J160" si="10">_xlfn.CONCAT(IF(B155=1,"",", "),C155," ",E155," ",G155,IF(H155="",""," DEFAULT "),H155, " COMMENT '",I155,"'")</f>
-        <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B156" s="5">
-        <v>5</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F156" s="5"/>
-      <c r="G156" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J156" t="str">
-        <f t="shared" si="10"/>
-        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B157" s="5">
-        <v>9</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F157" s="5"/>
       <c r="G157" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="J157" t="str">
-        <f t="shared" si="10"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+        <f>_xlfn.CONCAT(IF(B157=1,"",", "),C157," ",E157," ",G157,IF(H157="",""," DEFAULT "),H157, " COMMENT '",I157,"'")</f>
+        <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
+      </c>
+      <c r="K157" t="str">
+        <f>_xlfn.CONCAT(IF(B157=1,"",", "),C157," ",E157," ",G157,IF(H157="",""," DEFAULT "),H157, " COMMENT '",I157,"'")</f>
+        <v>SEQ_NM VARCHAR(30) NOT NULL COMMENT '시퀀스명'</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B158" s="5">
-        <v>10</v>
+      <c r="B158" s="4">
+        <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F158" s="5"/>
+        <v>208</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F158" s="4"/>
       <c r="G158" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="J158" t="str">
-        <f t="shared" si="10"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+        <f>_xlfn.CONCAT(IF(B158=1,"",", "),C158," ",E158," ",G158,IF(H158="",""," DEFAULT "),H158, " COMMENT '",I158,"'")</f>
+        <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
+      </c>
+      <c r="K158" t="str">
+        <f>_xlfn.CONCAT(IF(B158=1,"",", "),C158," ",E158," ",G158,IF(H158="",""," DEFAULT "),H158, " COMMENT '",I158,"'")</f>
+        <v>, CURRVAL BIGINT NULL COMMENT '현재값'</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B159" s="5">
-        <v>11</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F159" s="5"/>
-      <c r="G159" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="J159" t="str">
-        <f t="shared" si="10"/>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B160" s="5">
-        <v>12</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F160" s="5"/>
-      <c r="G160" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J160" t="str">
-        <f t="shared" si="10"/>
-        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
-      </c>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="J161" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C155,"';")</f>
+        <v>) COMMENT '시퀀스 정보 관리';</v>
+      </c>
+      <c r="K159" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B162" s="8" t="s">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C160" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7" t="s">
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
+      </c>
+      <c r="K160" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B161" s="4">
+        <v>1</v>
+      </c>
+      <c r="C161" s="12" t="str">
+        <f>_xlfn.CONCAT("PK_",C154)</f>
+        <v>PK_TB_SEQUENCE</v>
+      </c>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12" t="str">
+        <f>C157</f>
+        <v>SEQ_NM</v>
+      </c>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" t="str">
+        <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
+        <v>SEQ_NM</v>
+      </c>
+      <c r="K161" t="str">
+        <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
+        <v>SEQ_NM</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.4">
       <c r="J162" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C149," ADD CONSTRAINT ",C163," PRIMARY KEY (")</f>
-        <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
-      </c>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B163" s="16">
-        <v>1</v>
-      </c>
-      <c r="C163" s="4" t="str">
-        <f>_xlfn.CONCAT("PK_",C149)</f>
-        <v>PK_TB_POLI</v>
-      </c>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4" t="str">
-        <f>C152</f>
-        <v>POLI_SEQ</v>
-      </c>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" t="str">
-        <f>_xlfn.CONCAT(IF(B163=1,"",", "),F163)</f>
-        <v>POLI_SEQ</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="J164" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
+      <c r="K162" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B163" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="15"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B164" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I164" s="7">
+        <v>44942</v>
+      </c>
+      <c r="J164" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C164,";")</f>
+        <v>DROP TABLE IF EXISTS TB_POLI;</v>
+      </c>
+      <c r="K164" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C164,";")</f>
+        <v>DROP TABLE IF EXISTS TB_POLI;</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B165" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
+        <v>CREATE TABLE TB_POLI</v>
+      </c>
+      <c r="K165" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
+        <v>CREATE TABLE TB_POLI</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B166" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J166" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+      <c r="K166" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B167" s="4">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F167" s="4">
+        <v>1</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J167" t="str">
+        <f>_xlfn.CONCAT(IF(B167=1,"",", "),C167," ",E167," ",G167,IF(H167="",""," DEFAULT "),H167, " COMMENT '",I167,"'")</f>
+        <v>POLI_SEQ INT(10) NOT NULL COMMENT '정책일련번호'</v>
+      </c>
+      <c r="K167" t="str">
+        <f>_xlfn.CONCAT(IF(B167=1,"",", "),C167," ",E167," ",G167,IF(H167="",""," DEFAULT "),H167, " COMMENT '",I167,"'")</f>
+        <v>POLI_SEQ INT(10) NOT NULL COMMENT '정책일련번호'</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B168" s="4">
+        <v>2</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F168" s="4"/>
+      <c r="G168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J168" t="str">
+        <f>_xlfn.CONCAT(IF(B168=1,"",", "),C168," ",E168," ",G168,IF(H168="",""," DEFAULT "),H168, " COMMENT '",I168,"'")</f>
+        <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
+      </c>
+      <c r="K168" t="str">
+        <f t="shared" ref="K168:K175" si="18">_xlfn.CONCAT(IF(B168=1,"",", "),C168," ",E168," ",G168,IF(H168="",""," DEFAULT "),H168, " COMMENT '",I168,"'")</f>
+        <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B169" s="4">
+        <v>3</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J169" t="str">
+        <f>_xlfn.CONCAT(IF(B169=1,"",", "),C169," ",E169," ",G169,IF(H169="",""," DEFAULT "),H169, " COMMENT '",I169,"'")</f>
+        <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
+      </c>
+      <c r="K169" t="str">
+        <f t="shared" si="18"/>
+        <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B170" s="4">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F170" s="4"/>
+      <c r="G170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J170" t="str">
+        <f t="shared" ref="J170:K175" si="19">_xlfn.CONCAT(IF(B170=1,"",", "),C170," ",E170," ",G170,IF(H170="",""," DEFAULT "),H170, " COMMENT '",I170,"'")</f>
+        <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
+      </c>
+      <c r="K170" t="str">
+        <f t="shared" si="18"/>
+        <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B171" s="4">
+        <v>5</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J171" t="str">
+        <f t="shared" si="19"/>
+        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+      </c>
+      <c r="K171" t="str">
+        <f t="shared" si="18"/>
+        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B172" s="4">
+        <v>9</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F172" s="4"/>
+      <c r="G172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J172" t="str">
+        <f t="shared" si="19"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K172" t="str">
+        <f t="shared" si="18"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B173" s="4">
+        <v>10</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F173" s="4"/>
+      <c r="G173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J173" t="str">
+        <f t="shared" si="19"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="18"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B174" s="4">
+        <v>11</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F174" s="4"/>
+      <c r="G174" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J174" t="str">
+        <f t="shared" si="19"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K174" t="str">
+        <f t="shared" si="18"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B175" s="4">
+        <v>12</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F175" s="4"/>
+      <c r="G175" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J175" t="str">
+        <f t="shared" si="19"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+      <c r="K175" t="str">
+        <f t="shared" si="18"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J176" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C165,"';")</f>
+        <v>) COMMENT '시스템 정책 관리';</v>
+      </c>
+      <c r="K176" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B177" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
+      </c>
+      <c r="K177" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B178" s="4">
+        <v>1</v>
+      </c>
+      <c r="C178" s="12" t="str">
+        <f>_xlfn.CONCAT("PK_",C164)</f>
+        <v>PK_TB_POLI</v>
+      </c>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12" t="str">
+        <f>C167</f>
+        <v>POLI_SEQ</v>
+      </c>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" t="str">
+        <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
+        <v>POLI_SEQ</v>
+      </c>
+      <c r="K178" t="str">
+        <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
+        <v>POLI_SEQ</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J179" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+      <c r="K179" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="F162:I162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="F163:I163"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="F136:I136"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="F135:I135"/>
-    <mergeCell ref="B148:I148"/>
-    <mergeCell ref="C150:I150"/>
-    <mergeCell ref="B138:I138"/>
-    <mergeCell ref="C140:I140"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="F145:I145"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="F146:I146"/>
-    <mergeCell ref="B116:I116"/>
-    <mergeCell ref="C118:I118"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="F133:I133"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="C82:I82"/>
+  <mergeCells count="64">
+    <mergeCell ref="C177:E177"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="F178:I178"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:I93"/>
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="F94:I94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="F160:I160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="F161:I161"/>
+    <mergeCell ref="B163:I163"/>
+    <mergeCell ref="C165:I165"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
     <mergeCell ref="C78:E78"/>
     <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
     <mergeCell ref="C64:E64"/>
     <mergeCell ref="F64:I64"/>
     <mergeCell ref="C65:E65"/>
     <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="C69:I69"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="C37:I37"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5523,696 +6598,1574 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:L25"/>
+  <dimension ref="B1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="118.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.296875" hidden="1" customWidth="1"/>
+    <col min="11" max="26" width="12.5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="138.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA1" s="17"/>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B2" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="17"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+      <c r="C3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="25" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C2,";")</f>
+        <v>DELETE FROM TB_SEQUENCE;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C2," VALUES")</f>
-        <v>INSERT INTO TB_POLI VALUES</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="C4" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="17" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C2, "(", _xlfn.TEXTJOIN(",",TRUE,C4:Z4),") VALUES")</f>
+        <v>INSERT INTO TB_SEQUENCE(SEQ_NM,CURRVAL) VALUES</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="str">
-        <f>_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:K5),")")</f>
-        <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+        <v>276</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="17" t="str">
+        <f>_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
+        <v>("POLI_SEQ",0)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" ref="L6:L7" si="0">_xlfn.CONCAT(IF(B6=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C6:K6),")")</f>
-        <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",3600,"세션유지시간(초단위)","SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="17" t="str">
+        <f>_xlfn.CONCAT(IF(B6=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C6:Z6),")")</f>
+        <v>,("LOGIN_SEQ",0)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="17" t="str">
+        <f>_xlfn.CONCAT(IF(B7=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C7:Z7),")")</f>
+        <v>,("BOARD_SEQ",0)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="17" t="str">
+        <f>_xlfn.CONCAT(IF(B8=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C8:Z8),")")</f>
+        <v>,("REQ_SEQ",0)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA9" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B10" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="17"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="25" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C10,";")</f>
+        <v>DELETE FROM TB_POLI;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="17" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C10, "(", _xlfn.TEXTJOIN(",",TRUE,C12:Z12),") VALUES")</f>
+        <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="17" t="str">
+        <f>_xlfn.CONCAT(IF(B13=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C13:Z13),")")</f>
+        <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="17" t="str">
+        <f t="shared" ref="AA14:AA15" si="0">_xlfn.CONCAT(IF(B14=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C14:Z14),")")</f>
+        <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="1">
+        <v>90</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B17" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="17"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="25" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C17,";")</f>
+        <v>DELETE FROM TB_CODE_GROUP;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="17" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C17, "(", _xlfn.TEXTJOIN(",",TRUE,C19:Z19),") VALUES")</f>
+        <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="17" t="str">
+        <f>_xlfn.CONCAT(IF(B20=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C20:Z20),")")</f>
+        <v>("LOGIN_CODE","로그인 유형","","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="17" t="str">
+        <f t="shared" ref="AA21:AA22" si="1">_xlfn.CONCAT(IF(B21=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C21:Z21),")")</f>
+        <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D22" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>,("POLI_CODE","정책분류코드","","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B24" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="20"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="17"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="25" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C24,";")</f>
+        <v>DELETE FROM TB_CODE_DETAIL;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="17" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C24, "(", _xlfn.TEXTJOIN(",",TRUE,C26:Z26),") VALUES")</f>
+        <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,CODE_MODIFY_YN,CODE_DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="17" t="str">
+        <f>_xlfn.CONCAT(IF(B27=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C27:Z27),")")</f>
+        <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="17" t="str">
+        <f t="shared" ref="AA28:AA36" si="2">_xlfn.CONCAT(IF(B28=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C28:Z28),")")</f>
+        <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="F7" s="1">
-        <v>90</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="0"/>
-        <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B9" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
+      <c r="E34" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" s="18"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="H35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA37" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="24" t="s">
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B38" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="20"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="17"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="25" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C38,";")</f>
+        <v>DELETE FROM TB_USER;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B40" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C9," VALUES")</f>
-        <v>INSERT INTO TB_CODE_GROUP VALUES</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B12" s="1">
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="17" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C38, "(", _xlfn.TEXTJOIN(",",TRUE,C40:Z40),") VALUES")</f>
+        <v>INSERT INTO TB_USER(USER_ID,USER_PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" t="str">
-        <f>_xlfn.CONCAT(IF(B12=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C12:K12),")")</f>
-        <v>("LOGIN_CODE","로그인 유형","","SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" t="str">
-        <f t="shared" ref="L13:L14" si="1">_xlfn.CONCAT(IF(B13=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C13:K13),")")</f>
-        <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","","SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
-        <v>,("POLI_CODE","정책분류코드","","SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B16" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B17" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="C41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="17" t="str">
+        <f>_xlfn.CONCAT(IF(B41=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C41:Z41),")")</f>
+        <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA42" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B18" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C16," VALUES")</f>
-        <v>INSERT INTO TB_CODE_DETAIL VALUES</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="22"/>
-      <c r="L19" t="str">
-        <f>_xlfn.CONCAT(IF(B19=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C19:K19),")")</f>
-        <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp",1,"SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" t="str">
-        <f t="shared" ref="L20:L24" si="2">_xlfn.CONCAT(IF(B20=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C20:K20),")")</f>
-        <v>,("LOGIN_CODE","01","로그인",1,"SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" t="str">
-        <f t="shared" ref="L21:L22" si="3">_xlfn.CONCAT(IF(B21=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C21:K21),")")</f>
-        <v>,("LOGIN_CODE","02","로그아웃",2,"SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" t="str">
-        <f t="shared" si="3"/>
-        <v>,("LOGIN_CODE","03","존재하지 않는 아이디",3,"SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="22"/>
-      <c r="L23" t="str">
-        <f t="shared" ref="L23" si="4">_xlfn.CONCAT(IF(B23=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C23:K23),")")</f>
-        <v>,("LOGIN_CODE","04","비밀번호 오입력",4,"SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="22"/>
-      <c r="L24" t="str">
-        <f t="shared" si="2"/>
-        <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과",5,"SYSTEM",NOW(),"SYSTEM",NOW())</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L25" t="s">
-        <v>259</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C16:J16"/>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C24:I24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6224,16 +8177,18 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
@@ -6269,7 +8224,7 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1"/>
@@ -6287,7 +8242,7 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -6302,12 +8257,12 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="1"/>
@@ -6320,13 +8275,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
+      <c r="F6" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -6338,12 +8293,12 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="1"/>
@@ -6356,12 +8311,12 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="1"/>
@@ -6371,16 +8326,16 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>208</v>
+        <v>130</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="G9" s="1"/>
     </row>

--- a/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB33BF7-0693-471F-A92A-479908F7C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB79A59-9EDC-46A8-A467-65508691A356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="369">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,18 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1139,7 +1127,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT(10)</t>
+    <t>TB_MNU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 메뉴 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상위메뉴경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위메뉴경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_OPEN_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴노출여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Y"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_AUTH_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_TOP_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_UPPER_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한체크여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_ORDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴표시순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_RMRK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 관련 비고내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(3000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_RMRK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLI_VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLI_RMRK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_RMRK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자상세주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자상세주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자계좌은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가입일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_RMRK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FST_REG_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT_UPD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초등록자아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종수정자아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNU_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴일련번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"MNU_SEQ"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SELECT nextval('MNU_SEQ') FROM DUAL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"정보"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"정보 관련 대메뉴"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"board"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"market"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"active"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sitter"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"게시판"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"장터"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"관리자"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"베이비시터"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"활동"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"게시판 관련 대메뉴"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"장터 관련 대메뉴"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"활동 관련 대메뉴"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"베이비시터 관련 대메뉴"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"관리자 관련 대메뉴"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,6 +1607,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,44 +1637,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1690,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
-  <dimension ref="B2:K179"/>
+  <dimension ref="B2:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1712,16 +1988,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -1761,15 +2037,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -1821,7 +2097,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>53</v>
@@ -1853,7 +2129,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>63</v>
@@ -1867,7 +2143,7 @@
         <v>47</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:K30" si="0">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
+        <f t="shared" ref="J7:J30" si="0">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
         <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자 비밀번호'</v>
       </c>
       <c r="K7" t="str">
@@ -1880,10 +2156,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>54</v>
@@ -1910,10 +2186,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>55</v>
@@ -1940,10 +2216,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>330</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>56</v>
@@ -1970,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>52</v>
@@ -2000,10 +2276,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>57</v>
@@ -2030,10 +2306,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>57</v>
@@ -2060,10 +2336,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>58</v>
@@ -2090,10 +2366,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>58</v>
@@ -2120,10 +2396,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>82</v>
+        <v>336</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>55</v>
@@ -2150,10 +2426,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>337</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>59</v>
@@ -2163,7 +2439,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>83</v>
@@ -2182,10 +2458,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>338</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>60</v>
@@ -2195,7 +2471,7 @@
         <v>49</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>84</v>
@@ -2214,10 +2490,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>58</v>
@@ -2227,7 +2503,7 @@
         <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>85</v>
@@ -2246,10 +2522,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>86</v>
+        <v>340</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>61</v>
@@ -2259,7 +2535,7 @@
         <v>49</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>86</v>
@@ -2281,7 +2557,7 @@
         <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>341</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>60</v>
@@ -2291,7 +2567,7 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>87</v>
@@ -2310,31 +2586,31 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>327</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>88</v>
+        <v>327</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+        <v>, USER_RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+        <v>, USER_RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -2345,7 +2621,7 @@
         <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>62</v>
@@ -2355,7 +2631,7 @@
         <v>49</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>89</v>
@@ -2387,7 +2663,7 @@
         <v>49</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>90</v>
@@ -2409,7 +2685,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>60</v>
@@ -2419,7 +2695,7 @@
         <v>49</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>91</v>
@@ -2441,7 +2717,7 @@
         <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>23</v>
@@ -2451,7 +2727,7 @@
         <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>92</v>
@@ -2473,7 +2749,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>52</v>
@@ -2483,10 +2759,10 @@
         <v>45</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
@@ -2515,7 +2791,7 @@
         <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>93</v>
@@ -2537,7 +2813,7 @@
         <v>72</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>52</v>
@@ -2547,10 +2823,10 @@
         <v>45</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -2579,7 +2855,7 @@
         <v>45</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>95</v>
@@ -2607,17 +2883,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -2631,19 +2907,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="12" t="str">
+      <c r="C33" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12" t="str">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -2664,29 +2940,29 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>29</v>
@@ -2713,15 +2989,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="C37" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -2770,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>25</v>
@@ -2786,7 +3062,7 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J39" t="str">
         <f>_xlfn.CONCAT(IF(B39=1,"",", "),C39," ",E39," ",G39,IF(H39="",""," DEFAULT "),H39, " COMMENT '",I39,"'")</f>
@@ -2802,13 +3078,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="1" t="s">
@@ -2816,10 +3092,10 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40:K45" si="2">_xlfn.CONCAT(IF(B40=1,"",", "),C40," ",E40," ",G40,IF(H40="",""," DEFAULT "),H40, " COMMENT '",I40,"'")</f>
+        <f t="shared" ref="J40:J45" si="2">_xlfn.CONCAT(IF(B40=1,"",", "),C40," ",E40," ",G40,IF(H40="",""," DEFAULT "),H40, " COMMENT '",I40,"'")</f>
         <v>, CODE_GROUP_NM VARCHAR(150) NULL COMMENT '코드그룹명'</v>
       </c>
       <c r="K40" t="str">
@@ -2832,31 +3108,31 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>342</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="2"/>
-        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+        <v>, CODE_RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
-        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+        <v>, CODE_RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.4">
@@ -2867,7 +3143,7 @@
         <v>70</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>52</v>
@@ -2877,10 +3153,10 @@
         <v>45</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="2"/>
@@ -2909,7 +3185,7 @@
         <v>45</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>93</v>
@@ -2931,7 +3207,7 @@
         <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>52</v>
@@ -2941,10 +3217,10 @@
         <v>45</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="2"/>
@@ -2973,7 +3249,7 @@
         <v>45</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>95</v>
@@ -3001,17 +3277,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3025,19 +3301,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="12" t="str">
+      <c r="C48" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="str">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3058,29 +3334,29 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>29</v>
@@ -3107,15 +3383,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
+      <c r="C52" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3164,10 +3440,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>25</v>
@@ -3180,7 +3456,7 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J54" t="str">
         <f>_xlfn.CONCAT(IF(B54=1,"",", "),C54," ",E54," ",G54,IF(H54="",""," DEFAULT "),H54, " COMMENT '",I54,"'")</f>
@@ -3196,10 +3472,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
@@ -3212,10 +3488,10 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" ref="J55:K62" si="4">_xlfn.CONCAT(IF(B55=1,"",", "),C55," ",E55," ",G55,IF(H55="",""," DEFAULT "),H55, " COMMENT '",I55,"'")</f>
+        <f t="shared" ref="J55:J62" si="4">_xlfn.CONCAT(IF(B55=1,"",", "),C55," ",E55," ",G55,IF(H55="",""," DEFAULT "),H55, " COMMENT '",I55,"'")</f>
         <v>, CODE_DETAIL VARCHAR(10) NOT NULL COMMENT '코드상세'</v>
       </c>
       <c r="K55" t="str">
@@ -3228,23 +3504,23 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="4"/>
@@ -3260,10 +3536,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>23</v>
@@ -3274,7 +3550,7 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="4"/>
@@ -3290,23 +3566,23 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J58" t="str">
         <f>_xlfn.CONCAT(IF(B58=1,"",", "),C58," ",E58," ",G58,IF(H58="",""," DEFAULT "),H58, " COMMENT '",I58,"'")</f>
@@ -3325,7 +3601,7 @@
         <v>70</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>52</v>
@@ -3335,10 +3611,10 @@
         <v>45</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="4"/>
@@ -3367,7 +3643,7 @@
         <v>45</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>93</v>
@@ -3389,7 +3665,7 @@
         <v>72</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>52</v>
@@ -3399,10 +3675,10 @@
         <v>45</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="4"/>
@@ -3431,7 +3707,7 @@
         <v>45</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>95</v>
@@ -3459,17 +3735,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11" t="s">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -3483,19 +3759,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="12" t="str">
+      <c r="C65" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12" t="str">
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -3509,19 +3785,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="12" t="str">
+      <c r="C66" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12" t="str">
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -3542,29 +3818,29 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="15"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>29</v>
@@ -3591,15 +3867,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
+      <c r="C70" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -3648,13 +3924,13 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -3664,15 +3940,15 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J72" t="str">
         <f>_xlfn.CONCAT(IF(B72=1,"",", "),C72," ",E72," ",G72,IF(H72="",""," DEFAULT "),H72, " COMMENT '",I72,"'")</f>
-        <v>LOGIN_SEQ INT(10) NOT NULL COMMENT '로그인일련번호'</v>
+        <v>LOGIN_SEQ VARCHAR(10) NOT NULL COMMENT '로그인일련번호'</v>
       </c>
       <c r="K72" t="str">
         <f>_xlfn.CONCAT(IF(B72=1,"",", "),C72," ",E72," ",G72,IF(H72="",""," DEFAULT "),H72, " COMMENT '",I72,"'")</f>
-        <v>LOGIN_SEQ INT(10) NOT NULL COMMENT '로그인일련번호'</v>
+        <v>LOGIN_SEQ VARCHAR(10) NOT NULL COMMENT '로그인일련번호'</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.4">
@@ -3680,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>62</v>
@@ -3693,13 +3969,13 @@
         <v>49</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" ref="J73:K76" si="6">_xlfn.CONCAT(IF(B73=1,"",", "),C73," ",E73," ",G73,IF(H73="",""," DEFAULT "),H73, " COMMENT '",I73,"'")</f>
+        <f t="shared" ref="J73:J76" si="6">_xlfn.CONCAT(IF(B73=1,"",", "),C73," ",E73," ",G73,IF(H73="",""," DEFAULT "),H73, " COMMENT '",I73,"'")</f>
         <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
       </c>
       <c r="K73" t="str">
@@ -3715,7 +3991,7 @@
         <v>41</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>52</v>
@@ -3725,10 +4001,10 @@
         <v>49</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="6"/>
@@ -3744,23 +4020,23 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="6"/>
@@ -3776,10 +4052,10 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>24</v>
@@ -3789,10 +4065,10 @@
         <v>49</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="6"/>
@@ -3817,17 +4093,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -3841,19 +4117,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="12" t="str">
+      <c r="C79" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12" t="str">
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -3874,29 +4150,29 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="15"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>29</v>
@@ -3923,15 +4199,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
+      <c r="C83" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -3980,13 +4256,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -3996,7 +4272,7 @@
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J85" t="str">
         <f>_xlfn.CONCAT(IF(B85=1,"",", "),C85," ",E85," ",G85,IF(H85="",""," DEFAULT "),H85, " COMMENT '",I85,"'")</f>
@@ -4012,10 +4288,10 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>62</v>
@@ -4025,10 +4301,10 @@
         <v>49</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" ref="J86:J91" si="8">_xlfn.CONCAT(IF(B86=1,"",", "),C86," ",E86," ",G86,IF(H86="",""," DEFAULT "),H86, " COMMENT '",I86,"'")</f>
@@ -4047,7 +4323,7 @@
         <v>41</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>52</v>
@@ -4057,10 +4333,10 @@
         <v>49</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="8"/>
@@ -4076,23 +4352,23 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="8"/>
@@ -4108,23 +4384,23 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" ref="J89:J90" si="10">_xlfn.CONCAT(IF(B89=1,"",", "),C89," ",E89," ",G89,IF(H89="",""," DEFAULT "),H89, " COMMENT '",I89,"'")</f>
@@ -4140,23 +4416,23 @@
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="10"/>
@@ -4172,10 +4448,10 @@
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>24</v>
@@ -4185,10 +4461,10 @@
         <v>49</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="8"/>
@@ -4213,17 +4489,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11" t="s">
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4237,19 +4513,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="12" t="str">
+      <c r="C94" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12" t="str">
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4270,29 +4546,29 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="15"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="19"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>29</v>
@@ -4319,15 +4595,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="C98" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -4376,13 +4652,13 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
@@ -4391,18 +4667,18 @@
         <v>44</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J100" t="str">
         <f>_xlfn.CONCAT(IF(B100=1,"",", "),C100," ",E100," ",G100,IF(H100="",""," DEFAULT "),H100, " COMMENT '",I100,"'")</f>
-        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
       <c r="K100" t="str">
         <f>_xlfn.CONCAT(IF(B100=1,"",", "),C100," ",E100," ",G100,IF(H100="",""," DEFAULT "),H100, " COMMENT '",I100,"'")</f>
-        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.4">
@@ -4410,10 +4686,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>57</v>
@@ -4424,10 +4700,10 @@
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J101" t="str">
-        <f t="shared" ref="J101:K108" si="12">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
+        <f t="shared" ref="J101:J108" si="12">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
         <v>, FREE_TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
       <c r="K101" t="str">
@@ -4440,13 +4716,13 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="1" t="s">
@@ -4454,7 +4730,7 @@
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="12"/>
@@ -4470,13 +4746,13 @@
         <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="1" t="s">
@@ -4484,7 +4760,7 @@
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="12"/>
@@ -4500,13 +4776,13 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="1" t="s">
@@ -4516,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="12"/>
@@ -4535,7 +4811,7 @@
         <v>70</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>52</v>
@@ -4545,10 +4821,10 @@
         <v>45</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="12"/>
@@ -4577,7 +4853,7 @@
         <v>45</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>93</v>
@@ -4599,7 +4875,7 @@
         <v>72</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>52</v>
@@ -4609,10 +4885,10 @@
         <v>45</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="12"/>
@@ -4641,7 +4917,7 @@
         <v>45</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>95</v>
@@ -4669,17 +4945,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11" t="s">
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -4693,19 +4969,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="12" t="str">
+      <c r="C111" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12" t="str">
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -4726,29 +5002,29 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="15"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="19"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>29</v>
@@ -4775,15 +5051,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
+      <c r="C115" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -4832,13 +5108,13 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -4847,18 +5123,18 @@
         <v>44</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J117" t="str">
         <f>_xlfn.CONCAT(IF(B117=1,"",", "),C117," ",E117," ",G117,IF(H117="",""," DEFAULT "),H117, " COMMENT '",I117,"'")</f>
-        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
       <c r="K117" t="str">
         <f>_xlfn.CONCAT(IF(B117=1,"",", "),C117," ",E117," ",G117,IF(H117="",""," DEFAULT "),H117, " COMMENT '",I117,"'")</f>
-        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.4">
@@ -4866,10 +5142,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>57</v>
@@ -4880,10 +5156,10 @@
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J118" t="str">
-        <f t="shared" ref="J118:K127" si="14">_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
+        <f t="shared" ref="J118:J127" si="14">_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
         <v>, NOTICE_TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
       </c>
       <c r="K118" t="str">
@@ -4896,13 +5172,13 @@
         <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="1" t="s">
@@ -4910,7 +5186,7 @@
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J119" t="str">
         <f t="shared" si="14"/>
@@ -4926,10 +5202,10 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>20</v>
@@ -4940,7 +5216,7 @@
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J120" t="str">
         <f t="shared" si="14"/>
@@ -4956,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>20</v>
@@ -4970,7 +5246,7 @@
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J121" t="str">
         <f t="shared" si="14"/>
@@ -4986,10 +5262,10 @@
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>23</v>
@@ -5000,7 +5276,7 @@
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J122" t="str">
         <f t="shared" si="14"/>
@@ -5016,13 +5292,13 @@
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="1" t="s">
@@ -5032,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J123" t="str">
         <f t="shared" si="14"/>
@@ -5051,7 +5327,7 @@
         <v>70</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>52</v>
@@ -5061,10 +5337,10 @@
         <v>45</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" si="14"/>
@@ -5093,7 +5369,7 @@
         <v>45</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>93</v>
@@ -5115,7 +5391,7 @@
         <v>72</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>52</v>
@@ -5125,10 +5401,10 @@
         <v>45</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J126" t="str">
         <f t="shared" si="14"/>
@@ -5157,7 +5433,7 @@
         <v>45</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>95</v>
@@ -5185,17 +5461,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11" t="s">
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5209,19 +5485,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="12" t="str">
+      <c r="C130" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12" t="str">
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5242,29 +5518,29 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="15"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="19"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>29</v>
@@ -5291,15 +5567,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="16"/>
+      <c r="C134" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -5348,13 +5624,13 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
@@ -5363,18 +5639,18 @@
         <v>44</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J136" t="str">
         <f>_xlfn.CONCAT(IF(B136=1,"",", "),C136," ",E136," ",G136,IF(H136="",""," DEFAULT "),H136, " COMMENT '",I136,"'")</f>
-        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
       <c r="K136" t="str">
         <f>_xlfn.CONCAT(IF(B136=1,"",", "),C136," ",E136," ",G136,IF(H136="",""," DEFAULT "),H136, " COMMENT '",I136,"'")</f>
-        <v>BOARD_SEQ INT(10) NOT NULL COMMENT '게시글일련번호'</v>
+        <v>BOARD_SEQ VARCHAR(10) NOT NULL COMMENT '게시글일련번호'</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.4">
@@ -5382,13 +5658,13 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F137" s="3">
         <v>2</v>
@@ -5397,10 +5673,10 @@
         <v>44</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J137" t="str">
         <f>_xlfn.CONCAT(IF(B137=1,"",", "),C137," ",E137," ",G137,IF(H137="",""," DEFAULT "),H137, " COMMENT '",I137,"'")</f>
@@ -5416,23 +5692,23 @@
         <v>3</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J138" t="str">
         <f>_xlfn.CONCAT(IF(B138=1,"",", "),C138," ",E138," ",G138,IF(H138="",""," DEFAULT "),H138, " COMMENT '",I138,"'")</f>
@@ -5448,10 +5724,10 @@
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>57</v>
@@ -5461,13 +5737,13 @@
         <v>48</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J139" t="str">
-        <f t="shared" ref="J139:K147" si="17">_xlfn.CONCAT(IF(B139=1,"",", "),C139," ",E139," ",G139,IF(H139="",""," DEFAULT "),H139, " COMMENT '",I139,"'")</f>
+        <f t="shared" ref="J139:J147" si="17">_xlfn.CONCAT(IF(B139=1,"",", "),C139," ",E139," ",G139,IF(H139="",""," DEFAULT "),H139, " COMMENT '",I139,"'")</f>
         <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
       </c>
       <c r="K139" t="str">
@@ -5480,23 +5756,23 @@
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="17"/>
@@ -5512,23 +5788,23 @@
         <v>6</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J141" t="str">
         <f t="shared" si="17"/>
@@ -5544,23 +5820,23 @@
         <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="17"/>
@@ -5576,10 +5852,10 @@
         <v>8</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>24</v>
@@ -5589,10 +5865,10 @@
         <v>48</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="17"/>
@@ -5611,7 +5887,7 @@
         <v>70</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>53</v>
@@ -5621,10 +5897,10 @@
         <v>44</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J144" t="str">
         <f t="shared" si="17"/>
@@ -5653,7 +5929,7 @@
         <v>44</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>93</v>
@@ -5675,7 +5951,7 @@
         <v>72</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>53</v>
@@ -5685,10 +5961,10 @@
         <v>44</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="17"/>
@@ -5717,7 +5993,7 @@
         <v>44</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>94</v>
@@ -5745,17 +6021,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11" t="s">
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -5769,19 +6045,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="12" t="str">
+      <c r="C150" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12" t="str">
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -5795,19 +6071,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="12" t="str">
+      <c r="C151" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12" t="str">
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -5828,29 +6104,29 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="15"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="19"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>29</v>
@@ -5877,15 +6153,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="16"/>
+      <c r="C155" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -5934,10 +6210,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>25</v>
@@ -5949,10 +6225,10 @@
         <v>44</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J157" t="str">
         <f>_xlfn.CONCAT(IF(B157=1,"",", "),C157," ",E157," ",G157,IF(H157="",""," DEFAULT "),H157, " COMMENT '",I157,"'")</f>
@@ -5968,23 +6244,23 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J158" t="str">
         <f>_xlfn.CONCAT(IF(B158=1,"",", "),C158," ",E158," ",G158,IF(H158="",""," DEFAULT "),H158, " COMMENT '",I158,"'")</f>
@@ -6009,17 +6285,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11" t="s">
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6033,19 +6309,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="12" t="str">
+      <c r="C161" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12" t="str">
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6066,29 +6342,29 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="15"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="18"/>
+      <c r="F163" s="18"/>
+      <c r="G163" s="18"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="19"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>29</v>
@@ -6115,15 +6391,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="16"/>
+      <c r="C165" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6172,13 +6448,13 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
@@ -6187,18 +6463,18 @@
         <v>44</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J167" t="str">
         <f>_xlfn.CONCAT(IF(B167=1,"",", "),C167," ",E167," ",G167,IF(H167="",""," DEFAULT "),H167, " COMMENT '",I167,"'")</f>
-        <v>POLI_SEQ INT(10) NOT NULL COMMENT '정책일련번호'</v>
+        <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
       </c>
       <c r="K167" t="str">
         <f>_xlfn.CONCAT(IF(B167=1,"",", "),C167," ",E167," ",G167,IF(H167="",""," DEFAULT "),H167, " COMMENT '",I167,"'")</f>
-        <v>POLI_SEQ INT(10) NOT NULL COMMENT '정책일련번호'</v>
+        <v>POLI_SEQ VARCHAR(10) NOT NULL COMMENT '정책일련번호'</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.4">
@@ -6206,10 +6482,10 @@
         <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>24</v>
@@ -6220,7 +6496,7 @@
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J168" t="str">
         <f>_xlfn.CONCAT(IF(B168=1,"",", "),C168," ",E168," ",G168,IF(H168="",""," DEFAULT "),H168, " COMMENT '",I168,"'")</f>
@@ -6236,22 +6512,22 @@
         <v>3</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J169" t="str">
         <f>_xlfn.CONCAT(IF(B169=1,"",", "),C169," ",E169," ",G169,IF(H169="",""," DEFAULT "),H169, " COMMENT '",I169,"'")</f>
@@ -6267,26 +6543,26 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J170" t="str">
-        <f t="shared" ref="J170:K175" si="19">_xlfn.CONCAT(IF(B170=1,"",", "),C170," ",E170," ",G170,IF(H170="",""," DEFAULT "),H170, " COMMENT '",I170,"'")</f>
+        <f t="shared" ref="J170:J175" si="19">_xlfn.CONCAT(IF(B170=1,"",", "),C170," ",E170," ",G170,IF(H170="",""," DEFAULT "),H170, " COMMENT '",I170,"'")</f>
         <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
       </c>
       <c r="K170" t="str">
@@ -6299,31 +6575,31 @@
         <v>5</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>65</v>
+        <v>324</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="J171" t="str">
         <f t="shared" si="19"/>
-        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+        <v>, POLI_RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
       <c r="K171" t="str">
         <f t="shared" si="18"/>
-        <v>, RMRK VARCHAR(300) NULL COMMENT '비고'</v>
+        <v>, POLI_RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.4">
@@ -6334,7 +6610,7 @@
         <v>70</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>53</v>
@@ -6344,10 +6620,10 @@
         <v>44</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J172" t="str">
         <f t="shared" si="19"/>
@@ -6376,7 +6652,7 @@
         <v>44</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>93</v>
@@ -6398,7 +6674,7 @@
         <v>72</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>53</v>
@@ -6408,10 +6684,10 @@
         <v>44</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J174" t="str">
         <f t="shared" si="19"/>
@@ -6440,7 +6716,7 @@
         <v>44</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>94</v>
@@ -6468,17 +6744,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11" t="s">
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G177" s="11"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -6492,19 +6768,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="12" t="str">
+      <c r="C178" s="16" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="12"/>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12" t="str">
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="16"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -6524,8 +6800,715 @@
         <v>);</v>
       </c>
     </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B180" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="18"/>
+      <c r="D180" s="18"/>
+      <c r="E180" s="18"/>
+      <c r="F180" s="18"/>
+      <c r="G180" s="18"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="19"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B181" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I181" s="7">
+        <v>44944</v>
+      </c>
+      <c r="J181" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C181,";")</f>
+        <v>DROP TABLE IF EXISTS TB_MNU;</v>
+      </c>
+      <c r="K181" t="str">
+        <f>_xlfn.CONCAT("DROP TABLE IF EXISTS ",C181,";")</f>
+        <v>DROP TABLE IF EXISTS TB_MNU;</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B182" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
+        <v>CREATE TABLE TB_MNU</v>
+      </c>
+      <c r="K182" t="str">
+        <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
+        <v>CREATE TABLE TB_MNU</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B183" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J183" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+      <c r="K183" t="str">
+        <f>_xlfn.CONCAT("(")</f>
+        <v>(</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B184" s="4">
+        <v>1</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F184" s="4">
+        <v>1</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J184" t="str">
+        <f>_xlfn.CONCAT(IF(B184=1,"",", "),C184," ",E184," ",G184,IF(H184="",""," DEFAULT "),H184, " COMMENT '",I184,"'")</f>
+        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
+      </c>
+      <c r="K184" t="str">
+        <f>_xlfn.CONCAT(IF(B184=1,"",", "),C184," ",E184," ",G184,IF(H184="",""," DEFAULT "),H184, " COMMENT '",I184,"'")</f>
+        <v>MNU_SEQ VARCHAR(10) NOT NULL COMMENT '메뉴일련번호'</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B185" s="4">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F185" s="4">
+        <v>1</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J185" t="str">
+        <f>_xlfn.CONCAT(IF(B185=1,"",", "),C185," ",E185," ",G185,IF(H185="",""," DEFAULT "),H185, " COMMENT '",I185,"'")</f>
+        <v>MNU_URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
+      </c>
+      <c r="K185" t="str">
+        <f>_xlfn.CONCAT(IF(B185=1,"",", "),C185," ",E185," ",G185,IF(H185="",""," DEFAULT "),H185, " COMMENT '",I185,"'")</f>
+        <v>MNU_URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B186" s="4">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F186" s="4"/>
+      <c r="G186" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J186" t="str">
+        <f>_xlfn.CONCAT(IF(B186=1,"",", "),C186," ",E186," ",G186,IF(H186="",""," DEFAULT "),H186, " COMMENT '",I186,"'")</f>
+        <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
+      </c>
+      <c r="K186" t="str">
+        <f t="shared" ref="K186:K198" si="20">_xlfn.CONCAT(IF(B186=1,"",", "),C186," ",E186," ",G186,IF(H186="",""," DEFAULT "),H186, " COMMENT '",I186,"'")</f>
+        <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B187" s="4">
+        <v>3</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J187" t="str">
+        <f>_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,IF(H187="",""," DEFAULT "),H187, " COMMENT '",I187,"'")</f>
+        <v>, MNU_TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
+      </c>
+      <c r="K187" t="str">
+        <f t="shared" si="20"/>
+        <v>, MNU_TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B188" s="4">
+        <v>4</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F188" s="4"/>
+      <c r="G188" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J188" t="str">
+        <f t="shared" ref="J188:J198" si="21">_xlfn.CONCAT(IF(B188=1,"",", "),C188," ",E188," ",G188,IF(H188="",""," DEFAULT "),H188, " COMMENT '",I188,"'")</f>
+        <v>, MNU_UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
+      </c>
+      <c r="K188" t="str">
+        <f t="shared" si="20"/>
+        <v>, MNU_UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B189" s="4">
+        <v>5</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F189" s="4"/>
+      <c r="G189" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J189" t="str">
+        <f t="shared" ref="J189" si="22">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
+        <v>, MNU_OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
+      </c>
+      <c r="K189" t="str">
+        <f t="shared" ref="K189" si="23">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
+        <v>, MNU_OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B190" s="4">
+        <v>6</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J190" t="str">
+        <f t="shared" ref="J190:J192" si="24">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
+        <v>, MNU_AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한체크여부'</v>
+      </c>
+      <c r="K190" t="str">
+        <f t="shared" ref="K190:K192" si="25">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
+        <v>, MNU_AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한체크여부'</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B191" s="4">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J191" t="str">
+        <f t="shared" si="24"/>
+        <v>, MNU_LEVEL INT(1) NULL COMMENT '메뉴레벨'</v>
+      </c>
+      <c r="K191" t="str">
+        <f t="shared" si="25"/>
+        <v>, MNU_LEVEL INT(1) NULL COMMENT '메뉴레벨'</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B192" s="4">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F192" s="4"/>
+      <c r="G192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J192" t="str">
+        <f t="shared" si="24"/>
+        <v>, MNU_INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
+      </c>
+      <c r="K192" t="str">
+        <f t="shared" si="25"/>
+        <v>, MNU_INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B193" s="4">
+        <v>9</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F193" s="4"/>
+      <c r="G193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J193" t="str">
+        <f t="shared" ref="J193" si="26">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
+        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
+      </c>
+      <c r="K193" t="str">
+        <f t="shared" ref="K193" si="27">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
+        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B194" s="4">
+        <v>10</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F194" s="4"/>
+      <c r="G194" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J194" t="str">
+        <f t="shared" si="21"/>
+        <v>, MNU_RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
+      </c>
+      <c r="K194" t="str">
+        <f t="shared" si="20"/>
+        <v>, MNU_RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B195" s="4">
+        <v>11</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F195" s="4"/>
+      <c r="G195" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J195" t="str">
+        <f t="shared" si="21"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+      <c r="K195" t="str">
+        <f t="shared" si="20"/>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B196" s="4">
+        <v>12</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F196" s="4"/>
+      <c r="G196" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J196" t="str">
+        <f t="shared" si="21"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+      <c r="K196" t="str">
+        <f t="shared" si="20"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B197" s="4">
+        <v>13</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F197" s="4"/>
+      <c r="G197" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J197" t="str">
+        <f t="shared" si="21"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K197" t="str">
+        <f t="shared" si="20"/>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B198" s="4">
+        <v>14</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F198" s="4"/>
+      <c r="G198" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J198" t="str">
+        <f t="shared" si="21"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+      <c r="K198" t="str">
+        <f t="shared" si="20"/>
+        <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J199" t="str">
+        <f>_xlfn.CONCAT(") COMMENT '",C182,"';")</f>
+        <v>) COMMENT '시스템 메뉴 관리';</v>
+      </c>
+      <c r="K199" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B200" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+      <c r="J200" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
+      </c>
+      <c r="K200" t="str">
+        <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B201" s="4">
+        <v>1</v>
+      </c>
+      <c r="C201" s="16" t="str">
+        <f>_xlfn.CONCAT("PK_",C181)</f>
+        <v>PK_TB_MNU</v>
+      </c>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16" t="str">
+        <f>C185</f>
+        <v>MNU_URL</v>
+      </c>
+      <c r="G201" s="16"/>
+      <c r="H201" s="16"/>
+      <c r="I201" s="16"/>
+      <c r="J201" t="str">
+        <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
+        <v>MNU_URL</v>
+      </c>
+      <c r="K201" t="str">
+        <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
+        <v>MNU_URL</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J202" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+      <c r="K202" t="str">
+        <f>_xlfn.CONCAT(");")</f>
+        <v>);</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="70">
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -6542,54 +7525,6 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6598,10 +7533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B1:AA42"/>
+  <dimension ref="B2:AA53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6609,82 +7544,58 @@
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.296875" hidden="1" customWidth="1"/>
-    <col min="11" max="26" width="12.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="138.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.59765625" hidden="1" customWidth="1"/>
+    <col min="15" max="26" width="12.5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="145.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA1" s="17"/>
-    </row>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="20"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="25" t="str">
+        <v>205</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="14" t="str">
         <f>_xlfn.CONCAT("DELETE FROM ",C2,";")</f>
         <v>DELETE FROM TB_SEQUENCE;</v>
       </c>
@@ -6694,33 +7605,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="17" t="str">
+        <v>204</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C2, "(", _xlfn.TEXTJOIN(",",TRUE,C4:Z4),") VALUES")</f>
         <v>INSERT INTO TB_SEQUENCE(SEQ_NM,CURRVAL) VALUES</v>
       </c>
@@ -6730,33 +7639,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="17" t="str">
+      <c r="K5" s="11"/>
+      <c r="AA5" t="str">
         <f>_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
         <v>("POLI_SEQ",0)</v>
       </c>
@@ -6766,33 +7655,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="17" t="str">
+      <c r="K6" s="11"/>
+      <c r="AA6" t="str">
         <f>_xlfn.CONCAT(IF(B6=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C6:Z6),")")</f>
         <v>,("LOGIN_SEQ",0)</v>
       </c>
@@ -6802,33 +7671,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="17" t="str">
+      <c r="K7" s="11"/>
+      <c r="AA7" t="str">
         <f>_xlfn.CONCAT(IF(B7=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C7:Z7),")")</f>
         <v>,("BOARD_SEQ",0)</v>
       </c>
@@ -6838,1334 +7687,1373 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="17" t="str">
+      <c r="K8" s="11"/>
+      <c r="AA8" t="str">
         <f>_xlfn.CONCAT(IF(B8=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C8:Z8),")")</f>
         <v>,("REQ_SEQ",0)</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA9" s="17" t="s">
-        <v>244</v>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="AA9" t="str">
+        <f>_xlfn.CONCAT(IF(B9=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C9:Z9),")")</f>
+        <v>,("MNU_SEQ",0)</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B10" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="17"/>
+      <c r="AA10" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="25" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C10,";")</f>
-        <v>DELETE FROM TB_POLI;</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="14" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C11,";")</f>
+        <v>DELETE FROM TB_POLI;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="17" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C10, "(", _xlfn.TEXTJOIN(",",TRUE,C12:Z12),") VALUES")</f>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C11, "(", _xlfn.TEXTJOIN(",",TRUE,C13:Z13),") VALUES")</f>
         <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="17" t="str">
-        <f>_xlfn.CONCAT(IF(B13=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C13:Z13),")")</f>
-        <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="H14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="17" t="str">
-        <f t="shared" ref="AA14:AA15" si="0">_xlfn.CONCAT(IF(B14=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C14:Z14),")")</f>
-        <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
+        <v>236</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" t="str">
+        <f>_xlfn.CONCAT(IF(B14=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C14:Z14),")")</f>
+        <v>((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PW_ERR_CNT_LIM",5,"비밀번호 오입력 횟수 제한","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" t="str">
+        <f t="shared" ref="AA15:AA16" si="0">_xlfn.CONCAT(IF(B15=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C15:Z15),")")</f>
+        <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="1">
+        <v>90</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F15" s="1">
-        <v>90</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="17" t="str">
+      <c r="I16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" t="str">
         <f t="shared" si="0"/>
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B17" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="17"/>
+      <c r="AA17" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="25" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C17,";")</f>
-        <v>DELETE FROM TB_CODE_GROUP;</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="19"/>
+        <v>227</v>
+      </c>
+      <c r="I19" s="12"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="17" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C17, "(", _xlfn.TEXTJOIN(",",TRUE,C19:Z19),") VALUES")</f>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="14" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C18,";")</f>
+        <v>DELETE FROM TB_CODE_GROUP;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C18, "(", _xlfn.TEXTJOIN(",",TRUE,C20:Z20),") VALUES")</f>
         <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="17" t="str">
-        <f>_xlfn.CONCAT(IF(B20=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C20:Z20),")")</f>
-        <v>("LOGIN_CODE","로그인 유형","","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="17" t="str">
-        <f t="shared" ref="AA21:AA22" si="1">_xlfn.CONCAT(IF(B21=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C21:Z21),")")</f>
-        <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","","SYSTEM","SYSTEM")</v>
+        <v>236</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="AA21" t="str">
+        <f>_xlfn.CONCAT(IF(B21=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C21:Z21),")")</f>
+        <v>("LOGIN_CODE","로그인 유형","","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="AA22" t="str">
+        <f t="shared" ref="AA22:AA23" si="1">_xlfn.CONCAT(IF(B22=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C22:Z22),")")</f>
+        <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="17" t="str">
+      <c r="D23" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="AA23" t="str">
         <f t="shared" si="1"/>
         <v>,("POLI_CODE","정책분류코드","","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B24" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="20"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="17"/>
+      <c r="AA24" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="25" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C24,";")</f>
-        <v>DELETE FROM TB_CODE_DETAIL;</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="14" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C25,";")</f>
+        <v>DELETE FROM TB_CODE_DETAIL;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="17" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C24, "(", _xlfn.TEXTJOIN(",",TRUE,C26:Z26),") VALUES")</f>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C25, "(", _xlfn.TEXTJOIN(",",TRUE,C27:Z27),") VALUES")</f>
         <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,CODE_MODIFY_YN,CODE_DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="17" t="str">
-        <f>_xlfn.CONCAT(IF(B27=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C27:Z27),")")</f>
-        <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="17" t="str">
-        <f t="shared" ref="AA28:AA36" si="2">_xlfn.CONCAT(IF(B28=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C28:Z28),")")</f>
-        <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
+        <v>236</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="AA28" t="str">
+        <f>_xlfn.CONCAT(IF(B28=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C28:Z28),")")</f>
+        <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="AA29" t="str">
+        <f t="shared" ref="AA29:AA37" si="2">_xlfn.CONCAT(IF(B29=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C29:Z29),")")</f>
+        <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="C30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="1">
         <v>2</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="17" t="str">
+      <c r="H30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="AA30" t="str">
         <f t="shared" si="2"/>
         <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="C31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" s="1">
         <v>3</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="17" t="str">
+      <c r="H31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="AA31" t="str">
         <f t="shared" si="2"/>
         <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B31" s="1">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" s="1">
         <v>4</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="17" t="str">
+      <c r="H32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="AA32" t="str">
         <f t="shared" si="2"/>
         <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B32" s="1">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="C33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" s="1">
         <v>5</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="17" t="str">
+      <c r="H33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="AA33" t="str">
         <f t="shared" si="2"/>
         <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B33" s="1">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C34" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="17" t="str">
+      <c r="I34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="11"/>
+      <c r="AA34" t="str">
         <f t="shared" si="2"/>
         <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B34" s="1">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B35" s="1">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G34" s="1">
+      <c r="F35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" s="1">
         <v>2</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="17" t="str">
+      <c r="H35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="AA35" t="str">
         <f t="shared" si="2"/>
         <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B35" s="1">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B36" s="1">
         <v>9</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="F36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" s="1">
         <v>3</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="17" t="str">
+      <c r="H36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="11"/>
+      <c r="AA36" t="str">
         <f t="shared" si="2"/>
         <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B36" s="1">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B37" s="1">
         <v>10</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="C37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="1">
         <v>4</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="17" t="str">
+      <c r="H37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="AA37" t="str">
         <f t="shared" si="2"/>
         <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA37" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B38" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="20"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="17"/>
+      <c r="AA38" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B39" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="25" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C38,";")</f>
-        <v>DELETE FROM TB_USER;</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B40" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="14" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C39,";")</f>
+        <v>DELETE FROM TB_USER;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="17" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C38, "(", _xlfn.TEXTJOIN(",",TRUE,C40:Z40),") VALUES")</f>
+      <c r="G41" s="13"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C39, "(", _xlfn.TEXTJOIN(",",TRUE,C41:Z41),") VALUES")</f>
         <v>INSERT INTO TB_USER(USER_ID,USER_PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B41" s="1">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="23"/>
-      <c r="T41" s="23"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="17" t="str">
-        <f>_xlfn.CONCAT(IF(B41=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C41:Z41),")")</f>
+      <c r="C42" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="AA42" t="str">
+        <f>_xlfn.CONCAT(IF(B42=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C42:Z42),")")</f>
         <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA42" s="17" t="s">
-        <v>244</v>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B44" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B45" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+      <c r="AA45" s="14" t="str">
+        <f>_xlfn.CONCAT("DELETE FROM ",C44,";")</f>
+        <v>DELETE FROM TB_MNU;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B46" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+      <c r="AA46" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C44, "(", _xlfn.TEXTJOIN(",",TRUE,C46:Z46),") VALUES")</f>
+        <v>INSERT INTO TB_MNU(메뉴일련번호,메뉴경로,메뉴명,최상위메뉴경로,상위메뉴경로,메뉴레벨,메뉴정보,메뉴표시순서,최초등록자아이디,최종수정자아이디) VALUES</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA47" t="str">
+        <f>_xlfn.CONCAT(IF(B47=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C47:Z47),")")</f>
+        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","info","info",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA48" t="str">
+        <f>_xlfn.CONCAT(IF(B48=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C48:Z48),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA49" t="str">
+        <f>_xlfn.CONCAT(IF(B49=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C49:Z49),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" s="1">
+        <v>4</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA50" t="str">
+        <f>_xlfn.CONCAT(IF(B50=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C50:Z50),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA51" t="str">
+        <f>_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J52" s="1">
+        <v>6</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA52" t="str">
+        <f>_xlfn.CONCAT(IF(B52=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C52:Z52),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info","info",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA53" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C44:L44"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C25:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8174,10 +9062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5559C8C-0933-46B2-8E0D-87FBB4FA36A4}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8187,7 +9075,7 @@
     <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8257,7 +9145,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -8275,13 +9163,13 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -8293,7 +9181,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -8311,7 +9199,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -8326,18 +9214,36 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E6C8AB-9D10-4678-BDED-2867D65C0AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDFB844-272A-4005-8E85-8A8590E1042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="406">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1443,10 +1443,6 @@
   </si>
   <si>
     <t>"사용자 관련 대메뉴"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"notice"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1747,7 +1743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1793,6 +1789,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,9 +1816,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1818,27 +1823,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2165,7 +2149,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2195,16 +2179,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2244,15 +2228,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3090,17 +3074,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3114,19 +3098,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="20" t="str">
+      <c r="C33" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="str">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3147,16 +3131,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3196,15 +3180,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3484,17 +3468,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3508,19 +3492,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="20" t="str">
+      <c r="C48" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20" t="str">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3541,16 +3525,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3590,15 +3574,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3942,17 +3926,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -3966,19 +3950,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="20" t="str">
+      <c r="C65" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20" t="str">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -3992,19 +3976,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="20" t="str">
+      <c r="C66" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20" t="str">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4025,16 +4009,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4074,15 +4058,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4300,17 +4284,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4324,19 +4308,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="20" t="str">
+      <c r="C79" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20" t="str">
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4357,16 +4341,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="17"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4406,15 +4390,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4696,17 +4680,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19" t="s">
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4720,19 +4704,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="20" t="str">
+      <c r="C94" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20" t="str">
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4753,16 +4737,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="17"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="21"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -4802,15 +4786,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5152,17 +5136,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19" t="s">
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5176,19 +5160,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="20" t="str">
+      <c r="C111" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20" t="str">
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5209,16 +5193,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="17"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5258,15 +5242,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5668,17 +5652,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="19" t="s">
+      <c r="C129" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19" t="s">
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5692,19 +5676,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="20" t="str">
+      <c r="C130" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20" t="str">
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5725,16 +5709,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="17"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="21"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -5774,15 +5758,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6228,17 +6212,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="19" t="s">
+      <c r="C149" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19" t="s">
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6252,19 +6236,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="20" t="str">
+      <c r="C150" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20" t="str">
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6278,19 +6262,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="20" t="str">
+      <c r="C151" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20" t="str">
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6311,16 +6295,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="17"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="21"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6360,15 +6344,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6492,17 +6476,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="19" t="s">
+      <c r="C160" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19" t="s">
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6516,19 +6500,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="20" t="str">
+      <c r="C161" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20" t="str">
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6549,16 +6533,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="17"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="21"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6598,15 +6582,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="18"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6951,17 +6935,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="19" t="s">
+      <c r="C177" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19" t="s">
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="23"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -6975,19 +6959,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="20" t="str">
+      <c r="C178" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20" t="str">
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7008,16 +6992,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="16"/>
-      <c r="H180" s="16"/>
-      <c r="I180" s="17"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="21"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7057,15 +7041,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
-      <c r="I182" s="18"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7602,17 +7586,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="19" t="s">
+      <c r="C200" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="19" t="s">
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7626,19 +7610,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="20" t="str">
+      <c r="C201" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20" t="str">
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="20"/>
-      <c r="H201" s="20"/>
-      <c r="I201" s="20"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7659,29 +7643,29 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="16"/>
-      <c r="D203" s="16"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="16"/>
-      <c r="I203" s="17"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="21"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>29</v>
@@ -7708,15 +7692,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
-      <c r="I205" s="18"/>
+      <c r="C205" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="22"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -7765,10 +7749,10 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>120</v>
@@ -7783,7 +7767,7 @@
         <v>107</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J207" t="str">
         <f>_xlfn.CONCAT(IF(B207=1,"",", "),C207," ",E207," ",G207,IF(H207="",""," DEFAULT "),H207, " COMMENT '",I207,"'")</f>
@@ -7799,10 +7783,10 @@
         <v>2</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>115</v>
@@ -7815,7 +7799,7 @@
         <v>107</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J208" t="str">
         <f>_xlfn.CONCAT(IF(B208=1,"",", "),C208," ",E208," ",G208,IF(H208="",""," DEFAULT "),H208, " COMMENT '",I208,"'")</f>
@@ -7831,10 +7815,10 @@
         <v>3</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>190</v>
@@ -7845,7 +7829,7 @@
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J209" t="str">
         <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
@@ -7861,10 +7845,10 @@
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>313</v>
@@ -7876,7 +7860,7 @@
         <v>107</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J210" t="str">
         <f>_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
@@ -8029,17 +8013,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="19" t="s">
+      <c r="C216" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D216" s="19"/>
-      <c r="E216" s="19"/>
-      <c r="F216" s="19" t="s">
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G216" s="19"/>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
+      <c r="G216" s="23"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="23"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8053,19 +8037,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="20" t="str">
+      <c r="C217" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="20"/>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20" t="str">
+      <c r="D217" s="18"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="20"/>
-      <c r="H217" s="20"/>
-      <c r="I217" s="20"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8086,29 +8070,29 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="15" t="s">
+      <c r="B219" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="16"/>
-      <c r="D219" s="16"/>
-      <c r="E219" s="16"/>
-      <c r="F219" s="16"/>
-      <c r="G219" s="16"/>
-      <c r="H219" s="16"/>
-      <c r="I219" s="17"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="21"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>29</v>
@@ -8135,15 +8119,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="18"/>
-      <c r="G221" s="18"/>
-      <c r="H221" s="18"/>
-      <c r="I221" s="18"/>
+      <c r="C221" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="22"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8224,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>120</v>
@@ -8242,7 +8226,7 @@
         <v>107</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J224" t="str">
         <f>_xlfn.CONCAT(IF(B224=1,"",", "),C224," ",E224," ",G224,IF(H224="",""," DEFAULT "),H224, " COMMENT '",I224,"'")</f>
@@ -8331,17 +8315,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="19" t="s">
+      <c r="C228" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D228" s="19"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="19" t="s">
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8355,19 +8339,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="20" t="str">
+      <c r="C229" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="20"/>
-      <c r="E229" s="20"/>
-      <c r="F229" s="20" t="str">
+      <c r="D229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="20"/>
-      <c r="H229" s="20"/>
-      <c r="I229" s="20"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8381,19 +8365,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="20" t="str">
+      <c r="C230" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="20"/>
-      <c r="E230" s="20"/>
-      <c r="F230" s="20" t="str">
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="20"/>
-      <c r="H230" s="20"/>
-      <c r="I230" s="20"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8414,29 +8398,29 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="15" t="s">
+      <c r="B232" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="16"/>
-      <c r="D232" s="16"/>
-      <c r="E232" s="16"/>
-      <c r="F232" s="16"/>
-      <c r="G232" s="16"/>
-      <c r="H232" s="16"/>
-      <c r="I232" s="17"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="21"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>29</v>
@@ -8463,15 +8447,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="18"/>
-      <c r="H234" s="18"/>
-      <c r="I234" s="18"/>
+      <c r="C234" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
+      <c r="I234" s="22"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8552,10 +8536,10 @@
         <v>2</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>120</v>
@@ -8570,7 +8554,7 @@
         <v>107</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J237" t="str">
         <f>_xlfn.CONCAT(IF(B237=1,"",", "),C237," ",E237," ",G237,IF(H237="",""," DEFAULT "),H237, " COMMENT '",I237,"'")</f>
@@ -8586,10 +8570,10 @@
         <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>24</v>
@@ -8602,7 +8586,7 @@
         <v>107</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J238" t="str">
         <f t="shared" ref="J238" si="32">_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
@@ -8755,17 +8739,17 @@
       <c r="B244" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C244" s="19" t="s">
+      <c r="C244" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D244" s="19"/>
-      <c r="E244" s="19"/>
-      <c r="F244" s="19" t="s">
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G244" s="19"/>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
+      <c r="G244" s="23"/>
+      <c r="H244" s="23"/>
+      <c r="I244" s="23"/>
       <c r="J244" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C246," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8779,19 +8763,19 @@
       <c r="B245" s="4">
         <v>1</v>
       </c>
-      <c r="C245" s="20" t="str">
+      <c r="C245" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D245" s="20"/>
-      <c r="E245" s="20"/>
-      <c r="F245" s="20" t="str">
+      <c r="D245" s="18"/>
+      <c r="E245" s="18"/>
+      <c r="F245" s="18" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G245" s="20"/>
-      <c r="H245" s="20"/>
-      <c r="I245" s="20"/>
+      <c r="G245" s="18"/>
+      <c r="H245" s="18"/>
+      <c r="I245" s="18"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT(IF(B245=1,"",", "),F245)</f>
         <v>MNU_SEQ</v>
@@ -8805,19 +8789,19 @@
       <c r="B246" s="4">
         <v>2</v>
       </c>
-      <c r="C246" s="20" t="str">
+      <c r="C246" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="20"/>
-      <c r="E246" s="20"/>
-      <c r="F246" s="20" t="str">
+      <c r="D246" s="18"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="18" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G246" s="20"/>
-      <c r="H246" s="20"/>
-      <c r="I246" s="20"/>
+      <c r="G246" s="18"/>
+      <c r="H246" s="18"/>
+      <c r="I246" s="18"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>, ROLE_SEQ</v>
@@ -8839,28 +8823,60 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C244:E244"/>
-    <mergeCell ref="F244:I244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -8877,60 +8893,28 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C244:E244"/>
+    <mergeCell ref="F244:I244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8942,7 +8926,7 @@
   <dimension ref="B2:AA81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8952,7 +8936,7 @@
     <col min="3" max="3" width="38.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.8984375" customWidth="1"/>
     <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
@@ -8968,10 +8952,10 @@
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -9051,7 +9035,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="AA5" t="str">
-        <f>_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
+        <f t="shared" ref="AA5:AA10" si="0">_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
         <v>("POLI_SEQ",0)</v>
       </c>
     </row>
@@ -9067,7 +9051,7 @@
       </c>
       <c r="K6" s="11"/>
       <c r="AA6" t="str">
-        <f>_xlfn.CONCAT(IF(B6=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C6:Z6),")")</f>
+        <f t="shared" si="0"/>
         <v>,("LOGIN_SEQ",0)</v>
       </c>
     </row>
@@ -9083,7 +9067,7 @@
       </c>
       <c r="K7" s="11"/>
       <c r="AA7" t="str">
-        <f>_xlfn.CONCAT(IF(B7=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C7:Z7),")")</f>
+        <f t="shared" si="0"/>
         <v>,("BOARD_SEQ",0)</v>
       </c>
     </row>
@@ -9099,7 +9083,7 @@
       </c>
       <c r="K8" s="11"/>
       <c r="AA8" t="str">
-        <f>_xlfn.CONCAT(IF(B8=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C8:Z8),")")</f>
+        <f t="shared" si="0"/>
         <v>,("REQ_SEQ",0)</v>
       </c>
     </row>
@@ -9115,7 +9099,7 @@
       </c>
       <c r="K9" s="11"/>
       <c r="AA9" t="str">
-        <f>_xlfn.CONCAT(IF(B9=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C9:Z9),")")</f>
+        <f t="shared" si="0"/>
         <v>,("MNU_SEQ",0)</v>
       </c>
     </row>
@@ -9124,14 +9108,14 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="K10" s="11"/>
       <c r="AA10" t="str">
-        <f>_xlfn.CONCAT(IF(B10=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C10:Z10),")")</f>
+        <f t="shared" si="0"/>
         <v>,("ROLE_SEQ",0)</v>
       </c>
     </row>
@@ -9144,15 +9128,15 @@
       <c r="B12" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9331,7 +9315,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" t="str">
-        <f t="shared" ref="AA16:AA17" si="0">_xlfn.CONCAT(IF(B16=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C16:Z16),")")</f>
+        <f t="shared" ref="AA16:AA17" si="1">_xlfn.CONCAT(IF(B16=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C16:Z16),")")</f>
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","SESSION_TIME",7200,"세션유지시간(초단위)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9378,7 +9362,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>,((SELECT nextval('POLI_SEQ') FROM DUAL),"01","PSWD_LIM_DAYS",90,"비밀번호 변경 주기(일)","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9388,16 +9372,15 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="27"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9439,16 +9422,16 @@
       <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="16" t="s">
         <v>222</v>
       </c>
       <c r="I21" s="12"/>
@@ -9514,7 +9497,7 @@
       </c>
       <c r="I23" s="11"/>
       <c r="AA23" t="str">
-        <f t="shared" ref="AA23:AA24" si="1">_xlfn.CONCAT(IF(B23=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C23:Z23),")")</f>
+        <f t="shared" ref="AA23:AA24" si="2">_xlfn.CONCAT(IF(B23=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C23:Z23),")")</f>
         <v>,("LOGIN_INFO_EXCEPT_URI","로그인 정보가 필요없는 URI","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9536,7 +9519,7 @@
       </c>
       <c r="I24" s="11"/>
       <c r="AA24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>,("POLI_CODE","정책분류코드","SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9549,15 +9532,15 @@
       <c r="B26" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -9702,7 +9685,7 @@
       </c>
       <c r="K30" s="11"/>
       <c r="AA30" t="str">
-        <f t="shared" ref="AA30:AA40" si="2">_xlfn.CONCAT(IF(B30=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C30:Z30),")")</f>
+        <f t="shared" ref="AA30:AA40" si="3">_xlfn.CONCAT(IF(B30=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C30:Z30),")")</f>
         <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9733,7 +9716,7 @@
       </c>
       <c r="K31" s="11"/>
       <c r="AA31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("LOGIN_CODE","02","로그아웃","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9764,7 +9747,7 @@
       </c>
       <c r="K32" s="11"/>
       <c r="AA32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9795,7 +9778,7 @@
       </c>
       <c r="K33" s="11"/>
       <c r="AA33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9826,7 +9809,7 @@
       </c>
       <c r="K34" s="11"/>
       <c r="AA34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9857,7 +9840,7 @@
       </c>
       <c r="K35" s="11"/>
       <c r="AA35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("BOARD_CODE","01","공지사항","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9888,7 +9871,7 @@
       </c>
       <c r="K36" s="11"/>
       <c r="AA36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("BOARD_CODE","02","자유게시판","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9919,7 +9902,7 @@
       </c>
       <c r="K37" s="11"/>
       <c r="AA37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("BOARD_CODE","03","질문게시판","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9950,7 +9933,7 @@
       </c>
       <c r="K38" s="11"/>
       <c r="AA38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("BOARD_CODE","04","지역게시판","N",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9959,13 +9942,13 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>228</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>257</v>
@@ -9981,7 +9964,7 @@
       </c>
       <c r="K39" s="11"/>
       <c r="AA39" t="str">
-        <f t="shared" ref="AA39" si="3">_xlfn.CONCAT(IF(B39=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C39:Z39),")")</f>
+        <f t="shared" ref="AA39" si="4">_xlfn.CONCAT(IF(B39=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C39:Z39),")")</f>
         <v>,("AUTH_CODE","01","읽기","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9990,13 +9973,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>257</v>
@@ -10012,7 +9995,7 @@
       </c>
       <c r="K40" s="11"/>
       <c r="AA40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>,("AUTH_CODE","02","읽기/쓰기","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10025,12 +10008,12 @@
       <c r="B42" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B43" s="10" t="s">
@@ -10160,20 +10143,20 @@
       <c r="B48" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
@@ -10297,7 +10280,7 @@
         <v>355</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>264</v>
@@ -10324,8 +10307,8 @@
         <v>231</v>
       </c>
       <c r="AA51" t="str">
-        <f t="shared" ref="AA51:AA61" si="4">_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
-        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA51:AA61" si="5">_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
+        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.4">
@@ -10342,7 +10325,7 @@
         <v>364</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>264</v>
@@ -10357,7 +10340,7 @@
         <v>2</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -10369,8 +10352,8 @@
         <v>231</v>
       </c>
       <c r="AA52" t="str">
-        <f t="shared" si="4"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="5"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
@@ -10387,7 +10370,7 @@
         <v>366</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>264</v>
@@ -10402,7 +10385,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L53" s="1">
         <v>2</v>
@@ -10414,8 +10397,8 @@
         <v>231</v>
       </c>
       <c r="AA53" t="str">
-        <f t="shared" ref="AA53" si="5">_xlfn.CONCAT(IF(B53=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C53:Z53),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA53" si="6">_xlfn.CONCAT(IF(B53=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C53:Z53),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.4">
@@ -10459,7 +10442,7 @@
         <v>231</v>
       </c>
       <c r="AA54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10504,7 +10487,7 @@
         <v>231</v>
       </c>
       <c r="AA55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10549,7 +10532,7 @@
         <v>231</v>
       </c>
       <c r="AA56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10594,7 +10577,7 @@
         <v>231</v>
       </c>
       <c r="AA57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10612,7 +10595,7 @@
         <v>347</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>346</v>
@@ -10639,8 +10622,8 @@
         <v>231</v>
       </c>
       <c r="AA58" t="str">
-        <f t="shared" si="4"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="5"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.4">
@@ -10651,7 +10634,7 @@
         <v>345</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>259</v>
@@ -10660,7 +10643,7 @@
         <v>372</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>299</v>
@@ -10672,7 +10655,7 @@
         <v>2</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L59" s="1">
         <v>1</v>
@@ -10684,8 +10667,8 @@
         <v>231</v>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" ref="AA59:AA60" si="6">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","notice","notice","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA59:AA60" si="7">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
@@ -10702,7 +10685,7 @@
         <v>368</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>367</v>
@@ -10729,8 +10712,8 @@
         <v>231</v>
       </c>
       <c r="AA60" t="str">
-        <f t="shared" si="6"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="7"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.4">
@@ -10747,7 +10730,7 @@
         <v>370</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>367</v>
@@ -10762,7 +10745,7 @@
         <v>2</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L61" s="1">
         <v>1</v>
@@ -10774,8 +10757,8 @@
         <v>231</v>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="4"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="5"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.4">
@@ -10787,45 +10770,33 @@
       <c r="B63" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
+      <c r="C63" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B64" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>376</v>
-      </c>
       <c r="E64" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
@@ -10845,25 +10816,21 @@
         <v>3</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>378</v>
-      </c>
       <c r="E65" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
@@ -10883,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>368</v>
@@ -10894,16 +10861,8 @@
       <c r="F66" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
       <c r="AA66" t="str">
-        <f t="shared" ref="AA66:AA70" si="7">_xlfn.CONCAT(IF(B66=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C66:Z66),")")</f>
+        <f t="shared" ref="AA66:AA70" si="8">_xlfn.CONCAT(IF(B66=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C66:Z66),")")</f>
         <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"SYSTEM")</v>
       </c>
     </row>
@@ -10912,10 +10871,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -10923,16 +10882,8 @@
       <c r="F67" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="24"/>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67" si="8">_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
+        <f t="shared" ref="AA67" si="9">_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"SYSTEM")</v>
       </c>
     </row>
@@ -10941,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>355</v>
@@ -10952,16 +10903,8 @@
       <c r="F68" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="24"/>
       <c r="AA68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"SYSTEM")</v>
       </c>
     </row>
@@ -10970,10 +10913,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>388</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>389</v>
       </c>
       <c r="E69" s="1">
         <v>4</v>
@@ -10981,16 +10924,8 @@
       <c r="F69" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
       <c r="AA69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"SYSTEM")</v>
       </c>
     </row>
@@ -10999,10 +10934,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E70" s="1">
         <v>5</v>
@@ -11010,16 +10945,8 @@
       <c r="F70" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="N70" s="24"/>
       <c r="AA70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"SYSTEM")</v>
       </c>
     </row>
@@ -11032,20 +10959,11 @@
       <c r="B72" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C72" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
+      <c r="C72" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B73" s="10" t="s">
@@ -11055,20 +10973,15 @@
         <v>42</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
@@ -11091,20 +11004,15 @@
         <v>135</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
@@ -11132,17 +11040,8 @@
       <c r="E75" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F75" s="24"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
       <c r="AA75" t="str">
-        <f t="shared" ref="AA75" si="9">_xlfn.CONCAT(IF(B75=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C75:Z75),")")</f>
+        <f t="shared" ref="AA75" si="10">_xlfn.CONCAT(IF(B75=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C75:Z75),")")</f>
         <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
@@ -11152,50 +11051,40 @@
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
+      <c r="C77" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D78" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="F78" s="30" t="s">
+      <c r="D78" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F78" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="G78" s="30" t="s">
+      <c r="G78" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
@@ -11211,31 +11100,28 @@
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="D79" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="F79" s="30" t="s">
+      <c r="D79" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F79" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="G79" s="30" t="s">
+      <c r="G79" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
@@ -11269,29 +11155,22 @@
       <c r="G80" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
       <c r="AA80" t="str">
         <f>_xlfn.CONCAT("SELECT ",_xlfn.TEXTJOIN(",",TRUE,C80:Z80))</f>
         <v>SELECT MNU_SEQ,3,"02","SYSTEM","SYSTEM"</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B81" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C81" s="20" t="s">
+      <c r="B81" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
       <c r="AA81" t="str">
         <f>_xlfn.CONCAT("FROM ", C81, ";")</f>
         <v>FROM TB_MNU;</v>
@@ -11299,16 +11178,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C48:N48"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="C81:G81"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C48:N48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B51:N61">

--- a/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDFB844-272A-4005-8E85-8A8590E1042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8372FD8-2BC2-4C34-AA6A-FC22EAD5BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="409">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1579,6 +1579,18 @@
   </si>
   <si>
     <t>"신규 사용자의 회원가입을 위한  메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin/requestLog"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"요청기록조회"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,9 +1810,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1814,6 +1823,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2179,16 +2191,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2228,15 +2240,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3074,17 +3086,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3098,19 +3110,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="18" t="str">
+      <c r="C33" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="str">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3131,16 +3143,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3180,15 +3192,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3468,17 +3480,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3492,19 +3504,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="18" t="str">
+      <c r="C48" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18" t="str">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3525,16 +3537,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3574,15 +3586,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3926,17 +3938,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23" t="s">
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -3950,19 +3962,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="18" t="str">
+      <c r="C65" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18" t="str">
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -3976,19 +3988,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="18" t="str">
+      <c r="C66" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18" t="str">
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4009,16 +4021,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4058,15 +4070,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4284,17 +4296,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23" t="s">
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4308,19 +4320,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="18" t="str">
+      <c r="C79" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18" t="str">
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4341,16 +4353,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="21"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4390,15 +4402,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4680,17 +4692,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4704,19 +4716,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="18" t="str">
+      <c r="C94" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18" t="str">
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4737,16 +4749,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -4786,15 +4798,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5136,17 +5148,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="23" t="s">
+      <c r="C110" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23" t="s">
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5160,19 +5172,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="18" t="str">
+      <c r="C111" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18" t="str">
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5193,16 +5205,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="21"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="20"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5242,15 +5254,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5652,17 +5664,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23" t="s">
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5676,19 +5688,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="18" t="str">
+      <c r="C130" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18" t="str">
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5709,16 +5721,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="21"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="20"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -5758,15 +5770,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6212,17 +6224,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="23" t="s">
+      <c r="C149" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23" t="s">
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6236,19 +6248,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="18" t="str">
+      <c r="C150" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18" t="str">
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6262,19 +6274,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="18" t="str">
+      <c r="C151" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18" t="str">
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6295,16 +6307,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="21"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="20"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6344,15 +6356,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="22" t="s">
+      <c r="C155" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6476,17 +6488,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="23" t="s">
+      <c r="C160" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23" t="s">
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6500,19 +6512,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="18" t="str">
+      <c r="C161" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18" t="str">
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6533,16 +6545,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="21"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="20"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6582,15 +6594,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="22"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6935,17 +6947,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="23" t="s">
+      <c r="C177" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="23" t="s">
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G177" s="23"/>
-      <c r="H177" s="23"/>
-      <c r="I177" s="23"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -6959,19 +6971,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="18" t="str">
+      <c r="C178" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18" t="str">
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -6992,16 +7004,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="19" t="s">
+      <c r="B180" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="21"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="20"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7041,15 +7053,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D182" s="22"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="22"/>
-      <c r="H182" s="22"/>
-      <c r="I182" s="22"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7586,17 +7598,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="23" t="s">
+      <c r="C200" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23" t="s">
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-      <c r="I200" s="23"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7610,19 +7622,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="18" t="str">
+      <c r="C201" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18" t="str">
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="23"/>
+      <c r="I201" s="23"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7643,16 +7655,16 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="19" t="s">
+      <c r="B203" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="21"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="20"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
@@ -7692,15 +7704,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="D205" s="22"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="22"/>
-      <c r="I205" s="22"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8013,17 +8025,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="23" t="s">
+      <c r="C216" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D216" s="23"/>
-      <c r="E216" s="23"/>
-      <c r="F216" s="23" t="s">
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G216" s="23"/>
-      <c r="H216" s="23"/>
-      <c r="I216" s="23"/>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="22"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8037,19 +8049,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="18" t="str">
+      <c r="C217" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18" t="str">
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
-      <c r="I217" s="18"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8070,16 +8082,16 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="19" t="s">
+      <c r="B219" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="21"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="20"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
@@ -8119,15 +8131,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="22" t="s">
+      <c r="C221" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="22"/>
-      <c r="I221" s="22"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8315,17 +8327,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="23" t="s">
+      <c r="C228" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D228" s="23"/>
-      <c r="E228" s="23"/>
-      <c r="F228" s="23" t="s">
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G228" s="23"/>
-      <c r="H228" s="23"/>
-      <c r="I228" s="23"/>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
+      <c r="I228" s="22"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8339,19 +8351,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="18" t="str">
+      <c r="C229" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18" t="str">
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
-      <c r="I229" s="18"/>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8365,19 +8377,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="18" t="str">
+      <c r="C230" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="18" t="str">
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="18"/>
-      <c r="H230" s="18"/>
-      <c r="I230" s="18"/>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8398,16 +8410,16 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="19" t="s">
+      <c r="B232" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="20"/>
-      <c r="D232" s="20"/>
-      <c r="E232" s="20"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="20"/>
-      <c r="I232" s="21"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="19"/>
+      <c r="I232" s="20"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
@@ -8447,15 +8459,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="22" t="s">
+      <c r="C234" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="D234" s="22"/>
-      <c r="E234" s="22"/>
-      <c r="F234" s="22"/>
-      <c r="G234" s="22"/>
-      <c r="H234" s="22"/>
-      <c r="I234" s="22"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8739,17 +8751,17 @@
       <c r="B244" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C244" s="23" t="s">
+      <c r="C244" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D244" s="23"/>
-      <c r="E244" s="23"/>
-      <c r="F244" s="23" t="s">
+      <c r="D244" s="22"/>
+      <c r="E244" s="22"/>
+      <c r="F244" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G244" s="23"/>
-      <c r="H244" s="23"/>
-      <c r="I244" s="23"/>
+      <c r="G244" s="22"/>
+      <c r="H244" s="22"/>
+      <c r="I244" s="22"/>
       <c r="J244" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C246," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8763,19 +8775,19 @@
       <c r="B245" s="4">
         <v>1</v>
       </c>
-      <c r="C245" s="18" t="str">
+      <c r="C245" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18" t="str">
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G245" s="18"/>
-      <c r="H245" s="18"/>
-      <c r="I245" s="18"/>
+      <c r="G245" s="23"/>
+      <c r="H245" s="23"/>
+      <c r="I245" s="23"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT(IF(B245=1,"",", "),F245)</f>
         <v>MNU_SEQ</v>
@@ -8789,19 +8801,19 @@
       <c r="B246" s="4">
         <v>2</v>
       </c>
-      <c r="C246" s="18" t="str">
+      <c r="C246" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="18"/>
-      <c r="E246" s="18"/>
-      <c r="F246" s="18" t="str">
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G246" s="18"/>
-      <c r="H246" s="18"/>
-      <c r="I246" s="18"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>, ROLE_SEQ</v>
@@ -8823,60 +8835,28 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C244:E244"/>
+    <mergeCell ref="F244:I244"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -8893,28 +8873,60 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C244:E244"/>
-    <mergeCell ref="F244:I244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8923,10 +8935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:AA81"/>
+  <dimension ref="B2:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="J58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8944,7 +8956,7 @@
     <col min="11" max="11" width="48.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16.59765625" customWidth="1"/>
-    <col min="15" max="26" width="12.5" customWidth="1"/>
+    <col min="15" max="26" width="12.5" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="145.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8952,10 +8964,10 @@
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -8987,8 +8999,8 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C2,";")</f>
-        <v>DELETE FROM TB_SEQUENCE;</v>
+        <f>_xlfn.CONCAT("TRUNCATE ",C2,";")</f>
+        <v>TRUNCATE TB_SEQUENCE;</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.4">
@@ -9128,15 +9140,15 @@
       <c r="B12" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9181,8 +9193,8 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C12,";")</f>
-        <v>DELETE FROM TB_POLI;</v>
+        <f>_xlfn.CONCAT("TRUNCATE ",C12,";")</f>
+        <v>TRUNCATE TB_POLI;</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.4">
@@ -9375,12 +9387,12 @@
       <c r="B19" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9414,8 +9426,8 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C19,";")</f>
-        <v>DELETE FROM TB_CODE_GROUP;</v>
+        <f>_xlfn.CONCAT("TRUNCATE ",C19,";")</f>
+        <v>TRUNCATE TB_CODE_GROUP;</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.4">
@@ -9532,15 +9544,15 @@
       <c r="B26" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -9577,8 +9589,8 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C26,";")</f>
-        <v>DELETE FROM TB_CODE_DETAIL;</v>
+        <f>_xlfn.CONCAT("TRUNCATE ",C26,";")</f>
+        <v>TRUNCATE TB_CODE_DETAIL;</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.4">
@@ -10049,8 +10061,8 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C42,";")</f>
-        <v>DELETE FROM TB_USER;</v>
+        <f>_xlfn.CONCAT("TRUNCATE ",C42,";")</f>
+        <v>TRUNCATE TB_USER;</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.4">
@@ -10143,20 +10155,20 @@
       <c r="B48" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
@@ -10208,8 +10220,8 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
       <c r="AA49" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C48,";")</f>
-        <v>DELETE FROM TB_MNU;</v>
+        <f>_xlfn.CONCAT("TRUNCATE ",C48,";")</f>
+        <v>TRUNCATE TB_MNU;</v>
       </c>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.4">
@@ -10307,7 +10319,7 @@
         <v>231</v>
       </c>
       <c r="AA51" t="str">
-        <f t="shared" ref="AA51:AA61" si="5">_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
+        <f t="shared" ref="AA51:AA59" si="5">_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
         <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -10409,16 +10421,16 @@
         <v>345</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>299</v>
@@ -10427,13 +10439,13 @@
         <v>299</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="L54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>231</v>
@@ -10442,8 +10454,8 @@
         <v>231</v>
       </c>
       <c r="AA54" t="str">
-        <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
+        <f>_xlfn.CONCAT(IF(B54=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C54:Z54),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.4">
@@ -10454,16 +10466,16 @@
         <v>345</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>299</v>
@@ -10475,10 +10487,10 @@
         <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>231</v>
@@ -10488,7 +10500,7 @@
       </c>
       <c r="AA55" t="str">
         <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.4">
@@ -10499,16 +10511,16 @@
         <v>345</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>299</v>
@@ -10520,10 +10532,10 @@
         <v>1</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L56" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>231</v>
@@ -10533,7 +10545,7 @@
       </c>
       <c r="AA56" t="str">
         <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.4">
@@ -10544,16 +10556,16 @@
         <v>345</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>299</v>
@@ -10565,10 +10577,10 @@
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L57" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>231</v>
@@ -10578,7 +10590,7 @@
       </c>
       <c r="AA57" t="str">
         <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
@@ -10589,16 +10601,16 @@
         <v>345</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>299</v>
@@ -10610,10 +10622,10 @@
         <v>1</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="L58" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>231</v>
@@ -10623,7 +10635,7 @@
       </c>
       <c r="AA58" t="str">
         <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.4">
@@ -10634,10 +10646,10 @@
         <v>345</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>372</v>
@@ -10649,16 +10661,16 @@
         <v>299</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="J59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="L59" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>231</v>
@@ -10667,8 +10679,8 @@
         <v>231</v>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" ref="AA59:AA60" si="7">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="5"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
@@ -10679,31 +10691,31 @@
         <v>345</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="J60" s="1">
+        <v>2</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L60" s="1">
         <v>1</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="L60" s="1">
-        <v>7</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>231</v>
@@ -10712,8 +10724,8 @@
         <v>231</v>
       </c>
       <c r="AA60" t="str">
-        <f t="shared" si="7"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA60:AA62" si="7">_xlfn.CONCAT(IF(B60=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C60:Z60),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.4">
@@ -10724,10 +10736,10 @@
         <v>345</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>369</v>
@@ -10739,16 +10751,16 @@
         <v>257</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="J61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="L61" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>231</v>
@@ -10757,75 +10769,86 @@
         <v>231</v>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B62" s="1">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA62" t="str">
+        <f t="shared" si="7"/>
         <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA62" t="s">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA63" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B63" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B64" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C63,";")</f>
-        <v>DELETE FROM TB_ROLE;</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B65" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -10840,51 +10863,64 @@
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
-      <c r="AA65" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C63, "(", _xlfn.TEXTJOIN(",",TRUE,C64:Z64),") VALUES")</f>
+      <c r="AA65" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C64,";")</f>
+        <v>TRUNCATE TB_ROLE;</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B66" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C64, "(", _xlfn.TEXTJOIN(",",TRUE,C65:Z65),") VALUES")</f>
         <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,FST_REG_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA66" t="str">
-        <f t="shared" ref="AA66:AA70" si="8">_xlfn.CONCAT(IF(B66=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C66:Z66),")")</f>
-        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>387</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>231</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67" si="9">_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"SYSTEM")</v>
+        <f t="shared" ref="AA67:AA71" si="8">_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
+        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"SYSTEM")</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
@@ -10895,119 +10931,109 @@
         <v>387</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="E68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>231</v>
       </c>
       <c r="AA68" t="str">
+        <f t="shared" ref="AA68" si="9">_xlfn.CONCAT(IF(B68=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C68:Z68),")")</f>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA69" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="1">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B70" s="1">
         <v>3</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E70" s="1">
         <v>4</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA69" t="str">
+      <c r="AA70" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"SYSTEM")</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="1">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B71" s="1">
         <v>4</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E71" s="1">
         <v>5</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA70" t="str">
+      <c r="AA71" t="str">
         <f t="shared" si="8"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"SYSTEM")</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA71" t="s">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA72" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B72" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B73" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C72,";")</f>
-        <v>DELETE FROM TB_USER_ROLE_MAP;</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B74" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
@@ -11022,175 +11048,248 @@
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
       <c r="Z74" s="13"/>
-      <c r="AA74" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C72, "(", _xlfn.TEXTJOIN(",",TRUE,C73:Z73),") VALUES")</f>
+      <c r="AA74" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C73,";")</f>
+        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B75" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C73, "(", _xlfn.TEXTJOIN(",",TRUE,C74:Z74),") VALUES")</f>
         <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B75" s="1">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B76" s="1">
         <v>1</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <v>3</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA75" t="str">
-        <f t="shared" ref="AA75" si="10">_xlfn.CONCAT(IF(B75=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C75:Z75),")")</f>
+      <c r="AA76" t="str">
+        <f t="shared" ref="AA76" si="10">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
         <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA76" t="s">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="8">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA77" t="str">
+        <f t="shared" ref="AA77" si="11">_xlfn.CONCAT(IF(B77=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C77:Z77),")")</f>
+        <v>,("user",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA78" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B77" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-    </row>
-    <row r="78" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B78" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
-      <c r="AA78" s="14" t="str">
-        <f>_xlfn.CONCAT("DELETE FROM ",C77,";")</f>
-        <v>DELETE FROM TB_AUTH;</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B79" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
-      <c r="AA79" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C77, "(", _xlfn.TEXTJOIN(",",TRUE,C78:Z78),")")</f>
-        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_CODE,FST_REG_ID,LT_UPD_ID)</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B80" s="1">
+      <c r="B80" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D80" s="8">
-        <v>3</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA80" t="str">
-        <f>_xlfn.CONCAT("SELECT ",_xlfn.TEXTJOIN(",",TRUE,C80:Z80))</f>
-        <v>SELECT MNU_SEQ,3,"02","SYSTEM","SYSTEM"</v>
+      <c r="D80" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13"/>
+      <c r="Z80" s="13"/>
+      <c r="AA80" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C79,";")</f>
+        <v>TRUNCATE TB_AUTH;</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B81" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13"/>
+      <c r="AA81" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C79, "(", _xlfn.TEXTJOIN(",",TRUE,C80:Z80),")")</f>
+        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_CODE,FST_REG_ID,LT_UPD_ID)</v>
+      </c>
+    </row>
+    <row r="82" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="8">
+        <v>3</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA82" t="str">
+        <f>_xlfn.CONCAT(IF(B82&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C82:Z82)," FROM ", $C$84)</f>
+        <v>SELECT MNU_SEQ,3,"02","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA83" t="str">
+        <f>_xlfn.CONCAT(IF(B83&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C83:Z83)," FROM ", $C$84)</f>
+        <v>UNION ALL SELECT MNU_SEQ,1,"01","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B84" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C84" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="AA81" t="str">
-        <f>_xlfn.CONCAT("FROM ", C81, ";")</f>
-        <v>FROM TB_MNU;</v>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="AA84" t="str">
+        <f>_xlfn.CONCAT(";")</f>
+        <v>;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C48:N48"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B51:N61">
+  <conditionalFormatting sqref="B51:N62">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>$J51 = 1</formula>
     </cfRule>

--- a/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8372FD8-2BC2-4C34-AA6A-FC22EAD5BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36F5D4F-D08A-4C26-9290-025A47A84238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="418">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1534,18 +1534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AUTH_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"AUTH_CODE"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"읽기"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1562,10 +1550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>권한코드(01:읽기, 02:읽기/쓰기, 03:기타권한1, 04:기타권한2 ...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1591,6 +1575,58 @@
   </si>
   <si>
     <t>"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"REQ_TYPE_CODE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"error"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오류"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_GRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값에 대한 한글 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1676,7 +1712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1749,13 +1785,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1810,6 +1866,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1825,9 +1884,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1835,6 +1891,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2169,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
-  <dimension ref="B2:K247"/>
+  <dimension ref="B2:K248"/>
   <sheetViews>
-    <sheetView topLeftCell="B172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2191,16 +2256,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2240,15 +2305,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -3086,17 +3151,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3110,19 +3175,19 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="str">
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="str">
         <f>C6</f>
         <v>USER_ID</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
         <v>USER_ID</v>
@@ -3143,16 +3208,16 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
@@ -3192,15 +3257,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3480,17 +3545,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3504,19 +3569,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="23" t="str">
+      <c r="C48" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23" t="str">
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3537,16 +3602,16 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
@@ -3586,15 +3651,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3938,17 +4003,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -3962,19 +4027,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="23" t="str">
+      <c r="C65" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23" t="str">
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -3988,19 +4053,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="23" t="str">
+      <c r="C66" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23" t="str">
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4021,16 +4086,16 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
@@ -4070,15 +4135,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4296,17 +4361,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4320,19 +4385,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="23" t="str">
+      <c r="C79" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23" t="str">
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4353,16 +4418,16 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="21"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
@@ -4402,15 +4467,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4692,17 +4757,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22" t="s">
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4716,19 +4781,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="23" t="str">
+      <c r="C94" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23" t="str">
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4749,16 +4814,16 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="21"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
@@ -4798,15 +4863,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="21"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -5148,17 +5213,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="22" t="s">
+      <c r="C110" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22" t="s">
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5172,19 +5237,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="23" t="str">
+      <c r="C111" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23" t="str">
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5205,16 +5270,16 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="21"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
@@ -5254,15 +5319,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5664,17 +5729,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="22" t="s">
+      <c r="C129" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22" t="s">
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="22"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5688,19 +5753,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="23" t="str">
+      <c r="C130" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23" t="str">
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5721,16 +5786,16 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+      <c r="I132" s="21"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
@@ -5770,15 +5835,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="21"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6224,17 +6289,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="C149" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22" t="s">
+      <c r="D149" s="23"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G149" s="22"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6248,19 +6313,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="23" t="str">
+      <c r="C150" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23" t="str">
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="23"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6274,19 +6339,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="23" t="str">
+      <c r="C151" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="23"/>
-      <c r="F151" s="23" t="str">
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6307,16 +6372,16 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="21"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
@@ -6356,15 +6421,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-      <c r="I155" s="21"/>
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6488,17 +6553,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22" t="s">
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G160" s="22"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="22"/>
+      <c r="G160" s="23"/>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6512,19 +6577,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="23" t="str">
+      <c r="C161" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23" t="str">
+      <c r="D161" s="18"/>
+      <c r="E161" s="18"/>
+      <c r="F161" s="18" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6545,16 +6610,16 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="21"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
@@ -6594,15 +6659,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6947,17 +7012,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="22" t="s">
+      <c r="D177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G177" s="22"/>
-      <c r="H177" s="22"/>
-      <c r="I177" s="22"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="23"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -6971,19 +7036,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="23" t="str">
+      <c r="C178" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23" t="str">
+      <c r="D178" s="18"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="18" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="23"/>
+      <c r="G178" s="18"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="18"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7004,16 +7069,16 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="18" t="s">
+      <c r="B180" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="20"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="21"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
@@ -7053,15 +7118,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="21" t="s">
+      <c r="C182" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D182" s="21"/>
-      <c r="E182" s="21"/>
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-      <c r="I182" s="21"/>
+      <c r="D182" s="22"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="22"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7598,17 +7663,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22" t="s">
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G200" s="22"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="22"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7622,19 +7687,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="23" t="str">
+      <c r="C201" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="23"/>
-      <c r="E201" s="23"/>
-      <c r="F201" s="23" t="str">
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="23"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="23"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7655,16 +7720,16 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="18" t="s">
+      <c r="B203" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="19"/>
-      <c r="D203" s="19"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="19"/>
-      <c r="G203" s="19"/>
-      <c r="H203" s="19"/>
-      <c r="I203" s="20"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="21"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
@@ -7704,15 +7769,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="21" t="s">
+      <c r="C205" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="21"/>
-      <c r="H205" s="21"/>
-      <c r="I205" s="21"/>
+      <c r="D205" s="22"/>
+      <c r="E205" s="22"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="22"/>
+      <c r="H205" s="22"/>
+      <c r="I205" s="22"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -8025,17 +8090,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="22" t="s">
+      <c r="C216" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22" t="s">
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G216" s="22"/>
-      <c r="H216" s="22"/>
-      <c r="I216" s="22"/>
+      <c r="G216" s="23"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="23"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8049,19 +8114,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="23" t="str">
+      <c r="C217" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="23" t="str">
+      <c r="D217" s="18"/>
+      <c r="E217" s="18"/>
+      <c r="F217" s="18" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="23"/>
-      <c r="H217" s="23"/>
-      <c r="I217" s="23"/>
+      <c r="G217" s="18"/>
+      <c r="H217" s="18"/>
+      <c r="I217" s="18"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8082,16 +8147,16 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="19"/>
-      <c r="D219" s="19"/>
-      <c r="E219" s="19"/>
-      <c r="F219" s="19"/>
-      <c r="G219" s="19"/>
-      <c r="H219" s="19"/>
-      <c r="I219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="21"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
@@ -8131,15 +8196,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="21" t="s">
+      <c r="C221" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="D221" s="21"/>
-      <c r="E221" s="21"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="21"/>
-      <c r="H221" s="21"/>
-      <c r="I221" s="21"/>
+      <c r="D221" s="22"/>
+      <c r="E221" s="22"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="22"/>
+      <c r="H221" s="22"/>
+      <c r="I221" s="22"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8327,17 +8392,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="22" t="s">
+      <c r="C228" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22" t="s">
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G228" s="22"/>
-      <c r="H228" s="22"/>
-      <c r="I228" s="22"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8351,19 +8416,19 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="23" t="str">
+      <c r="C229" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="23"/>
-      <c r="E229" s="23"/>
-      <c r="F229" s="23" t="str">
+      <c r="D229" s="18"/>
+      <c r="E229" s="18"/>
+      <c r="F229" s="18" t="str">
         <f>C223</f>
         <v>USER_ID</v>
       </c>
-      <c r="G229" s="23"/>
-      <c r="H229" s="23"/>
-      <c r="I229" s="23"/>
+      <c r="G229" s="18"/>
+      <c r="H229" s="18"/>
+      <c r="I229" s="18"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
         <v>USER_ID</v>
@@ -8377,19 +8442,19 @@
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="23" t="str">
+      <c r="C230" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="23"/>
-      <c r="E230" s="23"/>
-      <c r="F230" s="23" t="str">
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="23"/>
-      <c r="H230" s="23"/>
-      <c r="I230" s="23"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8410,16 +8475,16 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="19"/>
-      <c r="D232" s="19"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="19"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-      <c r="I232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="21"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
@@ -8459,15 +8524,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="21" t="s">
+      <c r="C234" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="D234" s="21"/>
-      <c r="E234" s="21"/>
-      <c r="F234" s="21"/>
-      <c r="G234" s="21"/>
-      <c r="H234" s="21"/>
-      <c r="I234" s="21"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="22"/>
+      <c r="G234" s="22"/>
+      <c r="H234" s="22"/>
+      <c r="I234" s="22"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8582,13 +8647,13 @@
         <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="1" t="s">
@@ -8598,15 +8663,15 @@
         <v>107</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="J238" t="str">
         <f t="shared" ref="J238" si="32">_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
-        <v>, AUTH_CODE VARCHAR(10) NULL COMMENT '권한코드(01:읽기, 02:읽기/쓰기, 03:기타권한1, 04:기타권한2 ...)'</v>
+        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
       <c r="K238" t="str">
         <f t="shared" ref="K238" si="33">_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
-        <v>, AUTH_CODE VARCHAR(10) NULL COMMENT '권한코드(01:읽기, 02:읽기/쓰기, 03:기타권한1, 04:기타권한2 ...)'</v>
+        <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.4">
@@ -8614,31 +8679,31 @@
         <v>4</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>67</v>
+        <v>410</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>221</v>
+        <v>411</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>51</v>
+        <v>415</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>107</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="J239" t="str">
-        <f t="shared" ref="J239:J242" si="34">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+        <f t="shared" ref="J239" si="34">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
+        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
       <c r="K239" t="str">
-        <f t="shared" ref="K239:K242" si="35">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
+        <f t="shared" ref="K239" si="35">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
+        <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.4">
@@ -8646,31 +8711,31 @@
         <v>5</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="J240" t="str">
-        <f t="shared" si="34"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+        <f t="shared" ref="J240:J243" si="36">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
       <c r="K240" t="str">
-        <f t="shared" si="35"/>
-        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
+        <f t="shared" ref="K240:K243" si="37">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
+        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자아이디'</v>
       </c>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.4">
@@ -8678,31 +8743,31 @@
         <v>6</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="J241" t="str">
-        <f t="shared" ref="J241" si="36">_xlfn.CONCAT(IF(B241=1,"",", "),C241," ",E241," ",G241,IF(H241="",""," DEFAULT "),H241, " COMMENT '",I241,"'")</f>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+        <f t="shared" si="36"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
       <c r="K241" t="str">
-        <f t="shared" ref="K241" si="37">_xlfn.CONCAT(IF(B241=1,"",", "),C241," ",E241," ",G241,IF(H241="",""," DEFAULT "),H241, " COMMENT '",I241,"'")</f>
-        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+        <f t="shared" si="37"/>
+        <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.4">
@@ -8710,153 +8775,217 @@
         <v>7</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H242" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J242" t="str">
+        <f t="shared" ref="J242" si="38">_xlfn.CONCAT(IF(B242=1,"",", "),C242," ",E242," ",G242,IF(H242="",""," DEFAULT "),H242, " COMMENT '",I242,"'")</f>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+      <c r="K242" t="str">
+        <f t="shared" ref="K242" si="39">_xlfn.CONCAT(IF(B242=1,"",", "),C242," ",E242," ",G242,IF(H242="",""," DEFAULT "),H242, " COMMENT '",I242,"'")</f>
+        <v>, LT_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자아이디'</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B243" s="4">
+        <v>8</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F243" s="4"/>
+      <c r="G243" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H243" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I242" s="1" t="s">
+      <c r="I243" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J242" t="str">
-        <f t="shared" si="34"/>
+      <c r="J243" t="str">
+        <f t="shared" si="36"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
-      <c r="K242" t="str">
-        <f t="shared" si="35"/>
+      <c r="K243" t="str">
+        <f t="shared" si="37"/>
         <v>, LT_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J243" t="str">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J244" t="str">
         <f>_xlfn.CONCAT(") COMMENT '",E233,"';")</f>
         <v>) COMMENT '권한';</v>
       </c>
-      <c r="K243" t="str">
+      <c r="K244" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B244" s="6" t="s">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C244" s="22" t="s">
+      <c r="C245" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="D244" s="22"/>
-      <c r="E244" s="22"/>
-      <c r="F244" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G244" s="22"/>
-      <c r="H244" s="22"/>
-      <c r="I244" s="22"/>
-      <c r="J244" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C246," PRIMARY KEY (")</f>
-        <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
-      </c>
-      <c r="K244" t="str">
-        <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C246," PRIMARY KEY (")</f>
-        <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
-      </c>
-    </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B245" s="4">
-        <v>1</v>
-      </c>
-      <c r="C245" s="23" t="str">
-        <f>_xlfn.CONCAT("PK_",C233)</f>
-        <v>PK_TB_AUTH</v>
       </c>
       <c r="D245" s="23"/>
       <c r="E245" s="23"/>
-      <c r="F245" s="23" t="str">
-        <f>C236</f>
-        <v>MNU_SEQ</v>
+      <c r="F245" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="G245" s="23"/>
       <c r="H245" s="23"/>
       <c r="I245" s="23"/>
       <c r="J245" t="str">
-        <f>_xlfn.CONCAT(IF(B245=1,"",", "),F245)</f>
-        <v>MNU_SEQ</v>
+        <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
       <c r="K245" t="str">
-        <f>_xlfn.CONCAT(IF(B245=1,"",", "),F245)</f>
-        <v>MNU_SEQ</v>
+        <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
+        <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
       </c>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B246" s="4">
-        <v>2</v>
-      </c>
-      <c r="C246" s="23" t="str">
+        <v>1</v>
+      </c>
+      <c r="C246" s="18" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="23"/>
-      <c r="E246" s="23"/>
-      <c r="F246" s="23" t="str">
+      <c r="D246" s="18"/>
+      <c r="E246" s="18"/>
+      <c r="F246" s="18" t="str">
+        <f>C236</f>
+        <v>MNU_SEQ</v>
+      </c>
+      <c r="G246" s="18"/>
+      <c r="H246" s="18"/>
+      <c r="I246" s="18"/>
+      <c r="J246" t="str">
+        <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
+        <v>MNU_SEQ</v>
+      </c>
+      <c r="K246" t="str">
+        <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
+        <v>MNU_SEQ</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B247" s="4">
+        <v>2</v>
+      </c>
+      <c r="C247" s="18" t="str">
+        <f>_xlfn.CONCAT("PK_",C233)</f>
+        <v>PK_TB_AUTH</v>
+      </c>
+      <c r="D247" s="18"/>
+      <c r="E247" s="18"/>
+      <c r="F247" s="18" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G246" s="23"/>
-      <c r="H246" s="23"/>
-      <c r="I246" s="23"/>
-      <c r="J246" t="str">
-        <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
+      <c r="G247" s="18"/>
+      <c r="H247" s="18"/>
+      <c r="I247" s="18"/>
+      <c r="J247" t="str">
+        <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
       </c>
-      <c r="K246" t="str">
-        <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
+      <c r="K247" t="str">
+        <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
       </c>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J247" t="str">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J248" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
-      <c r="K247" t="str">
+      <c r="K248" t="str">
         <f>_xlfn.CONCAT(");")</f>
         <v>);</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C244:E244"/>
-    <mergeCell ref="F244:I244"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -8873,60 +9002,28 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8935,10 +9032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
-  <dimension ref="B2:AA84"/>
+  <dimension ref="B2:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView tabSelected="1" topLeftCell="K75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA93" sqref="AA93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8964,10 +9061,10 @@
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
@@ -9140,15 +9237,15 @@
       <c r="B12" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
@@ -9387,12 +9484,12 @@
       <c r="B19" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
@@ -9544,15 +9641,15 @@
       <c r="B26" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
@@ -9697,7 +9794,7 @@
       </c>
       <c r="K30" s="11"/>
       <c r="AA30" t="str">
-        <f t="shared" ref="AA30:AA40" si="3">_xlfn.CONCAT(IF(B30=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C30:Z30),")")</f>
+        <f t="shared" ref="AA30:AA46" si="3">_xlfn.CONCAT(IF(B30=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C30:Z30),")")</f>
         <v>,("LOGIN_CODE","01","로그인","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
@@ -9954,13 +10051,13 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>257</v>
@@ -9977,7 +10074,7 @@
       <c r="K39" s="11"/>
       <c r="AA39" t="str">
         <f t="shared" ref="AA39" si="4">_xlfn.CONCAT(IF(B39=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C39:Z39),")")</f>
-        <v>,("AUTH_CODE","01","읽기","N",1,"SYSTEM","SYSTEM")</v>
+        <v>,("REQ_TYPE_CODE","admin","관리자","N",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.4">
@@ -9985,13 +10082,13 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>257</v>
@@ -10007,143 +10104,194 @@
       </c>
       <c r="K40" s="11"/>
       <c r="AA40" t="str">
-        <f t="shared" si="3"/>
-        <v>,("AUTH_CODE","02","읽기/쓰기","N",2,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA40:AA45" si="5">_xlfn.CONCAT(IF(B40=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C40:Z40),")")</f>
+        <v>,("REQ_TYPE_CODE","info","정보","N",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA41" t="s">
-        <v>236</v>
+      <c r="B41" s="1">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="AA41" t="str">
+        <f t="shared" ref="AA41" si="6">_xlfn.CONCAT(IF(B41=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C41:Z41),")")</f>
+        <v>,("REQ_TYPE_CODE","user","사용자","N",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B42" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
+      <c r="B42" s="1">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="AA42" t="str">
+        <f t="shared" si="5"/>
+        <v>,("REQ_TYPE_CODE","board","게시판","N",4,"SYSTEM","SYSTEM")</v>
+      </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C42,";")</f>
-        <v>TRUNCATE TB_USER;</v>
+      <c r="B43" s="1">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="AA43" t="str">
+        <f t="shared" ref="AA43" si="7">_xlfn.CONCAT(IF(B43=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C43:Z43),")")</f>
+        <v>,("REQ_TYPE_CODE","market","장터","N",5,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B44" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
+      <c r="B44" s="1">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" s="1">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K44" s="11"/>
       <c r="AA44" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C42, "(", _xlfn.TEXTJOIN(",",TRUE,C43:Z43),") VALUES")</f>
-        <v>INSERT INTO TB_USER(USER_ID,USER_PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <f t="shared" si="5"/>
+        <v>,("REQ_TYPE_CODE","active","활동","N",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>264</v>
+        <v>405</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="1">
+        <v>7</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>231</v>
       </c>
       <c r="K45" s="11"/>
       <c r="AA45" t="str">
-        <f>_xlfn.CONCAT(IF(B45=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C45:Z45),")")</f>
-        <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="5"/>
+        <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>265</v>
+        <v>406</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G46" s="1">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>231</v>
       </c>
       <c r="K46" s="11"/>
       <c r="AA46" t="str">
-        <f>_xlfn.CONCAT(IF(B46=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C46:Z46),")")</f>
-        <v>,("user","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","SYSTEM","SYSTEM")</v>
+        <f t="shared" si="3"/>
+        <v>,("REQ_TYPE_CODE","error","오류","N",8,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.4">
@@ -10155,61 +10303,37 @@
       <c r="B48" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
+      <c r="C48" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B49" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>292</v>
+        <v>67</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>339</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
@@ -10221,7 +10345,7 @@
       <c r="Z49" s="13"/>
       <c r="AA49" s="14" t="str">
         <f>_xlfn.CONCAT("TRUNCATE ",C48,";")</f>
-        <v>TRUNCATE TB_MNU;</v>
+        <v>TRUNCATE TB_USER;</v>
       </c>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.4">
@@ -10229,41 +10353,24 @@
         <v>3</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>343</v>
+        <v>135</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>291</v>
+        <v>136</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>341</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
@@ -10275,7 +10382,7 @@
       <c r="Z50" s="13"/>
       <c r="AA50" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C48, "(", _xlfn.TEXTJOIN(",",TRUE,C49:Z49),") VALUES")</f>
-        <v>INSERT INTO TB_MNU(MNU_SEQ,MNU_URL,MNU_NM,MNU_TOP_URL,MNU_UPPER_URL,MNU_OPEN_YN,MNU_AUTH_YN,MNU_LEVEL,MNU_INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_USER(USER_ID,USER_PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.4">
@@ -10283,44 +10390,21 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1</v>
-      </c>
-      <c r="M51" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="K51" s="11"/>
       <c r="AA51" t="str">
-        <f t="shared" ref="AA51:AA59" si="5">_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
-        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
+        <f>_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
+        <v>("admin","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.4">
@@ -10328,244 +10412,173 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>363</v>
+        <v>265</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J52" s="1">
-        <v>2</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L52" s="1">
+        <v>231</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="AA52" t="str">
+        <f>_xlfn.CONCAT(IF(B52=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C52:Z52),")")</f>
+        <v>,("user","SXRLcrGA1f5nK8A5cvZICY86tW2d/Rekkm3lrWEgqJU=","SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B54" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA52" t="str">
-        <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B53" s="1">
+      <c r="C55" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C54,";")</f>
+        <v>TRUNCATE TB_MNU;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B56" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J53" s="1">
-        <v>2</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="L53" s="1">
-        <v>2</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA53" t="str">
-        <f t="shared" ref="AA53" si="6">_xlfn.CONCAT(IF(B53=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C53:Z53),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B54" s="1">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J54" s="1">
-        <v>2</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="L54" s="1">
-        <v>3</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA54" t="str">
-        <f>_xlfn.CONCAT(IF(B54=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C54:Z54),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B55" s="1">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J55" s="1">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L55" s="1">
-        <v>2</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA55" t="str">
-        <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
-      </c>
-    </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B56" s="1">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J56" s="1">
-        <v>1</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L56" s="1">
-        <v>3</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="C56" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
       <c r="AA56" t="str">
-        <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
+        <f>_xlfn.CONCAT("INSERT INTO ",C54, "(", _xlfn.TEXTJOIN(",",TRUE,C55:Z55),") VALUES")</f>
+        <v>INSERT INTO TB_MNU(MNU_SEQ,MNU_URL,MNU_NM,MNU_TOP_URL,MNU_UPPER_URL,MNU_OPEN_YN,MNU_AUTH_YN,MNU_LEVEL,MNU_INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>299</v>
@@ -10577,10 +10590,10 @@
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L57" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>231</v>
@@ -10589,28 +10602,28 @@
         <v>231</v>
       </c>
       <c r="AA57" t="str">
-        <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA57:AA65" si="8">_xlfn.CONCAT(IF(B57=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C57:Z57),")")</f>
+        <v>((SELECT nextval('MNU_SEQ') FROM DUAL),"admin","관리자","admin/adminHome","admin","Y","Y",1,"관리자 관련 대메뉴",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>299</v>
@@ -10619,13 +10632,13 @@
         <v>299</v>
       </c>
       <c r="J58" s="1">
+        <v>2</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L58" s="1">
         <v>1</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="L58" s="1">
-        <v>5</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>231</v>
@@ -10634,28 +10647,28 @@
         <v>231</v>
       </c>
       <c r="AA58" t="str">
-        <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="8"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 환황을 조회할 수 있는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>299</v>
@@ -10664,13 +10677,13 @@
         <v>299</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="L59" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>231</v>
@@ -10679,34 +10692,34 @@
         <v>231</v>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" si="5"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
+        <f t="shared" ref="AA59" si="9">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>259</v>
+        <v>403</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>299</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="J60" s="1">
         <v>2</v>
@@ -10715,7 +10728,7 @@
         <v>404</v>
       </c>
       <c r="L60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>231</v>
@@ -10724,31 +10737,31 @@
         <v>231</v>
       </c>
       <c r="AA60" t="str">
-        <f t="shared" ref="AA60:AA62" si="7">_xlfn.CONCAT(IF(B60=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C60:Z60),")")</f>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f>_xlfn.CONCAT(IF(B60=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C60:Z60),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>299</v>
@@ -10757,10 +10770,10 @@
         <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="L61" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>231</v>
@@ -10769,43 +10782,43 @@
         <v>231</v>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="7"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="8"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"board","게시판","board","board","Y","Y",1,"게시판 관련 대메뉴",2,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="62" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>345</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="J62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="L62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>231</v>
@@ -10814,310 +10827,467 @@
         <v>231</v>
       </c>
       <c r="AA62" t="str">
-        <f t="shared" si="7"/>
-        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+        <f t="shared" si="8"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"market","장터","market","market","Y","Y",1,"장터 관련 대메뉴",3,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA63" t="s">
-        <v>236</v>
+      <c r="B63" s="1">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L63" s="1">
+        <v>4</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA63" t="str">
+        <f t="shared" si="8"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"active","활동","active","active","Y","Y",1,"활동 관련 대메뉴",4,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="64" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B64" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
+      <c r="B64" s="1">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L64" s="1">
+        <v>5</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA64" t="str">
+        <f t="shared" si="8"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"sitter","베이비시터","sitter","sitter","Y","Y",1,"베이비시터 관련 대메뉴",5,"SYSTEM","SYSTEM")</v>
+      </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="1">
+        <v>9</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J65" s="1">
         <v>1</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
-      <c r="AA65" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C64,";")</f>
-        <v>TRUNCATE TB_ROLE;</v>
+      <c r="K65" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L65" s="1">
+        <v>6</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA65" t="str">
+        <f t="shared" si="8"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info","정보","info/notice","info","Y","Y",1,"정보 관련 대메뉴",6,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B66" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="13"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
+      <c r="B66" s="1">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J66" s="1">
+        <v>2</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="AA66" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C64, "(", _xlfn.TEXTJOIN(",",TRUE,C65:Z65),") VALUES")</f>
-        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,FST_REG_ID) VALUES</v>
+        <f t="shared" ref="AA66:AA68" si="10">_xlfn.CONCAT(IF(B66=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C66:Z66),")")</f>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"info/notice","공지사항","info/notice","info","Y","N",2,"공지사항 목록을 조회하는 메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J67" s="1">
         <v>1</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="K67" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L67" s="1">
+        <v>7</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="N67" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA71" si="8">_xlfn.CONCAT(IF(B67=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C67:Z67),")")</f>
-        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"SYSTEM")</v>
+        <f t="shared" si="10"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user","사용자","user/signUp","user","N","Y",1,"사용자 관련 대메뉴",7,"SYSTEM","SYSTEM")</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J68" s="1">
         <v>2</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="K68" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA68" t="str">
+        <f t="shared" si="10"/>
+        <v>,((SELECT nextval('MNU_SEQ') FROM DUAL),"user/signUp","회원가입","user/signUp","user","N","N",2,"신규 사용자의 회원가입을 위한  메뉴입니다.",1,"SYSTEM","SYSTEM")</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B70" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B71" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C70,";")</f>
+        <v>TRUNCATE TB_ROLE;</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B72" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C70, "(", _xlfn.TEXTJOIN(",",TRUE,C71:Z71),") VALUES")</f>
+        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,FST_REG_ID) VALUES</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D68" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D73" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA73" t="str">
+        <f t="shared" ref="AA73:AA77" si="11">_xlfn.CONCAT(IF(B73=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C73:Z73),")")</f>
+        <v>((SELECT nextval('ROLE_SEQ') FROM DUAL),"사용자",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B74" s="1">
         <v>2</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA68" t="str">
-        <f t="shared" ref="AA68" si="9">_xlfn.CONCAT(IF(B68=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C68:Z68),")")</f>
+      <c r="AA74" t="str">
+        <f t="shared" ref="AA74" si="12">_xlfn.CONCAT(IF(B74=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C74:Z74),")")</f>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"게스트",2,"SYSTEM")</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B69" s="1">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B75" s="1">
         <v>2</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E75" s="1">
         <v>3</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA69" t="str">
-        <f t="shared" si="8"/>
+      <c r="AA75" t="str">
+        <f t="shared" si="11"/>
         <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"관리자",3,"SYSTEM")</v>
-      </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B70" s="1">
-        <v>3</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E70" s="1">
-        <v>4</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA70" t="str">
-        <f t="shared" si="8"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"SYSTEM")</v>
-      </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B71" s="1">
-        <v>4</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E71" s="1">
-        <v>5</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA71" t="str">
-        <f t="shared" si="8"/>
-        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"SYSTEM")</v>
-      </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="AA72" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B73" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B74" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C73,";")</f>
-        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
-      </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B75" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
-      <c r="AA75" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C73, "(", _xlfn.TEXTJOIN(",",TRUE,C74:Z74),") VALUES")</f>
-        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D76" s="8">
-        <v>3</v>
-      </c>
-      <c r="E76" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>231</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" ref="AA76" si="10">_xlfn.CONCAT(IF(B76=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C76:Z76),")")</f>
-        <v>("admin",3,"SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"시터",4,"SYSTEM")</v>
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D77" s="8">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>231</v>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" ref="AA77" si="11">_xlfn.CONCAT(IF(B77=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C77:Z77),")")</f>
-        <v>,("user",1,"SYSTEM")</v>
+        <f t="shared" si="11"/>
+        <v>,((SELECT nextval('ROLE_SEQ') FROM DUAL),"판매기업",5,"SYSTEM")</v>
       </c>
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.4">
@@ -11126,35 +11296,27 @@
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
+      <c r="C79" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D80" s="17" t="s">
+      <c r="C80" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="E80" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="F80" s="17" t="s">
+      <c r="E80" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>339</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
@@ -11171,27 +11333,21 @@
       <c r="Z80" s="13"/>
       <c r="AA80" s="14" t="str">
         <f>_xlfn.CONCAT("TRUNCATE ",C79,";")</f>
-        <v>TRUNCATE TB_AUTH;</v>
+        <v>TRUNCATE TB_USER_ROLE_MAP;</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D81" s="17" t="s">
+      <c r="C81" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="F81" s="17" t="s">
+      <c r="E81" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>341</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -11207,8 +11363,8 @@
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
       <c r="AA81" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C79, "(", _xlfn.TEXTJOIN(",",TRUE,C80:Z80),")")</f>
-        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_CODE,FST_REG_ID,LT_UPD_ID)</v>
+        <f>_xlfn.CONCAT("INSERT INTO ",C79, "(", _xlfn.TEXTJOIN(",",TRUE,C80:Z80),") VALUES")</f>
+        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.4">
@@ -11216,23 +11372,17 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="D82" s="8">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F82" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="AA82" t="str">
-        <f>_xlfn.CONCAT(IF(B82&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C82:Z82)," FROM ", $C$84)</f>
-        <v>SELECT MNU_SEQ,3,"02","SYSTEM","SYSTEM" FROM TB_MNU</v>
+        <f t="shared" ref="AA82" si="13">_xlfn.CONCAT(IF(B82=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C82:Z82),")")</f>
+        <v>("admin",3,"SYSTEM")</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.4">
@@ -11240,58 +11390,205 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F83" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="AA83" t="str">
+        <f t="shared" ref="AA83" si="14">_xlfn.CONCAT(IF(B83=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C83:Z83),")")</f>
+        <v>,("user",1,"SYSTEM")</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="AA84" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B85" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B86" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="13"/>
+      <c r="Z86" s="13"/>
+      <c r="AA86" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C85,";")</f>
+        <v>TRUNCATE TB_AUTH;</v>
+      </c>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B87" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+      <c r="AA87" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ",C85, "(", _xlfn.TEXTJOIN(",",TRUE,C86:Z86),")")</f>
+        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_ID,LT_UPD_ID)</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" s="8">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA83" t="str">
-        <f>_xlfn.CONCAT(IF(B83&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C83:Z83)," FROM ", $C$84)</f>
-        <v>UNION ALL SELECT MNU_SEQ,1,"01","SYSTEM","SYSTEM" FROM TB_MNU</v>
-      </c>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.4">
-      <c r="B84" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="C84" s="23" t="s">
+      <c r="H88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA88" t="str">
+        <f>_xlfn.CONCAT(IF(B88&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C88:Z88)," FROM ", $C$90)</f>
+        <v>SELECT MNU_SEQ,3,2,"읽기/쓰기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B89" s="1">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA89" t="str">
+        <f>_xlfn.CONCAT(IF(B89&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C89:Z89)," FROM ", $C$90)</f>
+        <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기","SYSTEM","SYSTEM" FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.4">
+      <c r="B90" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="AA84" t="str">
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="AA90" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C48:F48"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C48:N48"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C90:H90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B51:N62">
+  <conditionalFormatting sqref="B57:N68">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$J51 = 1</formula>
+      <formula>$J57 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11300,10 +11597,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5559C8C-0933-46B2-8E0D-87FBB4FA36A4}">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11483,6 +11780,22 @@
       </c>
       <c r="G10" s="1"/>
     </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
+++ b/산출물/HelloPapang_테이블 명세서_V0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36F5D4F-D08A-4C26-9290-025A47A84238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C241CC5E-5CBB-47F5-B73A-FD79E947C4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="410">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,13 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
   </si>
   <si>
@@ -216,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -367,58 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_BIRTH_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_PHONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ADDR_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ADDR_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_BANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_SIGNUP_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_GENDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_MAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_PIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>'1'</t>
   </si>
   <si>
@@ -475,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CODE_DETAIL_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_ORDER</t>
   </si>
   <si>
@@ -500,9 +433,6 @@
     <t>LOGIN_DTTI</t>
   </si>
   <si>
-    <t>USER_IP</t>
-  </si>
-  <si>
     <t>LOGIN_CODE</t>
   </si>
   <si>
@@ -592,22 +522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOTICE_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTICE_CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTICE_HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTICE_POP_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>~여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,14 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOTICE_STR_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTICE_END_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항게시시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,22 +605,10 @@
     <t>파일명</t>
   </si>
   <si>
-    <t>FREE_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FREE_CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FREE_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FREE_HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOARD_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,13 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CODE_MODIFY_YN</t>
-  </si>
-  <si>
-    <t>CODE_MODIFY_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드수정가능여부</t>
   </si>
   <si>
@@ -1062,18 +949,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REQ_URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요청경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REQ_PARAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요청파라미터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1118,10 +997,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNU_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1146,10 +1021,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNU_OPEN_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴노출여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1158,42 +1029,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNU_AUTH_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNU_TOP_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNU_UPPER_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권한체크여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNU_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNU_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNU_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴표시순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1214,10 +1061,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNU_RMRK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1230,18 +1073,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POLI_RMRK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정책비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_RMRK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1302,10 +1137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CODE_RMRK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1470,10 +1301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROLE_ORDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권한그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1482,10 +1309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROLE_RMRK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권한그룹비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1627,6 +1450,123 @@
   </si>
   <si>
     <t>권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>PW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIRTH_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>ADDR_1</t>
+  </si>
+  <si>
+    <t>ADDR_2</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>SIGNUP_DT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>RMRK</t>
+  </si>
+  <si>
+    <t>MODIFY_YN</t>
+  </si>
+  <si>
+    <t>DETAIL_ORDER</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>TOP_URL</t>
+  </si>
+  <si>
+    <t>UPPER_URL</t>
+  </si>
+  <si>
+    <t>OPEN_YN</t>
+  </si>
+  <si>
+    <t>AUTH_YN</t>
+  </si>
+  <si>
+    <t>LEVEL</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>STR_DT</t>
+  </si>
+  <si>
+    <t>END_DT</t>
+  </si>
+  <si>
+    <t>POP_YN</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1811,7 +1751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1866,9 +1806,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1884,6 +1821,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,9 +1832,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2226,7 +2163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2236,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:K248"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2256,16 +2193,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2305,15 +2242,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -2362,31 +2299,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="J6" t="str">
         <f>_xlfn.CONCAT(IF(B6=1,"",", "),C6," ",E6," ",G6,IF(H6="",""," DEFAULT "),H6, " COMMENT '",I6,"'")</f>
-        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+        <v>ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K6" t="str">
         <f>_xlfn.CONCAT(IF(B6=1,"",", "),C6," ",E6," ",G6,IF(H6="",""," DEFAULT "),H6, " COMMENT '",I6,"'")</f>
-        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+        <v>ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -2394,29 +2331,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ref="J7:J30" si="0">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
-        <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
+        <v>, PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" ref="K7:K30" si="1">_xlfn.CONCAT(IF(B7=1,"",", "),C7," ",E7," ",G7,IF(H7="",""," DEFAULT "),H7, " COMMENT '",I7,"'")</f>
-        <v>, USER_PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
+        <v>, PW VARCHAR(50) NULL COMMENT '사용자비밀번호'</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -2424,29 +2361,29 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>377</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
+        <v>, NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_NAME VARCHAR(30) NULL COMMENT '이름'</v>
+        <v>, NAME VARCHAR(30) NULL COMMENT '이름'</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -2454,29 +2391,29 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>378</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
+        <v>, BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
+        <v>, BIRTH_DT VARCHAR(8) NULL COMMENT '생년월일'</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -2484,29 +2421,29 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
+        <v>, PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
+        <v>, PHONE VARCHAR(11) NULL COMMENT '연락처_01000000000'</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -2514,29 +2451,29 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>380</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_POST VARCHAR(20) NULL COMMENT '우편번호'</v>
+        <v>, POST VARCHAR(20) NULL COMMENT '우편번호'</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_POST VARCHAR(20) NULL COMMENT '우편번호'</v>
+        <v>, POST VARCHAR(20) NULL COMMENT '우편번호'</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -2544,29 +2481,29 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
+        <v>, ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
+        <v>, ADDR_1 VARCHAR(300) NULL COMMENT '상세주소1'</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -2574,29 +2511,29 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>382</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
+        <v>, ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
+        <v>, ADDR_2 VARCHAR(300) NULL COMMENT '상세주소2'</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
@@ -2604,29 +2541,29 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>383</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
+        <v>, BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
+        <v>, BANK VARCHAR(50) NULL COMMENT '계좌은행'</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -2634,29 +2571,29 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>384</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_ACCOUNT VARCHAR(50) NULL COMMENT '계좌번호'</v>
+        <v>, ACCOUNT VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_ACCOUNT VARCHAR(50) NULL COMMENT '계좌번호'</v>
+        <v>, ACCOUNT VARCHAR(50) NULL COMMENT '계좌번호'</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -2664,29 +2601,29 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
+        <v>, SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
+        <v>, SIGNUP_DT VARCHAR(8) NULL COMMENT '가입일'</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
@@ -2694,31 +2631,31 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
+        <v>, STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
+        <v>, STATUS VARCHAR(2) NULL DEFAULT '1' COMMENT '상태(01:활동중,02:정지,03:탈퇴)'</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
@@ -2726,31 +2663,31 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
+        <v>, GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
+        <v>, GENDER VARCHAR(1) NULL COMMENT '성별(1:남,2:여)'</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
@@ -2758,31 +2695,31 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
+        <v>, MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
+        <v>, MAIL VARCHAR(50) NULL COMMENT '이메일'</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
@@ -2790,31 +2727,31 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_PIC VARCHAR(200) NULL COMMENT '사진'</v>
+        <v>, PIC VARCHAR(200) NULL COMMENT '사진'</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_PIC VARCHAR(200) NULL COMMENT '사진'</v>
+        <v>, PIC VARCHAR(200) NULL COMMENT '사진'</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
@@ -2822,23 +2759,23 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -2854,31 +2791,31 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>, USER_RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>, USER_RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '사용자비고'</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -2886,23 +2823,23 @@
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -2918,23 +2855,23 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -2950,23 +2887,23 @@
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -2982,23 +2919,23 @@
         <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -3014,23 +2951,23 @@
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
@@ -3046,23 +2983,23 @@
         <v>23</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
@@ -3078,23 +3015,23 @@
         <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -3110,23 +3047,23 @@
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
@@ -3151,17 +3088,17 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="C32" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C3," ADD CONSTRAINT ",C33," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER ADD CONSTRAINT PK_TB_USER PRIMARY KEY (</v>
@@ -3175,26 +3112,26 @@
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="18" t="str">
+      <c r="C33" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C3)</f>
         <v>PK_TB_USER</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="str">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="str">
         <f>C6</f>
-        <v>USER_ID</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+        <v>ID</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="J33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
-        <v>USER_ID</v>
+        <v>ID</v>
       </c>
       <c r="K33" t="str">
         <f>_xlfn.CONCAT(IF(B33=1,"",", "),F33)</f>
-        <v>USER_ID</v>
+        <v>ID</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
@@ -3208,29 +3145,29 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>29</v>
@@ -3257,15 +3194,15 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
+      <c r="C37" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C36)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -3314,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>25</v>
@@ -3326,11 +3263,11 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J39" t="str">
         <f>_xlfn.CONCAT(IF(B39=1,"",", "),C39," ",E39," ",G39,IF(H39="",""," DEFAULT "),H39, " COMMENT '",I39,"'")</f>
@@ -3346,21 +3283,21 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" ref="J40:J45" si="2">_xlfn.CONCAT(IF(B40=1,"",", "),C40," ",E40," ",G40,IF(H40="",""," DEFAULT "),H40, " COMMENT '",I40,"'")</f>
@@ -3376,31 +3313,31 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="2"/>
-        <v>, CODE_RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
-        <v>, CODE_RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '코드비고'</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.4">
@@ -3408,23 +3345,23 @@
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="2"/>
@@ -3440,23 +3377,23 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="2"/>
@@ -3472,23 +3409,23 @@
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="2"/>
@@ -3504,23 +3441,23 @@
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="2"/>
@@ -3545,17 +3482,17 @@
       <c r="B47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="C47" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
       <c r="J47" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C36," ADD CONSTRAINT ",C48," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -3569,19 +3506,19 @@
       <c r="B48" s="4">
         <v>1</v>
       </c>
-      <c r="C48" s="18" t="str">
+      <c r="C48" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C36)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18" t="str">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23" t="str">
         <f>C39</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
       <c r="J48" t="str">
         <f>_xlfn.CONCAT(IF(B48=1,"",", "),F48)</f>
         <v>CODE_GROUP</v>
@@ -3602,29 +3539,29 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B51" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>29</v>
@@ -3651,15 +3588,15 @@
       <c r="B52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
+      <c r="C52" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
       <c r="J52" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C51)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -3708,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>25</v>
@@ -3720,11 +3657,11 @@
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J54" t="str">
         <f>_xlfn.CONCAT(IF(B54=1,"",", "),C54," ",E54," ",G54,IF(H54="",""," DEFAULT "),H54, " COMMENT '",I54,"'")</f>
@@ -3740,10 +3677,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>24</v>
@@ -3752,11 +3689,11 @@
         <v>2</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" ref="J55:J62" si="4">_xlfn.CONCAT(IF(B55=1,"",", "),C55," ",E55," ",G55,IF(H55="",""," DEFAULT "),H55, " COMMENT '",I55,"'")</f>
@@ -3772,23 +3709,23 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="4"/>
@@ -3804,29 +3741,29 @@
         <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>254</v>
+        <v>391</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="4"/>
-        <v>, CODE_MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
+        <v>, MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="5"/>
-        <v>, CODE_MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
+        <v>, MODIFY_YN CHAR(1) NULL COMMENT '코드수정가능여부'</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.4">
@@ -3834,31 +3771,31 @@
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="J58" t="str">
         <f>_xlfn.CONCAT(IF(B58=1,"",", "),C58," ",E58," ",G58,IF(H58="",""," DEFAULT "),H58, " COMMENT '",I58,"'")</f>
-        <v>, CODE_DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
+        <v>, DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="5"/>
-        <v>, CODE_DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
+        <v>, DETAIL_ORDER INT(2) NULL COMMENT '코드상세정렬순서'</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.4">
@@ -3866,23 +3803,23 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="4"/>
@@ -3898,23 +3835,23 @@
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="4"/>
@@ -3930,23 +3867,23 @@
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="4"/>
@@ -3962,23 +3899,23 @@
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="4"/>
@@ -4003,17 +3940,17 @@
       <c r="B64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
+      <c r="C64" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
       <c r="J64" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C51," ADD CONSTRAINT ",C65," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4027,19 +3964,19 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="18" t="str">
+      <c r="C65" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18" t="str">
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23" t="str">
         <f>C54</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
       <c r="J65" t="str">
         <f>_xlfn.CONCAT(IF(B65=1,"",", "),F65)</f>
         <v>CODE_GROUP</v>
@@ -4053,19 +3990,19 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="18" t="str">
+      <c r="C66" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C51)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18" t="str">
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23" t="str">
         <f>C55</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
       <c r="J66" t="str">
         <f>_xlfn.CONCAT(IF(B66=1,"",", "),F66)</f>
         <v>, CODE_DETAIL</v>
@@ -4086,29 +4023,29 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="20"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B69" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>29</v>
@@ -4135,15 +4072,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
+      <c r="C70" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4192,23 +4129,23 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="J72" t="str">
         <f>_xlfn.CONCAT(IF(B72=1,"",", "),C72," ",E72," ",G72,IF(H72="",""," DEFAULT "),H72, " COMMENT '",I72,"'")</f>
@@ -4224,23 +4161,23 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" ref="J73:J76" si="6">_xlfn.CONCAT(IF(B73=1,"",", "),C73," ",E73," ",G73,IF(H73="",""," DEFAULT "),H73, " COMMENT '",I73,"'")</f>
@@ -4256,31 +4193,31 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="6"/>
-        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <v>, ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="7"/>
-        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <v>, ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.4">
@@ -4288,31 +4225,31 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>129</v>
+        <v>393</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="6"/>
-        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
+        <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="7"/>
-        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
+        <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.4">
@@ -4320,23 +4257,23 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" si="6"/>
@@ -4361,17 +4298,17 @@
       <c r="B78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
+      <c r="C78" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
       <c r="J78" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C69," ADD CONSTRAINT ",C79," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_LOGIN ADD CONSTRAINT PK_TB_LOG_LOGIN PRIMARY KEY (</v>
@@ -4385,19 +4322,19 @@
       <c r="B79" s="4">
         <v>1</v>
       </c>
-      <c r="C79" s="18" t="str">
+      <c r="C79" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C69)</f>
         <v>PK_TB_LOG_LOGIN</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18" t="str">
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23" t="str">
         <f>C72</f>
         <v>LOGIN_SEQ</v>
       </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
       <c r="J79" t="str">
         <f>_xlfn.CONCAT(IF(B79=1,"",", "),F79)</f>
         <v>LOGIN_SEQ</v>
@@ -4418,29 +4355,29 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="21"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>29</v>
@@ -4467,15 +4404,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
+      <c r="C83" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -4524,23 +4461,23 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="J85" t="str">
         <f>_xlfn.CONCAT(IF(B85=1,"",", "),C85," ",E85," ",G85,IF(H85="",""," DEFAULT "),H85, " COMMENT '",I85,"'")</f>
@@ -4556,23 +4493,23 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" ref="J86:J91" si="8">_xlfn.CONCAT(IF(B86=1,"",", "),C86," ",E86," ",G86,IF(H86="",""," DEFAULT "),H86, " COMMENT '",I86,"'")</f>
@@ -4588,31 +4525,31 @@
         <v>3</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="8"/>
-        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <v>, ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="9"/>
-        <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
+        <v>, ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.4">
@@ -4620,31 +4557,31 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>129</v>
+        <v>393</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="8"/>
-        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
+        <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="9"/>
-        <v>, USER_IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
+        <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.4">
@@ -4652,31 +4589,31 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>276</v>
+        <v>408</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" ref="J89:J90" si="10">_xlfn.CONCAT(IF(B89=1,"",", "),C89," ",E89," ",G89,IF(H89="",""," DEFAULT "),H89, " COMMENT '",I89,"'")</f>
-        <v>, REQ_URI VARCHAR(100) NULL COMMENT '요청경로'</v>
+        <v>, URI VARCHAR(100) NULL COMMENT '요청경로'</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" ref="K89:K90" si="11">_xlfn.CONCAT(IF(B89=1,"",", "),C89," ",E89," ",G89,IF(H89="",""," DEFAULT "),H89, " COMMENT '",I89,"'")</f>
-        <v>, REQ_URI VARCHAR(100) NULL COMMENT '요청경로'</v>
+        <v>, URI VARCHAR(100) NULL COMMENT '요청경로'</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.4">
@@ -4684,31 +4621,31 @@
         <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>278</v>
+        <v>409</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="10"/>
-        <v>, REQ_PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
+        <v>, PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="11"/>
-        <v>, REQ_PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
+        <v>, PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.4">
@@ -4716,23 +4653,23 @@
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" si="8"/>
@@ -4757,17 +4694,17 @@
       <c r="B93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
+      <c r="C93" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
       <c r="J93" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C82," ADD CONSTRAINT ",C94," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_LOG_REQ ADD CONSTRAINT PK_TB_LOG_REQ PRIMARY KEY (</v>
@@ -4781,19 +4718,19 @@
       <c r="B94" s="4">
         <v>1</v>
       </c>
-      <c r="C94" s="18" t="str">
+      <c r="C94" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C82)</f>
         <v>PK_TB_LOG_REQ</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18" t="str">
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23" t="str">
         <f>C85</f>
         <v>REQ_SEQ</v>
       </c>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
       <c r="J94" t="str">
         <f>_xlfn.CONCAT(IF(B94=1,"",", "),F94)</f>
         <v>REQ_SEQ</v>
@@ -4814,29 +4751,29 @@
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="21"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="20"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B97" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>29</v>
@@ -4863,15 +4800,15 @@
       <c r="B98" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
+      <c r="C98" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
       <c r="J98" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C97)</f>
         <v>CREATE TABLE TB_BOARD_FREE</v>
@@ -4920,25 +4857,25 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F100" s="4">
         <v>1</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J100" t="str">
         <f>_xlfn.CONCAT(IF(B100=1,"",", "),C100," ",E100," ",G100,IF(H100="",""," DEFAULT "),H100, " COMMENT '",I100,"'")</f>
@@ -4954,29 +4891,29 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>183</v>
+        <v>402</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" ref="J101:J108" si="12">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
-        <v>, FREE_TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
+        <v>, TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" ref="K101:K108" si="13">_xlfn.CONCAT(IF(B101=1,"",", "),C101," ",E101," ",G101,IF(H101="",""," DEFAULT "),H101, " COMMENT '",I101,"'")</f>
-        <v>, FREE_TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
+        <v>, TITLE VARCHAR(300) NULL COMMENT '자유게시판제목'</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.4">
@@ -4984,29 +4921,29 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>184</v>
+        <v>403</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="12"/>
-        <v>, FREE_CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
+        <v>, CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="13"/>
-        <v>, FREE_CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
+        <v>, CN LONGTEXT NULL COMMENT '자유게시판내용'</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.4">
@@ -5014,21 +4951,21 @@
         <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="12"/>
@@ -5044,31 +4981,31 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>186</v>
+        <v>407</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H104" s="1">
         <v>0</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="12"/>
-        <v>, FREE_HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
+        <v>, HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" si="13"/>
-        <v>, FREE_HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
+        <v>, HIT INT NULL DEFAULT 0 COMMENT '자유게시판조회수'</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.4">
@@ -5076,23 +5013,23 @@
         <v>6</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="12"/>
@@ -5108,23 +5045,23 @@
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J106" t="str">
         <f t="shared" si="12"/>
@@ -5140,23 +5077,23 @@
         <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J107" t="str">
         <f t="shared" si="12"/>
@@ -5172,23 +5109,23 @@
         <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J108" t="str">
         <f t="shared" si="12"/>
@@ -5213,17 +5150,17 @@
       <c r="B110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
+      <c r="C110" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
       <c r="J110" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C97," ADD CONSTRAINT ",C111," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_FREE ADD CONSTRAINT PK_TB_BOARD_FREE PRIMARY KEY (</v>
@@ -5237,19 +5174,19 @@
       <c r="B111" s="4">
         <v>1</v>
       </c>
-      <c r="C111" s="18" t="str">
+      <c r="C111" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C97)</f>
         <v>PK_TB_BOARD_FREE</v>
       </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18" t="str">
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23" t="str">
         <f>C100</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
       <c r="J111" t="str">
         <f>_xlfn.CONCAT(IF(B111=1,"",", "),F111)</f>
         <v>BOARD_SEQ</v>
@@ -5270,29 +5207,29 @@
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="21"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="20"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B114" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>29</v>
@@ -5319,15 +5256,15 @@
       <c r="B115" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
+      <c r="C115" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C114)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5376,25 +5313,25 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J117" t="str">
         <f>_xlfn.CONCAT(IF(B117=1,"",", "),C117," ",E117," ",G117,IF(H117="",""," DEFAULT "),H117, " COMMENT '",I117,"'")</f>
@@ -5410,29 +5347,29 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>154</v>
+        <v>402</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="J118" t="str">
         <f t="shared" ref="J118:J127" si="14">_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
-        <v>, NOTICE_TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
+        <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
       </c>
       <c r="K118" t="str">
         <f t="shared" ref="K118:K127" si="15">_xlfn.CONCAT(IF(B118=1,"",", "),C118," ",E118," ",G118,IF(H118="",""," DEFAULT "),H118, " COMMENT '",I118,"'")</f>
-        <v>, NOTICE_TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
+        <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.4">
@@ -5440,29 +5377,29 @@
         <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>155</v>
+        <v>403</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F119" s="4"/>
       <c r="G119" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J119" t="str">
         <f t="shared" si="14"/>
-        <v>, NOTICE_CN LONGTEXT NULL COMMENT '공지사항내용'</v>
+        <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
       </c>
       <c r="K119" t="str">
         <f t="shared" si="15"/>
-        <v>, NOTICE_CN LONGTEXT NULL COMMENT '공지사항내용'</v>
+        <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.4">
@@ -5470,29 +5407,29 @@
         <v>4</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>167</v>
+        <v>404</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="J120" t="str">
         <f t="shared" si="14"/>
-        <v>, NOTICE_STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
+        <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
       </c>
       <c r="K120" t="str">
         <f t="shared" si="15"/>
-        <v>, NOTICE_STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
+        <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.4">
@@ -5500,29 +5437,29 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>168</v>
+        <v>405</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="J121" t="str">
         <f t="shared" si="14"/>
-        <v>, NOTICE_END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
+        <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" si="15"/>
-        <v>, NOTICE_END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
+        <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.4">
@@ -5530,29 +5467,29 @@
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>157</v>
+        <v>406</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="J122" t="str">
         <f t="shared" si="14"/>
-        <v>, NOTICE_POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
+        <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
       </c>
       <c r="K122" t="str">
         <f t="shared" si="15"/>
-        <v>, NOTICE_POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
+        <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.4">
@@ -5560,31 +5497,31 @@
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>156</v>
+        <v>407</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H123" s="1">
         <v>0</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="J123" t="str">
         <f t="shared" si="14"/>
-        <v>, NOTICE_HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
+        <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
       </c>
       <c r="K123" t="str">
         <f t="shared" si="15"/>
-        <v>, NOTICE_HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
+        <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.4">
@@ -5592,23 +5529,23 @@
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" si="14"/>
@@ -5624,23 +5561,23 @@
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="14"/>
@@ -5656,23 +5593,23 @@
         <v>10</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J126" t="str">
         <f t="shared" si="14"/>
@@ -5688,23 +5625,23 @@
         <v>11</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J127" t="str">
         <f t="shared" si="14"/>
@@ -5729,17 +5666,17 @@
       <c r="B129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C129" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
+      <c r="C129" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
       <c r="J129" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C114," ADD CONSTRAINT ",C130," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BOARD_NOTICE ADD CONSTRAINT PK_TB_BOARD_NOTICE PRIMARY KEY (</v>
@@ -5753,19 +5690,19 @@
       <c r="B130" s="4">
         <v>1</v>
       </c>
-      <c r="C130" s="18" t="str">
+      <c r="C130" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C114)</f>
         <v>PK_TB_BOARD_NOTICE</v>
       </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18" t="str">
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23" t="str">
         <f>C117</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
       <c r="J130" t="str">
         <f>_xlfn.CONCAT(IF(B130=1,"",", "),F130)</f>
         <v>BOARD_SEQ</v>
@@ -5786,29 +5723,29 @@
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="21"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="20"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B133" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>29</v>
@@ -5835,15 +5772,15 @@
       <c r="B134" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C134" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
+      <c r="C134" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
       <c r="J134" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C133)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -5892,25 +5829,25 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F136" s="4">
         <v>1</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J136" t="str">
         <f>_xlfn.CONCAT(IF(B136=1,"",", "),C136," ",E136," ",G136,IF(H136="",""," DEFAULT "),H136, " COMMENT '",I136,"'")</f>
@@ -5926,25 +5863,25 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F137" s="3">
         <v>2</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="J137" t="str">
         <f>_xlfn.CONCAT(IF(B137=1,"",", "),C137," ",E137," ",G137,IF(H137="",""," DEFAULT "),H137, " COMMENT '",I137,"'")</f>
@@ -5960,23 +5897,23 @@
         <v>3</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="J138" t="str">
         <f>_xlfn.CONCAT(IF(B138=1,"",", "),C138," ",E138," ",G138,IF(H138="",""," DEFAULT "),H138, " COMMENT '",I138,"'")</f>
@@ -5992,23 +5929,23 @@
         <v>4</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F139" s="4"/>
       <c r="G139" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="J139" t="str">
         <f t="shared" ref="J139:J147" si="17">_xlfn.CONCAT(IF(B139=1,"",", "),C139," ",E139," ",G139,IF(H139="",""," DEFAULT "),H139, " COMMENT '",I139,"'")</f>
@@ -6024,23 +5961,23 @@
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F140" s="4"/>
       <c r="G140" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="17"/>
@@ -6056,23 +5993,23 @@
         <v>6</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F141" s="4"/>
       <c r="G141" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="J141" t="str">
         <f t="shared" si="17"/>
@@ -6088,23 +6025,23 @@
         <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F142" s="4"/>
       <c r="G142" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="17"/>
@@ -6120,23 +6057,23 @@
         <v>8</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="17"/>
@@ -6152,23 +6089,23 @@
         <v>9</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J144" t="str">
         <f t="shared" si="17"/>
@@ -6184,23 +6121,23 @@
         <v>10</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J145" t="str">
         <f t="shared" si="17"/>
@@ -6216,23 +6153,23 @@
         <v>11</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="17"/>
@@ -6248,23 +6185,23 @@
         <v>12</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J147" t="str">
         <f t="shared" si="17"/>
@@ -6289,17 +6226,17 @@
       <c r="B149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C149" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
+      <c r="C149" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D149" s="22"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="22"/>
       <c r="J149" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C133," ADD CONSTRAINT ",C150," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6313,19 +6250,19 @@
       <c r="B150" s="4">
         <v>1</v>
       </c>
-      <c r="C150" s="18" t="str">
+      <c r="C150" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18" t="str">
+      <c r="D150" s="23"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="23" t="str">
         <f>C136</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
       <c r="J150" t="str">
         <f>_xlfn.CONCAT(IF(B150=1,"",", "),F150)</f>
         <v>BOARD_SEQ</v>
@@ -6339,19 +6276,19 @@
       <c r="B151" s="4">
         <v>2</v>
       </c>
-      <c r="C151" s="18" t="str">
+      <c r="C151" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C133)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18" t="str">
+      <c r="D151" s="23"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="23" t="str">
         <f>C137</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
+      <c r="G151" s="23"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
       <c r="J151" t="str">
         <f>_xlfn.CONCAT(IF(B151=1,"",", "),F151)</f>
         <v>, ATCFILE_NUM</v>
@@ -6372,29 +6309,29 @@
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="21"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="20"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B154" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>29</v>
@@ -6421,15 +6358,15 @@
       <c r="B155" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
+      <c r="C155" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D155" s="21"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+      <c r="I155" s="21"/>
       <c r="J155" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C154)</f>
         <v>CREATE TABLE TB_SEQUENCE</v>
@@ -6478,10 +6415,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>25</v>
@@ -6490,13 +6427,13 @@
         <v>1</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="J157" t="str">
         <f>_xlfn.CONCAT(IF(B157=1,"",", "),C157," ",E157," ",G157,IF(H157="",""," DEFAULT "),H157, " COMMENT '",I157,"'")</f>
@@ -6512,23 +6449,23 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="J158" t="str">
         <f>_xlfn.CONCAT(IF(B158=1,"",", "),C158," ",E158," ",G158,IF(H158="",""," DEFAULT "),H158, " COMMENT '",I158,"'")</f>
@@ -6553,17 +6490,17 @@
       <c r="B160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C160" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D160" s="23"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="23"/>
+      <c r="C160" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D160" s="22"/>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
       <c r="J160" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C154," ADD CONSTRAINT ",C161," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_SEQUENCE ADD CONSTRAINT PK_TB_SEQUENCE PRIMARY KEY (</v>
@@ -6577,19 +6514,19 @@
       <c r="B161" s="4">
         <v>1</v>
       </c>
-      <c r="C161" s="18" t="str">
+      <c r="C161" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C154)</f>
         <v>PK_TB_SEQUENCE</v>
       </c>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18" t="str">
+      <c r="D161" s="23"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="23" t="str">
         <f>C157</f>
         <v>SEQ_NM</v>
       </c>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
+      <c r="G161" s="23"/>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
       <c r="J161" t="str">
         <f>_xlfn.CONCAT(IF(B161=1,"",", "),F161)</f>
         <v>SEQ_NM</v>
@@ -6610,29 +6547,29 @@
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="21"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="20"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B164" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>29</v>
@@ -6659,15 +6596,15 @@
       <c r="B165" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C165" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="22"/>
-      <c r="I165" s="22"/>
+      <c r="C165" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
       <c r="J165" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C164)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6716,25 +6653,25 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F167" s="4">
         <v>1</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="J167" t="str">
         <f>_xlfn.CONCAT(IF(B167=1,"",", "),C167," ",E167," ",G167,IF(H167="",""," DEFAULT "),H167, " COMMENT '",I167,"'")</f>
@@ -6750,21 +6687,21 @@
         <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="J168" t="str">
         <f>_xlfn.CONCAT(IF(B168=1,"",", "),C168," ",E168," ",G168,IF(H168="",""," DEFAULT "),H168, " COMMENT '",I168,"'")</f>
@@ -6780,22 +6717,22 @@
         <v>3</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="J169" t="str">
         <f>_xlfn.CONCAT(IF(B169=1,"",", "),C169," ",E169," ",G169,IF(H169="",""," DEFAULT "),H169, " COMMENT '",I169,"'")</f>
@@ -6811,23 +6748,23 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="J170" t="str">
         <f t="shared" ref="J170:J175" si="19">_xlfn.CONCAT(IF(B170=1,"",", "),C170," ",E170," ",G170,IF(H170="",""," DEFAULT "),H170, " COMMENT '",I170,"'")</f>
@@ -6843,31 +6780,31 @@
         <v>5</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="J171" t="str">
         <f t="shared" si="19"/>
-        <v>, POLI_RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
       <c r="K171" t="str">
         <f t="shared" si="18"/>
-        <v>, POLI_RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.4">
@@ -6875,23 +6812,23 @@
         <v>9</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J172" t="str">
         <f t="shared" si="19"/>
@@ -6907,23 +6844,23 @@
         <v>10</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J173" t="str">
         <f t="shared" si="19"/>
@@ -6939,23 +6876,23 @@
         <v>11</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J174" t="str">
         <f t="shared" si="19"/>
@@ -6971,23 +6908,23 @@
         <v>12</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J175" t="str">
         <f t="shared" si="19"/>
@@ -7012,17 +6949,17 @@
       <c r="B177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D177" s="23"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G177" s="23"/>
-      <c r="H177" s="23"/>
-      <c r="I177" s="23"/>
+      <c r="C177" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D177" s="22"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="22"/>
       <c r="J177" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C164," ADD CONSTRAINT ",C178," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_POLI ADD CONSTRAINT PK_TB_POLI PRIMARY KEY (</v>
@@ -7036,19 +6973,19 @@
       <c r="B178" s="4">
         <v>1</v>
       </c>
-      <c r="C178" s="18" t="str">
+      <c r="C178" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C164)</f>
         <v>PK_TB_POLI</v>
       </c>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18" t="str">
+      <c r="D178" s="23"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23" t="str">
         <f>C167</f>
         <v>POLI_SEQ</v>
       </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
-      <c r="I178" s="18"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT(IF(B178=1,"",", "),F178)</f>
         <v>POLI_SEQ</v>
@@ -7069,29 +7006,29 @@
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B180" s="19" t="s">
+      <c r="B180" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="20"/>
-      <c r="D180" s="20"/>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="21"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="20"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B181" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>29</v>
@@ -7118,15 +7055,15 @@
       <c r="B182" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C182" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D182" s="22"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="22"/>
-      <c r="G182" s="22"/>
-      <c r="H182" s="22"/>
-      <c r="I182" s="22"/>
+      <c r="C182" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
       <c r="J182" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C181)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7175,25 +7112,25 @@
         <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F184" s="4">
         <v>1</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="J184" t="str">
         <f>_xlfn.CONCAT(IF(B184=1,"",", "),C184," ",E184," ",G184,IF(H184="",""," DEFAULT "),H184, " COMMENT '",I184,"'")</f>
@@ -7209,31 +7146,31 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="F185" s="4"/>
       <c r="G185" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="J185" t="str">
         <f>_xlfn.CONCAT(IF(B185=1,"",", "),C185," ",E185," ",G185,IF(H185="",""," DEFAULT "),H185, " COMMENT '",I185,"'")</f>
-        <v>, MNU_URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
+        <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
       </c>
       <c r="K185" t="str">
         <f>_xlfn.CONCAT(IF(B185=1,"",", "),C185," ",E185," ",G185,IF(H185="",""," DEFAULT "),H185, " COMMENT '",I185,"'")</f>
-        <v>, MNU_URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
+        <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.4">
@@ -7241,21 +7178,21 @@
         <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F186" s="4"/>
       <c r="G186" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="J186" t="str">
         <f>_xlfn.CONCAT(IF(B186=1,"",", "),C186," ",E186," ",G186,IF(H186="",""," DEFAULT "),H186, " COMMENT '",I186,"'")</f>
@@ -7271,30 +7208,30 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="J187" t="str">
         <f>_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,IF(H187="",""," DEFAULT "),H187, " COMMENT '",I187,"'")</f>
-        <v>, MNU_TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
+        <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
       </c>
       <c r="K187" t="str">
         <f t="shared" si="20"/>
-        <v>, MNU_TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
+        <v>, TOP_URL VARCHAR(100) NULL COMMENT '최상위메뉴경로'</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.4">
@@ -7302,31 +7239,31 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="F188" s="4"/>
       <c r="G188" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="J188" t="str">
         <f t="shared" ref="J188:J198" si="21">_xlfn.CONCAT(IF(B188=1,"",", "),C188," ",E188," ",G188,IF(H188="",""," DEFAULT "),H188, " COMMENT '",I188,"'")</f>
-        <v>, MNU_UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
+        <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
       </c>
       <c r="K188" t="str">
         <f t="shared" si="20"/>
-        <v>, MNU_UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
+        <v>, UPPER_URL VARCHAR(100) NULL COMMENT '상위메뉴경로'</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.4">
@@ -7334,31 +7271,31 @@
         <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F189" s="4"/>
       <c r="G189" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="J189" t="str">
         <f t="shared" ref="J189" si="22">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
-        <v>, MNU_OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
+        <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
       </c>
       <c r="K189" t="str">
         <f t="shared" ref="K189" si="23">_xlfn.CONCAT(IF(B189=1,"",", "),C189," ",E189," ",G189,IF(H189="",""," DEFAULT "),H189, " COMMENT '",I189,"'")</f>
-        <v>, MNU_OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
+        <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.4">
@@ -7366,31 +7303,31 @@
         <v>7</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="J190" t="str">
         <f t="shared" ref="J190:J192" si="24">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
-        <v>, MNU_AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한체크여부'</v>
+        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한체크여부'</v>
       </c>
       <c r="K190" t="str">
         <f t="shared" ref="K190:K192" si="25">_xlfn.CONCAT(IF(B190=1,"",", "),C190," ",E190," ",G190,IF(H190="",""," DEFAULT "),H190, " COMMENT '",I190,"'")</f>
-        <v>, MNU_AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한체크여부'</v>
+        <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한체크여부'</v>
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.4">
@@ -7398,31 +7335,31 @@
         <v>8</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="J191" t="str">
         <f t="shared" si="24"/>
-        <v>, MNU_LEVEL INT(1) NULL COMMENT '메뉴레벨'</v>
+        <v>, LEVEL INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
       <c r="K191" t="str">
         <f t="shared" si="25"/>
-        <v>, MNU_LEVEL INT(1) NULL COMMENT '메뉴레벨'</v>
+        <v>, LEVEL INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.4">
@@ -7430,31 +7367,31 @@
         <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="J192" t="str">
         <f t="shared" si="24"/>
-        <v>, MNU_INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
+        <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
       </c>
       <c r="K192" t="str">
         <f t="shared" si="25"/>
-        <v>, MNU_INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
+        <v>, INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.4">
@@ -7462,31 +7399,31 @@
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="J193" t="str">
         <f t="shared" ref="J193" si="26">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
-        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
+        <v>, ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
       </c>
       <c r="K193" t="str">
         <f t="shared" ref="K193" si="27">_xlfn.CONCAT(IF(B193=1,"",", "),C193," ",E193," ",G193,IF(H193="",""," DEFAULT "),H193, " COMMENT '",I193,"'")</f>
-        <v>, MNU_ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
+        <v>, ORDER INT(2) NULL COMMENT '메뉴표시순서'</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.4">
@@ -7494,31 +7431,31 @@
         <v>11</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F194" s="4"/>
       <c r="G194" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="J194" t="str">
         <f t="shared" si="21"/>
-        <v>, MNU_RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
       </c>
       <c r="K194" t="str">
         <f t="shared" si="20"/>
-        <v>, MNU_RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.4">
@@ -7526,23 +7463,23 @@
         <v>12</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J195" t="str">
         <f t="shared" si="21"/>
@@ -7558,23 +7495,23 @@
         <v>13</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J196" t="str">
         <f t="shared" si="21"/>
@@ -7590,23 +7527,23 @@
         <v>14</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J197" t="str">
         <f t="shared" si="21"/>
@@ -7622,23 +7559,23 @@
         <v>15</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F198" s="4"/>
       <c r="G198" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J198" t="str">
         <f t="shared" si="21"/>
@@ -7663,17 +7600,17 @@
       <c r="B200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="23"/>
-      <c r="F200" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-      <c r="I200" s="23"/>
+      <c r="C200" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D200" s="22"/>
+      <c r="E200" s="22"/>
+      <c r="F200" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="22"/>
       <c r="J200" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C181," ADD CONSTRAINT ",C201," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_MNU ADD CONSTRAINT PK_TB_MNU PRIMARY KEY (</v>
@@ -7687,19 +7624,19 @@
       <c r="B201" s="4">
         <v>1</v>
       </c>
-      <c r="C201" s="18" t="str">
+      <c r="C201" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C181)</f>
         <v>PK_TB_MNU</v>
       </c>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18" t="str">
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23" t="str">
         <f>C184</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
-      <c r="I201" s="18"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="23"/>
+      <c r="I201" s="23"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT(IF(B201=1,"",", "),F201)</f>
         <v>MNU_SEQ</v>
@@ -7720,29 +7657,29 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B203" s="19" t="s">
+      <c r="B203" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="21"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="20"/>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>29</v>
@@ -7769,15 +7706,15 @@
       <c r="B205" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C205" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="D205" s="22"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="22"/>
-      <c r="I205" s="22"/>
+      <c r="C205" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
       <c r="J205" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C204)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -7826,25 +7763,25 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F207" s="4">
         <v>1</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="J207" t="str">
         <f>_xlfn.CONCAT(IF(B207=1,"",", "),C207," ",E207," ",G207,IF(H207="",""," DEFAULT "),H207, " COMMENT '",I207,"'")</f>
@@ -7860,23 +7797,23 @@
         <v>2</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="J208" t="str">
         <f>_xlfn.CONCAT(IF(B208=1,"",", "),C208," ",E208," ",G208,IF(H208="",""," DEFAULT "),H208, " COMMENT '",I208,"'")</f>
@@ -7892,29 +7829,29 @@
         <v>3</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="J209" t="str">
         <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
-        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
+        <v>, ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
       <c r="K209" t="str">
         <f t="shared" ref="K209:K214" si="28">_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,IF(H209="",""," DEFAULT "),H209, " COMMENT '",I209,"'")</f>
-        <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
+        <v>, ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.4">
@@ -7922,30 +7859,30 @@
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="J210" t="str">
         <f>_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,IF(H210="",""," DEFAULT "),H210, " COMMENT '",I210,"'")</f>
-        <v>, ROLE_RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
       </c>
       <c r="K210" t="str">
         <f t="shared" si="28"/>
-        <v>, ROLE_RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
+        <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.4">
@@ -7953,23 +7890,23 @@
         <v>5</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F211" s="4"/>
       <c r="G211" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J211" t="str">
         <f t="shared" ref="J211:J214" si="29">_xlfn.CONCAT(IF(B211=1,"",", "),C211," ",E211," ",G211,IF(H211="",""," DEFAULT "),H211, " COMMENT '",I211,"'")</f>
@@ -7985,23 +7922,23 @@
         <v>6</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F212" s="4"/>
       <c r="G212" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J212" t="str">
         <f t="shared" si="29"/>
@@ -8017,23 +7954,23 @@
         <v>7</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F213" s="4"/>
       <c r="G213" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J213" t="str">
         <f t="shared" si="29"/>
@@ -8049,23 +7986,23 @@
         <v>8</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F214" s="4"/>
       <c r="G214" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J214" t="str">
         <f t="shared" si="29"/>
@@ -8090,17 +8027,17 @@
       <c r="B216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C216" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D216" s="23"/>
-      <c r="E216" s="23"/>
-      <c r="F216" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G216" s="23"/>
-      <c r="H216" s="23"/>
-      <c r="I216" s="23"/>
+      <c r="C216" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D216" s="22"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G216" s="22"/>
+      <c r="H216" s="22"/>
+      <c r="I216" s="22"/>
       <c r="J216" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C204," ADD CONSTRAINT ",C217," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ROLE ADD CONSTRAINT PK_TB_ROLE PRIMARY KEY (</v>
@@ -8114,19 +8051,19 @@
       <c r="B217" s="4">
         <v>1</v>
       </c>
-      <c r="C217" s="18" t="str">
+      <c r="C217" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C204)</f>
         <v>PK_TB_ROLE</v>
       </c>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18" t="str">
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23" t="str">
         <f>C207</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
-      <c r="I217" s="18"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
       <c r="J217" t="str">
         <f>_xlfn.CONCAT(IF(B217=1,"",", "),F217)</f>
         <v>ROLE_SEQ</v>
@@ -8147,29 +8084,29 @@
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B219" s="19" t="s">
+      <c r="B219" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-      <c r="I219" s="21"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="20"/>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B220" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="D220" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>29</v>
@@ -8196,15 +8133,15 @@
       <c r="B221" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C221" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="22"/>
-      <c r="I221" s="22"/>
+      <c r="C221" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
       <c r="J221" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C220)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -8253,31 +8190,31 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F223" s="4">
         <v>1</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H223" s="1"/>
       <c r="I223" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="J223" t="str">
         <f>_xlfn.CONCAT(IF(B223=1,"",", "),C223," ",E223," ",G223,IF(H223="",""," DEFAULT "),H223, " COMMENT '",I223,"'")</f>
-        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+        <v>ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
       <c r="K223" t="str">
         <f>_xlfn.CONCAT(IF(B223=1,"",", "),C223," ",E223," ",G223,IF(H223="",""," DEFAULT "),H223, " COMMENT '",I223,"'")</f>
-        <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
+        <v>ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.4">
@@ -8285,25 +8222,25 @@
         <v>2</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F224" s="4">
         <v>2</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="J224" t="str">
         <f>_xlfn.CONCAT(IF(B224=1,"",", "),C224," ",E224," ",G224,IF(H224="",""," DEFAULT "),H224, " COMMENT '",I224,"'")</f>
@@ -8319,23 +8256,23 @@
         <v>3</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F225" s="4"/>
       <c r="G225" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="J225" t="str">
         <f t="shared" ref="J225:J226" si="30">_xlfn.CONCAT(IF(B225=1,"",", "),C225," ",E225," ",G225,IF(H225="",""," DEFAULT "),H225, " COMMENT '",I225,"'")</f>
@@ -8351,23 +8288,23 @@
         <v>4</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F226" s="4"/>
       <c r="G226" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J226" t="str">
         <f t="shared" si="30"/>
@@ -8392,17 +8329,17 @@
       <c r="B228" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C228" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D228" s="23"/>
-      <c r="E228" s="23"/>
-      <c r="F228" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G228" s="23"/>
-      <c r="H228" s="23"/>
-      <c r="I228" s="23"/>
+      <c r="C228" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D228" s="22"/>
+      <c r="E228" s="22"/>
+      <c r="F228" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G228" s="22"/>
+      <c r="H228" s="22"/>
+      <c r="I228" s="22"/>
       <c r="J228" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C220," ADD CONSTRAINT ",C230," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -8416,45 +8353,45 @@
       <c r="B229" s="4">
         <v>1</v>
       </c>
-      <c r="C229" s="18" t="str">
+      <c r="C229" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18" t="str">
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23" t="str">
         <f>C223</f>
-        <v>USER_ID</v>
-      </c>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
-      <c r="I229" s="18"/>
+        <v>ID</v>
+      </c>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
       <c r="J229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
-        <v>USER_ID</v>
+        <v>ID</v>
       </c>
       <c r="K229" t="str">
         <f>_xlfn.CONCAT(IF(B229=1,"",", "),F229)</f>
-        <v>USER_ID</v>
+        <v>ID</v>
       </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B230" s="4">
         <v>2</v>
       </c>
-      <c r="C230" s="18" t="str">
+      <c r="C230" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C220)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D230" s="18"/>
-      <c r="E230" s="18"/>
-      <c r="F230" s="18" t="str">
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23" t="str">
         <f>C224</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G230" s="18"/>
-      <c r="H230" s="18"/>
-      <c r="I230" s="18"/>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
       <c r="J230" t="str">
         <f>_xlfn.CONCAT(IF(B230=1,"",", "),F230)</f>
         <v>, ROLE_SEQ</v>
@@ -8475,29 +8412,29 @@
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B232" s="19" t="s">
+      <c r="B232" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C232" s="20"/>
-      <c r="D232" s="20"/>
-      <c r="E232" s="20"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="20"/>
-      <c r="I232" s="21"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="19"/>
+      <c r="I232" s="20"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B233" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>29</v>
@@ -8524,15 +8461,15 @@
       <c r="B234" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C234" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="D234" s="22"/>
-      <c r="E234" s="22"/>
-      <c r="F234" s="22"/>
-      <c r="G234" s="22"/>
-      <c r="H234" s="22"/>
-      <c r="I234" s="22"/>
+      <c r="C234" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
       <c r="J234" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C233)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8581,23 +8518,23 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F236" s="4">
         <v>1</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="J236" t="str">
         <f>_xlfn.CONCAT(IF(B236=1,"",", "),C236," ",E236," ",G236,IF(H236="",""," DEFAULT "),H236, " COMMENT '",I236,"'")</f>
@@ -8613,25 +8550,25 @@
         <v>2</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F237" s="4">
         <v>2</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="J237" t="str">
         <f>_xlfn.CONCAT(IF(B237=1,"",", "),C237," ",E237," ",G237,IF(H237="",""," DEFAULT "),H237, " COMMENT '",I237,"'")</f>
@@ -8647,23 +8584,23 @@
         <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="F238" s="4"/>
       <c r="G238" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="J238" t="str">
         <f t="shared" ref="J238" si="32">_xlfn.CONCAT(IF(B238=1,"",", "),C238," ",E238," ",G238,IF(H238="",""," DEFAULT "),H238, " COMMENT '",I238,"'")</f>
@@ -8679,23 +8616,23 @@
         <v>4</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="F239" s="4"/>
       <c r="G239" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="J239" t="str">
         <f t="shared" ref="J239" si="34">_xlfn.CONCAT(IF(B239=1,"",", "),C239," ",E239," ",G239,IF(H239="",""," DEFAULT "),H239, " COMMENT '",I239,"'")</f>
@@ -8711,23 +8648,23 @@
         <v>5</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F240" s="4"/>
       <c r="G240" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="J240" t="str">
         <f t="shared" ref="J240:J243" si="36">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,IF(H240="",""," DEFAULT "),H240, " COMMENT '",I240,"'")</f>
@@ -8743,23 +8680,23 @@
         <v>6</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F241" s="4"/>
       <c r="G241" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J241" t="str">
         <f t="shared" si="36"/>
@@ -8775,23 +8712,23 @@
         <v>7</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F242" s="4"/>
       <c r="G242" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J242" t="str">
         <f t="shared" ref="J242" si="38">_xlfn.CONCAT(IF(B242=1,"",", "),C242," ",E242," ",G242,IF(H242="",""," DEFAULT "),H242, " COMMENT '",I242,"'")</f>
@@ -8807,23 +8744,23 @@
         <v>8</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F243" s="4"/>
       <c r="G243" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J243" t="str">
         <f t="shared" si="36"/>
@@ -8848,17 +8785,17 @@
       <c r="B245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C245" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D245" s="23"/>
-      <c r="E245" s="23"/>
-      <c r="F245" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G245" s="23"/>
-      <c r="H245" s="23"/>
-      <c r="I245" s="23"/>
+      <c r="C245" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" s="22"/>
+      <c r="E245" s="22"/>
+      <c r="F245" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G245" s="22"/>
+      <c r="H245" s="22"/>
+      <c r="I245" s="22"/>
       <c r="J245" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C233," ADD CONSTRAINT ",C247," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8872,19 +8809,19 @@
       <c r="B246" s="4">
         <v>1</v>
       </c>
-      <c r="C246" s="18" t="str">
+      <c r="C246" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D246" s="18"/>
-      <c r="E246" s="18"/>
-      <c r="F246" s="18" t="str">
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23" t="str">
         <f>C236</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G246" s="18"/>
-      <c r="H246" s="18"/>
-      <c r="I246" s="18"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
       <c r="J246" t="str">
         <f>_xlfn.CONCAT(IF(B246=1,"",", "),F246)</f>
         <v>MNU_SEQ</v>
@@ -8898,19 +8835,19 @@
       <c r="B247" s="4">
         <v>2</v>
       </c>
-      <c r="C247" s="18" t="str">
+      <c r="C247" s="23" t="str">
         <f>_xlfn.CONCAT("PK_",C233)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18" t="str">
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="23" t="str">
         <f>C237</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G247" s="18"/>
-      <c r="H247" s="18"/>
-      <c r="I247" s="18"/>
+      <c r="G247" s="23"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="23"/>
       <c r="J247" t="str">
         <f>_xlfn.CONCAT(IF(B247=1,"",", "),F247)</f>
         <v>, ROLE_SEQ</v>
@@ -8932,60 +8869,28 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="C182:I182"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="B96:I96"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B113:I113"/>
-    <mergeCell ref="C115:I115"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="C155:I155"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="F130:I130"/>
-    <mergeCell ref="B132:I132"/>
-    <mergeCell ref="C134:I134"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="F149:I149"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="F150:I150"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C247:E247"/>
+    <mergeCell ref="F247:I247"/>
+    <mergeCell ref="B232:I232"/>
+    <mergeCell ref="C234:I234"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="F245:I245"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="B219:I219"/>
+    <mergeCell ref="C221:I221"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="F228:I228"/>
+    <mergeCell ref="C230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="C229:E229"/>
+    <mergeCell ref="F229:I229"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="C205:I205"/>
+    <mergeCell ref="C216:E216"/>
+    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="C217:E217"/>
+    <mergeCell ref="F217:I217"/>
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="F177:I177"/>
     <mergeCell ref="C178:E178"/>
@@ -9002,28 +8907,60 @@
     <mergeCell ref="F161:I161"/>
     <mergeCell ref="B163:I163"/>
     <mergeCell ref="C165:I165"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="C205:I205"/>
-    <mergeCell ref="C216:E216"/>
-    <mergeCell ref="F216:I216"/>
-    <mergeCell ref="C217:E217"/>
-    <mergeCell ref="F217:I217"/>
-    <mergeCell ref="B219:I219"/>
-    <mergeCell ref="C221:I221"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="F228:I228"/>
-    <mergeCell ref="C230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="C229:E229"/>
-    <mergeCell ref="F229:I229"/>
-    <mergeCell ref="C247:E247"/>
-    <mergeCell ref="F247:I247"/>
-    <mergeCell ref="B232:I232"/>
-    <mergeCell ref="C234:I234"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="F245:I245"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="F246:I246"/>
+    <mergeCell ref="C155:I155"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="B132:I132"/>
+    <mergeCell ref="C134:I134"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="F149:I149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="F150:I150"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="F151:I151"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B113:I113"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B96:I96"/>
+    <mergeCell ref="C98:I98"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="C182:I182"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="F201:I201"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9034,8 +8971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA93" sqref="AA93"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9059,22 +8996,22 @@
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -9105,10 +9042,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="E4" s="13"/>
       <c r="K4" s="12"/>
@@ -9137,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -9153,7 +9090,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9169,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -9185,7 +9122,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -9201,7 +9138,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9217,7 +9154,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9230,47 +9167,47 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA11" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="12"/>
@@ -9299,25 +9236,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J14" s="11"/>
       <c r="R14" s="12"/>
@@ -9331,7 +9268,7 @@
       <c r="Z14" s="12"/>
       <c r="AA14" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C12, "(", _xlfn.TEXTJOIN(",",TRUE,C13:Z13),") VALUES")</f>
-        <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,POLI_RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_POLI(POLI_SEQ,POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.4">
@@ -9339,25 +9276,25 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -9386,25 +9323,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="F16" s="1">
         <v>7200</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -9433,25 +9370,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="F17" s="1">
         <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -9477,35 +9414,35 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA18" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -9532,16 +9469,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="9"/>
@@ -9571,16 +9508,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I22" s="11"/>
       <c r="AA22" t="str">
@@ -9593,16 +9530,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I23" s="11"/>
       <c r="AA23" t="str">
@@ -9615,16 +9552,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I24" s="11"/>
       <c r="AA24" t="str">
@@ -9634,47 +9571,47 @@
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA25" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B26" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>253</v>
+        <v>391</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
@@ -9695,25 +9632,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="13"/>
@@ -9733,7 +9670,7 @@
       <c r="Z28" s="13"/>
       <c r="AA28" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C26, "(", _xlfn.TEXTJOIN(",",TRUE,C27:Z27),") VALUES")</f>
-        <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,CODE_MODIFY_YN,CODE_DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.4">
@@ -9741,25 +9678,25 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K29" s="11"/>
       <c r="AA29" t="str">
@@ -9772,25 +9709,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K30" s="11"/>
       <c r="AA30" t="str">
@@ -9803,25 +9740,25 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K31" s="11"/>
       <c r="AA31" t="str">
@@ -9834,25 +9771,25 @@
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G32" s="1">
         <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K32" s="11"/>
       <c r="AA32" t="str">
@@ -9865,25 +9802,25 @@
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G33" s="1">
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K33" s="11"/>
       <c r="AA33" t="str">
@@ -9896,25 +9833,25 @@
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K34" s="11"/>
       <c r="AA34" t="str">
@@ -9927,25 +9864,25 @@
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K35" s="11"/>
       <c r="AA35" t="str">
@@ -9958,25 +9895,25 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K36" s="11"/>
       <c r="AA36" t="str">
@@ -9989,25 +9926,25 @@
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G37" s="1">
         <v>3</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K37" s="11"/>
       <c r="AA37" t="str">
@@ -10020,25 +9957,25 @@
         <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G38" s="1">
         <v>4</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K38" s="11"/>
       <c r="AA38" t="str">
@@ -10051,25 +9988,25 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K39" s="11"/>
       <c r="AA39" t="str">
@@ -10082,25 +10019,25 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G40" s="1">
         <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K40" s="11"/>
       <c r="AA40" t="str">
@@ -10113,25 +10050,25 @@
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G41" s="1">
         <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K41" s="11"/>
       <c r="AA41" t="str">
@@ -10144,25 +10081,25 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G42" s="1">
         <v>4</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K42" s="11"/>
       <c r="AA42" t="str">
@@ -10175,25 +10112,25 @@
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G43" s="1">
         <v>5</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K43" s="11"/>
       <c r="AA43" t="str">
@@ -10206,25 +10143,25 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G44" s="1">
         <v>6</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K44" s="11"/>
       <c r="AA44" t="str">
@@ -10237,25 +10174,25 @@
         <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G45" s="1">
         <v>7</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K45" s="11"/>
       <c r="AA45" t="str">
@@ -10268,25 +10205,25 @@
         <v>18</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G46" s="1">
         <v>8</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K46" s="11"/>
       <c r="AA46" t="str">
@@ -10296,12 +10233,12 @@
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA47" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B48" s="10" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>37</v>
@@ -10315,16 +10252,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G49" s="13"/>
       <c r="K49" s="12"/>
@@ -10353,16 +10290,16 @@
         <v>3</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="G50" s="13"/>
       <c r="L50" s="13"/>
@@ -10382,7 +10319,7 @@
       <c r="Z50" s="13"/>
       <c r="AA50" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C48, "(", _xlfn.TEXTJOIN(",",TRUE,C49:Z49),") VALUES")</f>
-        <v>INSERT INTO TB_USER(USER_ID,USER_PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_USER(ID,PW,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.4">
@@ -10390,16 +10327,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K51" s="11"/>
       <c r="AA51" t="str">
@@ -10412,16 +10349,16 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="K52" s="11"/>
       <c r="AA52" t="str">
@@ -10431,67 +10368,67 @@
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA53" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B54" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B55" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>290</v>
+        <v>395</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>308</v>
+        <v>394</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -10512,40 +10449,40 @@
         <v>3</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="H56" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="N56" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
@@ -10558,7 +10495,7 @@
       <c r="Z56" s="13"/>
       <c r="AA56" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C54, "(", _xlfn.TEXTJOIN(",",TRUE,C55:Z55),") VALUES")</f>
-        <v>INSERT INTO TB_MNU(MNU_SEQ,MNU_URL,MNU_NM,MNU_TOP_URL,MNU_UPPER_URL,MNU_OPEN_YN,MNU_AUTH_YN,MNU_LEVEL,MNU_INFO,MNU_ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,LEVEL,INFO,ORDER,FST_REG_ID,LT_UPD_ID) VALUES</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.4">
@@ -10566,40 +10503,40 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA57" t="str">
         <f t="shared" ref="AA57:AA65" si="8">_xlfn.CONCAT(IF(B57=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C57:Z57),")")</f>
@@ -10611,40 +10548,40 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J58" s="1">
         <v>2</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="L58" s="1">
         <v>1</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA58" t="str">
         <f t="shared" si="8"/>
@@ -10656,40 +10593,40 @@
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J59" s="1">
         <v>2</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="L59" s="1">
         <v>2</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" ref="AA59" si="9">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
@@ -10701,40 +10638,40 @@
         <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J60" s="1">
         <v>2</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="L60" s="1">
         <v>3</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA60" t="str">
         <f>_xlfn.CONCAT(IF(B60=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C60:Z60),")")</f>
@@ -10746,40 +10683,40 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="L61" s="1">
         <v>2</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA61" t="str">
         <f t="shared" si="8"/>
@@ -10791,40 +10728,40 @@
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="L62" s="1">
         <v>3</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA62" t="str">
         <f t="shared" si="8"/>
@@ -10836,40 +10773,40 @@
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="L63" s="1">
         <v>4</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="8"/>
@@ -10881,40 +10818,40 @@
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="L64" s="1">
         <v>5</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA64" t="str">
         <f t="shared" si="8"/>
@@ -10926,40 +10863,40 @@
         <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="L65" s="1">
         <v>6</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA65" t="str">
         <f t="shared" si="8"/>
@@ -10971,40 +10908,40 @@
         <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="J66" s="1">
         <v>2</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="L66" s="1">
         <v>1</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA66" t="str">
         <f t="shared" ref="AA66:AA68" si="10">_xlfn.CONCAT(IF(B66=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C66:Z66),")")</f>
@@ -11016,40 +10953,40 @@
         <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="L67" s="1">
         <v>7</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA67" t="str">
         <f t="shared" si="10"/>
@@ -11061,40 +10998,40 @@
         <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="J68" s="1">
         <v>2</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="L68" s="1">
         <v>1</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA68" t="str">
         <f t="shared" si="10"/>
@@ -11103,35 +11040,35 @@
     </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA69" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B70" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B71" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
@@ -11156,16 +11093,16 @@
         <v>3</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
@@ -11182,7 +11119,7 @@
       <c r="Z72" s="13"/>
       <c r="AA72" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C70, "(", _xlfn.TEXTJOIN(",",TRUE,C71:Z71),") VALUES")</f>
-        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,FST_REG_ID) VALUES</v>
+        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ORDER,FST_REG_ID) VALUES</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.4">
@@ -11190,16 +11127,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA73" t="str">
         <f t="shared" ref="AA73:AA77" si="11">_xlfn.CONCAT(IF(B73=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C73:Z73),")")</f>
@@ -11211,16 +11148,16 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA74" t="str">
         <f t="shared" ref="AA74" si="12">_xlfn.CONCAT(IF(B74=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C74:Z74),")")</f>
@@ -11232,16 +11169,16 @@
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="E75" s="1">
         <v>3</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA75" t="str">
         <f t="shared" si="11"/>
@@ -11253,16 +11190,16 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="E76" s="1">
         <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" si="11"/>
@@ -11274,16 +11211,16 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA77" t="str">
         <f t="shared" si="11"/>
@@ -11292,31 +11229,31 @@
     </row>
     <row r="78" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA78" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B79" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B80" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
@@ -11341,13 +11278,13 @@
         <v>3</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -11364,7 +11301,7 @@
       <c r="Z81" s="13"/>
       <c r="AA81" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C79, "(", _xlfn.TEXTJOIN(",",TRUE,C80:Z80),") VALUES")</f>
-        <v>INSERT INTO TB_USER_ROLE_MAP(USER_ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
+        <v>INSERT INTO TB_USER_ROLE_MAP(ID,ROLE_SEQ,FST_REG_ID) VALUES</v>
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.4">
@@ -11372,13 +11309,13 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA82" t="str">
         <f t="shared" ref="AA82" si="13">_xlfn.CONCAT(IF(B82=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C82:Z82),")")</f>
@@ -11390,13 +11327,13 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA83" t="str">
         <f t="shared" ref="AA83" si="14">_xlfn.CONCAT(IF(B83=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C83:Z83),")")</f>
@@ -11405,43 +11342,43 @@
     </row>
     <row r="84" spans="2:27" x14ac:dyDescent="0.4">
       <c r="AA84" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B85" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
+        <v>199</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B86" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
@@ -11466,22 +11403,22 @@
         <v>3</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
@@ -11506,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D88" s="8">
         <v>3</v>
@@ -11515,13 +11452,13 @@
         <v>2</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA88" t="str">
         <f>_xlfn.CONCAT(IF(B88&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C88:Z88)," FROM ", $C$90)</f>
@@ -11533,7 +11470,7 @@
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D89" s="8">
         <v>1</v>
@@ -11542,13 +11479,13 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="AA89" t="str">
         <f>_xlfn.CONCAT(IF(B89&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C89:Z89)," FROM ", $C$90)</f>
@@ -11557,16 +11494,16 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.4">
       <c r="B90" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
+        <v>352</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
       <c r="AA90" t="str">
         <f>_xlfn.CONCAT(";")</f>
         <v>;</v>
@@ -11574,16 +11511,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C90:H90"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="C26:I26"/>
     <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="C90:H90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B57:N68">
@@ -11680,7 +11617,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -11698,7 +11635,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
@@ -11716,7 +11653,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -11734,7 +11671,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -11749,16 +11686,16 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -11767,16 +11704,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -11784,14 +11721,14 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>414</v>
+      <c r="C11" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
